--- a/Administración de Base de datos/LISTA DE ASISTENCIA.xlsx
+++ b/Administración de Base de datos/LISTA DE ASISTENCIA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Semestre 2023\Administración de Base de datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A37052EA-4220-4F2F-BECC-E2605B4FAD81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A515A3D-64A9-49DC-B36B-9EBD1AD9F881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{483FA78A-27C1-422B-951E-FFDDEF779FE0}"/>
   </bookViews>
@@ -212,7 +212,6 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -222,6 +221,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -530,7 +530,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -540,8 +540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CBE9989-2FBB-4721-BEF0-9EED0B8B83CE}">
   <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection sqref="A1:O2"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -558,92 +558,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="9">
-        <v>1</v>
-      </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
+      <c r="B5" s="8">
+        <v>1</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
     </row>
     <row r="8" spans="1:15" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
@@ -703,14 +703,16 @@
       <c r="E9" s="1">
         <v>1</v>
       </c>
-      <c r="F9" s="1"/>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="4">
         <f>SUM(C9:J9)/8</f>
-        <v>0.375</v>
+        <v>0.5</v>
       </c>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
@@ -732,14 +734,16 @@
       <c r="E10" s="1">
         <v>1</v>
       </c>
-      <c r="F10" s="1"/>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="4">
         <f t="shared" ref="K10:K25" si="0">SUM(C10:J10)/8</f>
-        <v>0.375</v>
+        <v>0.5</v>
       </c>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
@@ -761,14 +765,16 @@
       <c r="E11" s="1">
         <v>1</v>
       </c>
-      <c r="F11" s="1"/>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="4">
         <f t="shared" si="0"/>
-        <v>0.375</v>
+        <v>0.5</v>
       </c>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
@@ -790,14 +796,16 @@
       <c r="E12" s="1">
         <v>1</v>
       </c>
-      <c r="F12" s="1"/>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="4">
         <f t="shared" si="0"/>
-        <v>0.375</v>
+        <v>0.5</v>
       </c>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
@@ -819,14 +827,16 @@
       <c r="E13" s="1">
         <v>0</v>
       </c>
-      <c r="F13" s="1"/>
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="4">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.375</v>
       </c>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
@@ -848,14 +858,16 @@
       <c r="E14" s="1">
         <v>1</v>
       </c>
-      <c r="F14" s="1"/>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="4">
         <f t="shared" ref="K14" si="1">SUM(C14:J14)/8</f>
-        <v>0.375</v>
+        <v>0.5</v>
       </c>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
@@ -877,14 +889,16 @@
       <c r="E15" s="1">
         <v>1</v>
       </c>
-      <c r="F15" s="1"/>
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="4">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.375</v>
       </c>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
@@ -906,14 +920,16 @@
       <c r="E16" s="1">
         <v>1</v>
       </c>
-      <c r="F16" s="1"/>
+      <c r="F16" s="1">
+        <v>1</v>
+      </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="4">
         <f t="shared" si="0"/>
-        <v>0.375</v>
+        <v>0.5</v>
       </c>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
@@ -935,14 +951,16 @@
       <c r="E17" s="1">
         <v>1</v>
       </c>
-      <c r="F17" s="1"/>
+      <c r="F17" s="1">
+        <v>1</v>
+      </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="4">
         <f t="shared" si="0"/>
-        <v>0.375</v>
+        <v>0.5</v>
       </c>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
@@ -964,14 +982,16 @@
       <c r="E18" s="1">
         <v>1</v>
       </c>
-      <c r="F18" s="1"/>
+      <c r="F18" s="1">
+        <v>1</v>
+      </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="4">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.375</v>
       </c>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
@@ -993,14 +1013,16 @@
       <c r="E19" s="1">
         <v>1</v>
       </c>
-      <c r="F19" s="1"/>
+      <c r="F19" s="1">
+        <v>1</v>
+      </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="4">
         <f t="shared" si="0"/>
-        <v>0.375</v>
+        <v>0.5</v>
       </c>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
@@ -1022,14 +1044,16 @@
       <c r="E20" s="1">
         <v>1</v>
       </c>
-      <c r="F20" s="1"/>
+      <c r="F20" s="1">
+        <v>1</v>
+      </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="4">
         <f t="shared" si="0"/>
-        <v>0.375</v>
+        <v>0.5</v>
       </c>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
@@ -1051,14 +1075,16 @@
       <c r="E21" s="1">
         <v>1</v>
       </c>
-      <c r="F21" s="1"/>
+      <c r="F21" s="1">
+        <v>1</v>
+      </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="4">
         <f t="shared" si="0"/>
-        <v>0.375</v>
+        <v>0.5</v>
       </c>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
@@ -1080,14 +1106,16 @@
       <c r="E22" s="1">
         <v>1</v>
       </c>
-      <c r="F22" s="1"/>
+      <c r="F22" s="1">
+        <v>1</v>
+      </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="4">
         <f t="shared" si="0"/>
-        <v>0.375</v>
+        <v>0.5</v>
       </c>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
@@ -1109,14 +1137,16 @@
       <c r="E23" s="1">
         <v>1</v>
       </c>
-      <c r="F23" s="1"/>
+      <c r="F23" s="1">
+        <v>1</v>
+      </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="4">
         <f t="shared" si="0"/>
-        <v>0.375</v>
+        <v>0.5</v>
       </c>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
@@ -1138,14 +1168,16 @@
       <c r="E24" s="1">
         <v>1</v>
       </c>
-      <c r="F24" s="1"/>
+      <c r="F24" s="1">
+        <v>1</v>
+      </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="4">
         <f t="shared" si="0"/>
-        <v>0.375</v>
+        <v>0.5</v>
       </c>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
@@ -1167,7 +1199,9 @@
       <c r="E25" s="1">
         <v>0</v>
       </c>
-      <c r="F25" s="1"/>
+      <c r="F25" s="1">
+        <v>0</v>
+      </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
@@ -1181,20 +1215,16 @@
       <c r="N25" s="1"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
+      <c r="A26" s="9"/>
+      <c r="B26" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
     <mergeCell ref="A1:O2"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A17:B17"/>
@@ -1205,11 +1235,15 @@
     <mergeCell ref="B4:G4"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A14:B14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>

--- a/Administración de Base de datos/LISTA DE ASISTENCIA.xlsx
+++ b/Administración de Base de datos/LISTA DE ASISTENCIA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Semestre 2023\Administración de Base de datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A515A3D-64A9-49DC-B36B-9EBD1AD9F881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E08DE5BF-70A0-45F6-8199-2448C3989DAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{483FA78A-27C1-422B-951E-FFDDEF779FE0}"/>
   </bookViews>
@@ -212,6 +212,7 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -221,7 +222,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -541,7 +541,7 @@
   <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -558,94 +558,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="8">
-        <v>1</v>
-      </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
+      <c r="B5" s="9">
+        <v>1</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-    </row>
-    <row r="8" spans="1:15" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+    </row>
+    <row r="8" spans="1:15" ht="50.25" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>6</v>
       </c>
@@ -663,7 +663,7 @@
         <v>44960</v>
       </c>
       <c r="G8" s="2">
-        <v>44966</v>
+        <v>44964</v>
       </c>
       <c r="H8" s="2">
         <v>44967</v>
@@ -706,13 +706,15 @@
       <c r="F9" s="1">
         <v>1</v>
       </c>
-      <c r="G9" s="1"/>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="4">
         <f>SUM(C9:J9)/8</f>
-        <v>0.5</v>
+        <v>0.625</v>
       </c>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
@@ -737,13 +739,15 @@
       <c r="F10" s="1">
         <v>1</v>
       </c>
-      <c r="G10" s="1"/>
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="4">
         <f t="shared" ref="K10:K25" si="0">SUM(C10:J10)/8</f>
-        <v>0.5</v>
+        <v>0.625</v>
       </c>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
@@ -768,13 +772,15 @@
       <c r="F11" s="1">
         <v>1</v>
       </c>
-      <c r="G11" s="1"/>
+      <c r="G11" s="1">
+        <v>1</v>
+      </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="4">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.625</v>
       </c>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
@@ -799,13 +805,15 @@
       <c r="F12" s="1">
         <v>1</v>
       </c>
-      <c r="G12" s="1"/>
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="4">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.625</v>
       </c>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
@@ -830,7 +838,9 @@
       <c r="F13" s="1">
         <v>1</v>
       </c>
-      <c r="G13" s="1"/>
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -861,13 +871,15 @@
       <c r="F14" s="1">
         <v>1</v>
       </c>
-      <c r="G14" s="1"/>
+      <c r="G14" s="1">
+        <v>1</v>
+      </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="4">
         <f t="shared" ref="K14" si="1">SUM(C14:J14)/8</f>
-        <v>0.5</v>
+        <v>0.625</v>
       </c>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
@@ -892,7 +904,9 @@
       <c r="F15" s="1">
         <v>1</v>
       </c>
-      <c r="G15" s="1"/>
+      <c r="G15" s="1">
+        <v>0</v>
+      </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
@@ -923,13 +937,15 @@
       <c r="F16" s="1">
         <v>1</v>
       </c>
-      <c r="G16" s="1"/>
+      <c r="G16" s="1">
+        <v>1</v>
+      </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="4">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.625</v>
       </c>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
@@ -954,13 +970,15 @@
       <c r="F17" s="1">
         <v>1</v>
       </c>
-      <c r="G17" s="1"/>
+      <c r="G17" s="1">
+        <v>1</v>
+      </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="4">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.625</v>
       </c>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
@@ -985,13 +1003,15 @@
       <c r="F18" s="1">
         <v>1</v>
       </c>
-      <c r="G18" s="1"/>
+      <c r="G18" s="1">
+        <v>1</v>
+      </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="4">
         <f t="shared" si="0"/>
-        <v>0.375</v>
+        <v>0.5</v>
       </c>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
@@ -1016,13 +1036,15 @@
       <c r="F19" s="1">
         <v>1</v>
       </c>
-      <c r="G19" s="1"/>
+      <c r="G19" s="1">
+        <v>1</v>
+      </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="4">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.625</v>
       </c>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
@@ -1047,13 +1069,15 @@
       <c r="F20" s="1">
         <v>1</v>
       </c>
-      <c r="G20" s="1"/>
+      <c r="G20" s="1">
+        <v>1</v>
+      </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="4">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.625</v>
       </c>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
@@ -1078,13 +1102,15 @@
       <c r="F21" s="1">
         <v>1</v>
       </c>
-      <c r="G21" s="1"/>
+      <c r="G21" s="1">
+        <v>1</v>
+      </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="4">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.625</v>
       </c>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
@@ -1109,13 +1135,15 @@
       <c r="F22" s="1">
         <v>1</v>
       </c>
-      <c r="G22" s="1"/>
+      <c r="G22" s="1">
+        <v>1</v>
+      </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="4">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.625</v>
       </c>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
@@ -1140,13 +1168,15 @@
       <c r="F23" s="1">
         <v>1</v>
       </c>
-      <c r="G23" s="1"/>
+      <c r="G23" s="1">
+        <v>1</v>
+      </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="4">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.625</v>
       </c>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
@@ -1171,13 +1201,15 @@
       <c r="F24" s="1">
         <v>1</v>
       </c>
-      <c r="G24" s="1"/>
+      <c r="G24" s="1">
+        <v>1</v>
+      </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="4">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.625</v>
       </c>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
@@ -1202,7 +1234,9 @@
       <c r="F25" s="1">
         <v>0</v>
       </c>
-      <c r="G25" s="1"/>
+      <c r="G25" s="1">
+        <v>0</v>
+      </c>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
@@ -1215,16 +1249,20 @@
       <c r="N25" s="1"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="9"/>
-      <c r="B26" s="9"/>
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A14:B14"/>
     <mergeCell ref="A1:O2"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A17:B17"/>
@@ -1235,15 +1273,11 @@
     <mergeCell ref="B4:G4"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>

--- a/Administración de Base de datos/LISTA DE ASISTENCIA.xlsx
+++ b/Administración de Base de datos/LISTA DE ASISTENCIA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Semestre 2023\Administración de Base de datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E08DE5BF-70A0-45F6-8199-2448C3989DAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1D49EDB-F80B-4B88-A429-A2C5103A6C65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{483FA78A-27C1-422B-951E-FFDDEF779FE0}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{483FA78A-27C1-422B-951E-FFDDEF779FE0}"/>
   </bookViews>
   <sheets>
     <sheet name="UNIDAD 1" sheetId="1" r:id="rId1"/>
@@ -212,7 +212,6 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -222,6 +221,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -540,8 +540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CBE9989-2FBB-4721-BEF0-9EED0B8B83CE}">
   <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -558,94 +558,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="9">
-        <v>1</v>
-      </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
+      <c r="B5" s="8">
+        <v>1</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-    </row>
-    <row r="8" spans="1:15" ht="50.25" x14ac:dyDescent="0.25">
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+    </row>
+    <row r="8" spans="1:15" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>6</v>
       </c>
@@ -666,7 +666,7 @@
         <v>44964</v>
       </c>
       <c r="H8" s="2">
-        <v>44967</v>
+        <v>44966</v>
       </c>
       <c r="I8" s="2">
         <v>44969</v>
@@ -709,12 +709,14 @@
       <c r="G9" s="1">
         <v>1</v>
       </c>
-      <c r="H9" s="1"/>
+      <c r="H9" s="1">
+        <v>1</v>
+      </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="4">
         <f>SUM(C9:J9)/8</f>
-        <v>0.625</v>
+        <v>0.75</v>
       </c>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
@@ -742,12 +744,14 @@
       <c r="G10" s="1">
         <v>1</v>
       </c>
-      <c r="H10" s="1"/>
+      <c r="H10" s="1">
+        <v>1</v>
+      </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="4">
         <f t="shared" ref="K10:K25" si="0">SUM(C10:J10)/8</f>
-        <v>0.625</v>
+        <v>0.75</v>
       </c>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
@@ -775,7 +779,9 @@
       <c r="G11" s="1">
         <v>1</v>
       </c>
-      <c r="H11" s="1"/>
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="4">
@@ -808,7 +814,9 @@
       <c r="G12" s="1">
         <v>1</v>
       </c>
-      <c r="H12" s="1"/>
+      <c r="H12" s="1">
+        <v>0</v>
+      </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="4">
@@ -841,12 +849,14 @@
       <c r="G13" s="1">
         <v>0</v>
       </c>
-      <c r="H13" s="1"/>
+      <c r="H13" s="1">
+        <v>1</v>
+      </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="4">
         <f t="shared" si="0"/>
-        <v>0.375</v>
+        <v>0.5</v>
       </c>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
@@ -874,7 +884,9 @@
       <c r="G14" s="1">
         <v>1</v>
       </c>
-      <c r="H14" s="1"/>
+      <c r="H14" s="1">
+        <v>0</v>
+      </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="4">
@@ -907,7 +919,9 @@
       <c r="G15" s="1">
         <v>0</v>
       </c>
-      <c r="H15" s="1"/>
+      <c r="H15" s="1">
+        <v>0</v>
+      </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="4">
@@ -940,12 +954,14 @@
       <c r="G16" s="1">
         <v>1</v>
       </c>
-      <c r="H16" s="1"/>
+      <c r="H16" s="1">
+        <v>1</v>
+      </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="4">
         <f t="shared" si="0"/>
-        <v>0.625</v>
+        <v>0.75</v>
       </c>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
@@ -973,12 +989,14 @@
       <c r="G17" s="1">
         <v>1</v>
       </c>
-      <c r="H17" s="1"/>
+      <c r="H17" s="1">
+        <v>1</v>
+      </c>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="4">
         <f t="shared" si="0"/>
-        <v>0.625</v>
+        <v>0.75</v>
       </c>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
@@ -1006,12 +1024,14 @@
       <c r="G18" s="1">
         <v>1</v>
       </c>
-      <c r="H18" s="1"/>
+      <c r="H18" s="1">
+        <v>1</v>
+      </c>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="4">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.625</v>
       </c>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
@@ -1039,12 +1059,14 @@
       <c r="G19" s="1">
         <v>1</v>
       </c>
-      <c r="H19" s="1"/>
+      <c r="H19" s="1">
+        <v>1</v>
+      </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="4">
         <f t="shared" si="0"/>
-        <v>0.625</v>
+        <v>0.75</v>
       </c>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
@@ -1072,12 +1094,14 @@
       <c r="G20" s="1">
         <v>1</v>
       </c>
-      <c r="H20" s="1"/>
+      <c r="H20" s="1">
+        <v>1</v>
+      </c>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="4">
         <f t="shared" si="0"/>
-        <v>0.625</v>
+        <v>0.75</v>
       </c>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
@@ -1105,12 +1129,14 @@
       <c r="G21" s="1">
         <v>1</v>
       </c>
-      <c r="H21" s="1"/>
+      <c r="H21" s="1">
+        <v>1</v>
+      </c>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="4">
         <f t="shared" si="0"/>
-        <v>0.625</v>
+        <v>0.75</v>
       </c>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
@@ -1138,12 +1164,14 @@
       <c r="G22" s="1">
         <v>1</v>
       </c>
-      <c r="H22" s="1"/>
+      <c r="H22" s="1">
+        <v>1</v>
+      </c>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="4">
         <f t="shared" si="0"/>
-        <v>0.625</v>
+        <v>0.75</v>
       </c>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
@@ -1171,12 +1199,14 @@
       <c r="G23" s="1">
         <v>1</v>
       </c>
-      <c r="H23" s="1"/>
+      <c r="H23" s="1">
+        <v>1</v>
+      </c>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="4">
         <f t="shared" si="0"/>
-        <v>0.625</v>
+        <v>0.75</v>
       </c>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
@@ -1204,12 +1234,14 @@
       <c r="G24" s="1">
         <v>1</v>
       </c>
-      <c r="H24" s="1"/>
+      <c r="H24" s="1">
+        <v>1</v>
+      </c>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="4">
         <f t="shared" si="0"/>
-        <v>0.625</v>
+        <v>0.75</v>
       </c>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
@@ -1237,7 +1269,9 @@
       <c r="G25" s="1">
         <v>0</v>
       </c>
-      <c r="H25" s="1"/>
+      <c r="H25" s="1">
+        <v>0</v>
+      </c>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="4">
@@ -1249,20 +1283,16 @@
       <c r="N25" s="1"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
+      <c r="A26" s="9"/>
+      <c r="B26" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
     <mergeCell ref="A1:O2"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A17:B17"/>
@@ -1273,11 +1303,15 @@
     <mergeCell ref="B4:G4"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A14:B14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>

--- a/Administración de Base de datos/LISTA DE ASISTENCIA.xlsx
+++ b/Administración de Base de datos/LISTA DE ASISTENCIA.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Semestre 2023\Administración de Base de datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1D49EDB-F80B-4B88-A429-A2C5103A6C65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9D21287-4B67-4362-ACFC-094501A41CC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{483FA78A-27C1-422B-951E-FFDDEF779FE0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{483FA78A-27C1-422B-951E-FFDDEF779FE0}"/>
   </bookViews>
   <sheets>
     <sheet name="UNIDAD 1" sheetId="1" r:id="rId1"/>
+    <sheet name="UNIDAD 2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="32">
   <si>
     <t>LISTA DE ASISTECIA</t>
   </si>
@@ -129,6 +130,9 @@
   </si>
   <si>
     <t>CORREA SANDOVA ALAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estructura de memoria y procesos de la instancia </t>
   </si>
 </sst>
 </file>
@@ -212,6 +216,7 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -221,7 +226,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -538,114 +542,108 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CBE9989-2FBB-4721-BEF0-9EED0B8B83CE}">
-  <dimension ref="A1:O26"/>
+  <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="16.42578125" customWidth="1"/>
-    <col min="3" max="7" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.28515625" customWidth="1"/>
-    <col min="12" max="12" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8" customWidth="1"/>
-    <col min="14" max="14" width="8.5703125" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" customWidth="1"/>
+    <col min="3" max="7" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.33203125" customWidth="1"/>
+    <col min="10" max="10" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8" customWidth="1"/>
+    <col min="12" max="12" width="8.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="8">
-        <v>1</v>
-      </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B5" s="9">
+        <v>1</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-    </row>
-    <row r="8" spans="1:15" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+    </row>
+    <row r="8" spans="1:13" ht="49.8" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>6</v>
       </c>
@@ -668,26 +666,20 @@
       <c r="H8" s="2">
         <v>44966</v>
       </c>
-      <c r="I8" s="2">
-        <v>44969</v>
-      </c>
-      <c r="J8" s="2">
-        <v>44970</v>
+      <c r="I8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="N8" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>8</v>
       </c>
@@ -712,17 +704,19 @@
       <c r="H9" s="1">
         <v>1</v>
       </c>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="4">
-        <f>SUM(C9:J9)/8</f>
-        <v>0.75</v>
+      <c r="I9" s="4">
+        <f>SUM(C9:H9)/6</f>
+        <v>1</v>
+      </c>
+      <c r="J9" s="1">
+        <v>100</v>
+      </c>
+      <c r="K9" s="1">
+        <v>6</v>
       </c>
       <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>9</v>
       </c>
@@ -747,17 +741,19 @@
       <c r="H10" s="1">
         <v>1</v>
       </c>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="4">
-        <f t="shared" ref="K10:K25" si="0">SUM(C10:J10)/8</f>
-        <v>0.75</v>
+      <c r="I10" s="4">
+        <f t="shared" ref="I10:I25" si="0">SUM(C10:H10)/6</f>
+        <v>1</v>
+      </c>
+      <c r="J10" s="1">
+        <v>100</v>
+      </c>
+      <c r="K10" s="1">
+        <v>5</v>
       </c>
       <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>10</v>
       </c>
@@ -782,17 +778,19 @@
       <c r="H11" s="1">
         <v>0</v>
       </c>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="4">
-        <f t="shared" si="0"/>
-        <v>0.625</v>
+      <c r="I11" s="4">
+        <f t="shared" si="0"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="J11" s="1">
+        <v>100</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0</v>
       </c>
       <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>11</v>
       </c>
@@ -817,17 +815,19 @@
       <c r="H12" s="1">
         <v>0</v>
       </c>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="4">
-        <f t="shared" si="0"/>
-        <v>0.625</v>
+      <c r="I12" s="4">
+        <f t="shared" si="0"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="J12" s="1">
+        <v>100</v>
+      </c>
+      <c r="K12" s="1">
+        <v>5</v>
       </c>
       <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>12</v>
       </c>
@@ -852,17 +852,19 @@
       <c r="H13" s="1">
         <v>1</v>
       </c>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="4">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
+      <c r="I13" s="4">
+        <f t="shared" si="0"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="J13" s="1">
+        <v>100</v>
+      </c>
+      <c r="K13" s="1">
+        <v>6</v>
       </c>
       <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>30</v>
       </c>
@@ -887,17 +889,19 @@
       <c r="H14" s="1">
         <v>0</v>
       </c>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="4">
-        <f t="shared" ref="K14" si="1">SUM(C14:J14)/8</f>
-        <v>0.625</v>
+      <c r="I14" s="4">
+        <f t="shared" si="0"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="J14" s="1">
+        <v>100</v>
+      </c>
+      <c r="K14" s="1">
+        <v>5</v>
       </c>
       <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>13</v>
       </c>
@@ -922,17 +926,19 @@
       <c r="H15" s="1">
         <v>0</v>
       </c>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="4">
-        <f t="shared" si="0"/>
-        <v>0.375</v>
+      <c r="I15" s="4">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="J15" s="1">
+        <v>100</v>
+      </c>
+      <c r="K15" s="1">
+        <v>0</v>
       </c>
       <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>14</v>
       </c>
@@ -957,17 +963,19 @@
       <c r="H16" s="1">
         <v>1</v>
       </c>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="4">
-        <f t="shared" si="0"/>
-        <v>0.75</v>
+      <c r="I16" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J16" s="1">
+        <v>100</v>
+      </c>
+      <c r="K16" s="1">
+        <v>5</v>
       </c>
       <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>28</v>
       </c>
@@ -992,17 +1000,19 @@
       <c r="H17" s="1">
         <v>1</v>
       </c>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="4">
-        <f t="shared" si="0"/>
-        <v>0.75</v>
+      <c r="I17" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J17" s="1">
+        <v>100</v>
+      </c>
+      <c r="K17" s="1">
+        <v>0</v>
       </c>
       <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>29</v>
       </c>
@@ -1027,17 +1037,19 @@
       <c r="H18" s="1">
         <v>1</v>
       </c>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="4">
-        <f t="shared" si="0"/>
-        <v>0.625</v>
+      <c r="I18" s="4">
+        <f t="shared" si="0"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="J18" s="1">
+        <v>100</v>
+      </c>
+      <c r="K18" s="1">
+        <v>6</v>
       </c>
       <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>17</v>
       </c>
@@ -1062,17 +1074,19 @@
       <c r="H19" s="1">
         <v>1</v>
       </c>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="4">
-        <f t="shared" si="0"/>
-        <v>0.75</v>
+      <c r="I19" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J19" s="1">
+        <v>100</v>
+      </c>
+      <c r="K19" s="1">
+        <v>6</v>
       </c>
       <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>18</v>
       </c>
@@ -1097,17 +1111,19 @@
       <c r="H20" s="1">
         <v>1</v>
       </c>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="4">
-        <f t="shared" si="0"/>
-        <v>0.75</v>
+      <c r="I20" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J20" s="1">
+        <v>100</v>
+      </c>
+      <c r="K20" s="1">
+        <v>6</v>
       </c>
       <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>19</v>
       </c>
@@ -1132,17 +1148,19 @@
       <c r="H21" s="1">
         <v>1</v>
       </c>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="4">
-        <f t="shared" si="0"/>
-        <v>0.75</v>
+      <c r="I21" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J21" s="1">
+        <v>100</v>
+      </c>
+      <c r="K21" s="1">
+        <v>5</v>
       </c>
       <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>20</v>
       </c>
@@ -1167,17 +1185,19 @@
       <c r="H22" s="1">
         <v>1</v>
       </c>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="4">
-        <f t="shared" si="0"/>
-        <v>0.75</v>
+      <c r="I22" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J22" s="1">
+        <v>100</v>
+      </c>
+      <c r="K22" s="1">
+        <v>6</v>
       </c>
       <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>21</v>
       </c>
@@ -1202,17 +1222,19 @@
       <c r="H23" s="1">
         <v>1</v>
       </c>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="4">
-        <f t="shared" si="0"/>
-        <v>0.75</v>
+      <c r="I23" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J23" s="1">
+        <v>100</v>
+      </c>
+      <c r="K23" s="1">
+        <v>6</v>
       </c>
       <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>22</v>
       </c>
@@ -1237,17 +1259,19 @@
       <c r="H24" s="1">
         <v>1</v>
       </c>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="4">
-        <f t="shared" si="0"/>
-        <v>0.75</v>
+      <c r="I24" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J24" s="1">
+        <v>100</v>
+      </c>
+      <c r="K24" s="1">
+        <v>6</v>
       </c>
       <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>23</v>
       </c>
@@ -1272,28 +1296,34 @@
       <c r="H25" s="1">
         <v>0</v>
       </c>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="4">
-        <f t="shared" si="0"/>
+      <c r="I25" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J25" s="1">
+        <v>0</v>
+      </c>
+      <c r="K25" s="1">
         <v>0</v>
       </c>
       <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="9"/>
-      <c r="B26" s="9"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A1:O2"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A1:M2"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A18:B18"/>
@@ -1303,15 +1333,11 @@
     <mergeCell ref="B4:G4"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -1319,7 +1345,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="1" id="{3155587D-463B-4D8D-BC0B-AAE55E59E164}">
+          <x14:cfRule type="iconSet" priority="2" id="{3155587D-463B-4D8D-BC0B-AAE55E59E164}">
             <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -1335,7 +1361,623 @@
               <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>C9:J25</xm:sqref>
+          <xm:sqref>C9:H25</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CD2ACD6-C3B0-41CF-81DD-BAA6714325A1}">
+  <dimension ref="A1:M26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="16.44140625" customWidth="1"/>
+    <col min="3" max="7" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.33203125" customWidth="1"/>
+    <col min="10" max="10" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8" customWidth="1"/>
+    <col min="12" max="12" width="8.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="9">
+        <v>2</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+    </row>
+    <row r="8" spans="1:13" ht="49.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="2">
+        <v>44970</v>
+      </c>
+      <c r="D8" s="2">
+        <v>44971</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="4">
+        <f t="shared" ref="I9:I25" si="0">SUM(C9:H9)/8</f>
+        <v>0.125</v>
+      </c>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="4">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="4">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="4">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="4">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="4">
+        <f t="shared" si="0"/>
+        <v>0.125</v>
+      </c>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="4">
+        <f t="shared" si="0"/>
+        <v>0.125</v>
+      </c>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="4">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="4">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="4">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="4">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0</v>
+      </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="4">
+        <f t="shared" si="0"/>
+        <v>0.125</v>
+      </c>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1</v>
+      </c>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="4">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="1">
+        <v>1</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1</v>
+      </c>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="4">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1</v>
+      </c>
+      <c r="D24" s="1">
+        <v>1</v>
+      </c>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="4">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0</v>
+      </c>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="24">
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A1:M2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="1" id="{29F94F79-C0AC-4D14-8815-5D299C522A0F}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols2" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>C9:H25</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/Administración de Base de datos/LISTA DE ASISTENCIA.xlsx
+++ b/Administración de Base de datos/LISTA DE ASISTENCIA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Semestre 2023\Administración de Base de datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9D21287-4B67-4362-ACFC-094501A41CC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04A8C191-7410-4ACC-8085-0D6697743060}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{483FA78A-27C1-422B-951E-FFDDEF779FE0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{483FA78A-27C1-422B-951E-FFDDEF779FE0}"/>
   </bookViews>
   <sheets>
     <sheet name="UNIDAD 1" sheetId="1" r:id="rId1"/>
@@ -216,7 +216,6 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -226,6 +225,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -548,102 +548,102 @@
       <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.44140625" customWidth="1"/>
-    <col min="3" max="7" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.33203125" customWidth="1"/>
-    <col min="10" max="10" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="3" max="7" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.28515625" customWidth="1"/>
+    <col min="10" max="10" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8" customWidth="1"/>
-    <col min="12" max="12" width="8.5546875" customWidth="1"/>
+    <col min="12" max="12" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="9">
-        <v>1</v>
-      </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B5" s="8">
+        <v>1</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-    </row>
-    <row r="8" spans="1:13" ht="49.8" x14ac:dyDescent="0.3">
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+    </row>
+    <row r="8" spans="1:13" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>6</v>
       </c>
@@ -679,7 +679,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>8</v>
       </c>
@@ -716,7 +716,7 @@
       </c>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>9</v>
       </c>
@@ -753,7 +753,7 @@
       </c>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>10</v>
       </c>
@@ -790,7 +790,7 @@
       </c>
       <c r="L11" s="1"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>11</v>
       </c>
@@ -827,7 +827,7 @@
       </c>
       <c r="L12" s="1"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>12</v>
       </c>
@@ -864,7 +864,7 @@
       </c>
       <c r="L13" s="1"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>30</v>
       </c>
@@ -901,7 +901,7 @@
       </c>
       <c r="L14" s="1"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>13</v>
       </c>
@@ -938,7 +938,7 @@
       </c>
       <c r="L15" s="1"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>14</v>
       </c>
@@ -975,7 +975,7 @@
       </c>
       <c r="L16" s="1"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>28</v>
       </c>
@@ -1012,7 +1012,7 @@
       </c>
       <c r="L17" s="1"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>29</v>
       </c>
@@ -1049,7 +1049,7 @@
       </c>
       <c r="L18" s="1"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>17</v>
       </c>
@@ -1086,7 +1086,7 @@
       </c>
       <c r="L19" s="1"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>18</v>
       </c>
@@ -1123,7 +1123,7 @@
       </c>
       <c r="L20" s="1"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>19</v>
       </c>
@@ -1160,7 +1160,7 @@
       </c>
       <c r="L21" s="1"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>20</v>
       </c>
@@ -1197,7 +1197,7 @@
       </c>
       <c r="L22" s="1"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>21</v>
       </c>
@@ -1234,7 +1234,7 @@
       </c>
       <c r="L23" s="1"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>22</v>
       </c>
@@ -1271,7 +1271,7 @@
       </c>
       <c r="L24" s="1"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>23</v>
       </c>
@@ -1308,21 +1308,17 @@
       </c>
       <c r="L25" s="1"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="9"/>
+      <c r="B26" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
     <mergeCell ref="A1:M2"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A17:B17"/>
@@ -1333,11 +1329,15 @@
     <mergeCell ref="B4:G4"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A14:B14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -1373,106 +1373,106 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CD2ACD6-C3B0-41CF-81DD-BAA6714325A1}">
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.44140625" customWidth="1"/>
-    <col min="3" max="7" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.33203125" customWidth="1"/>
-    <col min="10" max="10" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="3" max="7" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.28515625" customWidth="1"/>
+    <col min="10" max="10" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8" customWidth="1"/>
-    <col min="12" max="12" width="8.5546875" customWidth="1"/>
+    <col min="12" max="12" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="8">
         <v>2</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-    </row>
-    <row r="8" spans="1:13" ht="49.8" x14ac:dyDescent="0.3">
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+    </row>
+    <row r="8" spans="1:13" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>6</v>
       </c>
@@ -1483,7 +1483,9 @@
       <c r="D8" s="2">
         <v>44971</v>
       </c>
-      <c r="E8" s="2"/>
+      <c r="E8" s="2">
+        <v>44973</v>
+      </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
@@ -1500,7 +1502,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>8</v>
       </c>
@@ -1513,19 +1515,21 @@
       <c r="D9" s="1">
         <v>0</v>
       </c>
-      <c r="E9" s="1"/>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="4">
         <f t="shared" ref="I9:I25" si="0">SUM(C9:H9)/8</f>
-        <v>0.125</v>
+        <v>0.25</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>9</v>
       </c>
@@ -1538,19 +1542,21 @@
       <c r="D10" s="1">
         <v>1</v>
       </c>
-      <c r="E10" s="1"/>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="4">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.375</v>
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>10</v>
       </c>
@@ -1563,19 +1569,21 @@
       <c r="D11" s="1">
         <v>1</v>
       </c>
-      <c r="E11" s="1"/>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="4">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.375</v>
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>11</v>
       </c>
@@ -1588,7 +1596,9 @@
       <c r="D12" s="1">
         <v>1</v>
       </c>
-      <c r="E12" s="1"/>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -1600,7 +1610,7 @@
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>12</v>
       </c>
@@ -1613,19 +1623,21 @@
       <c r="D13" s="1">
         <v>1</v>
       </c>
-      <c r="E13" s="1"/>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="4">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.375</v>
       </c>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>30</v>
       </c>
@@ -1638,7 +1650,9 @@
       <c r="D14" s="1">
         <v>0</v>
       </c>
-      <c r="E14" s="1"/>
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
@@ -1650,7 +1664,7 @@
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>13</v>
       </c>
@@ -1663,7 +1677,9 @@
       <c r="D15" s="1">
         <v>1</v>
       </c>
-      <c r="E15" s="1"/>
+      <c r="E15" s="1">
+        <v>0</v>
+      </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
@@ -1675,7 +1691,7 @@
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>14</v>
       </c>
@@ -1688,19 +1704,21 @@
       <c r="D16" s="1">
         <v>1</v>
       </c>
-      <c r="E16" s="1"/>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="4">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.375</v>
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>28</v>
       </c>
@@ -1713,19 +1731,21 @@
       <c r="D17" s="1">
         <v>0</v>
       </c>
-      <c r="E17" s="1"/>
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>29</v>
       </c>
@@ -1738,7 +1758,9 @@
       <c r="D18" s="1">
         <v>1</v>
       </c>
-      <c r="E18" s="1"/>
+      <c r="E18" s="1">
+        <v>0</v>
+      </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
@@ -1750,7 +1772,7 @@
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>17</v>
       </c>
@@ -1763,19 +1785,21 @@
       <c r="D19" s="1">
         <v>1</v>
       </c>
-      <c r="E19" s="1"/>
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="4">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.375</v>
       </c>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>18</v>
       </c>
@@ -1788,19 +1812,21 @@
       <c r="D20" s="1">
         <v>1</v>
       </c>
-      <c r="E20" s="1"/>
+      <c r="E20" s="1">
+        <v>1</v>
+      </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="4">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.375</v>
       </c>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>19</v>
       </c>
@@ -1813,19 +1839,21 @@
       <c r="D21" s="1">
         <v>0</v>
       </c>
-      <c r="E21" s="1"/>
+      <c r="E21" s="1">
+        <v>1</v>
+      </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="4">
         <f t="shared" si="0"/>
-        <v>0.125</v>
+        <v>0.25</v>
       </c>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>20</v>
       </c>
@@ -1838,19 +1866,21 @@
       <c r="D22" s="1">
         <v>1</v>
       </c>
-      <c r="E22" s="1"/>
+      <c r="E22" s="1">
+        <v>1</v>
+      </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="4">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.375</v>
       </c>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>21</v>
       </c>
@@ -1863,7 +1893,9 @@
       <c r="D23" s="1">
         <v>1</v>
       </c>
-      <c r="E23" s="1"/>
+      <c r="E23" s="1">
+        <v>0</v>
+      </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
@@ -1875,7 +1907,7 @@
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>22</v>
       </c>
@@ -1888,19 +1920,21 @@
       <c r="D24" s="1">
         <v>1</v>
       </c>
-      <c r="E24" s="1"/>
+      <c r="E24" s="1">
+        <v>1</v>
+      </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="4">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.375</v>
       </c>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>23</v>
       </c>
@@ -1913,7 +1947,9 @@
       <c r="D25" s="1">
         <v>0</v>
       </c>
-      <c r="E25" s="1"/>
+      <c r="E25" s="1">
+        <v>0</v>
+      </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
@@ -1925,12 +1961,24 @@
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="9"/>
+      <c r="B26" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A1:M2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
     <mergeCell ref="A26:B26"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="A16:B16"/>
@@ -1943,18 +1991,6 @@
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A1:M2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>

--- a/Administración de Base de datos/LISTA DE ASISTENCIA.xlsx
+++ b/Administración de Base de datos/LISTA DE ASISTENCIA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Semestre 2023\Administración de Base de datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04A8C191-7410-4ACC-8085-0D6697743060}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{445511D9-EA84-4612-B424-71744E5E4587}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{483FA78A-27C1-422B-951E-FFDDEF779FE0}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{483FA78A-27C1-422B-951E-FFDDEF779FE0}"/>
   </bookViews>
   <sheets>
     <sheet name="UNIDAD 1" sheetId="1" r:id="rId1"/>
@@ -132,7 +132,7 @@
     <t>CORREA SANDOVA ALAN</t>
   </si>
   <si>
-    <t xml:space="preserve">Estructura de memoria y procesos de la instancia </t>
+    <t>Arquitectura e instalación del SGBD</t>
   </si>
 </sst>
 </file>
@@ -216,6 +216,7 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -225,7 +226,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -548,102 +548,102 @@
       <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="16.42578125" customWidth="1"/>
-    <col min="3" max="7" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.28515625" customWidth="1"/>
-    <col min="10" max="10" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.453125" customWidth="1"/>
+    <col min="3" max="7" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.26953125" customWidth="1"/>
+    <col min="10" max="10" width="7.81640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8" customWidth="1"/>
-    <col min="12" max="12" width="8.5703125" customWidth="1"/>
+    <col min="12" max="12" width="8.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="8">
-        <v>1</v>
-      </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B5" s="9">
+        <v>1</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-    </row>
-    <row r="8" spans="1:13" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+    </row>
+    <row r="8" spans="1:13" ht="50" x14ac:dyDescent="0.35">
       <c r="A8" s="10" t="s">
         <v>6</v>
       </c>
@@ -679,7 +679,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>8</v>
       </c>
@@ -716,7 +716,7 @@
       </c>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>9</v>
       </c>
@@ -753,7 +753,7 @@
       </c>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>10</v>
       </c>
@@ -790,7 +790,7 @@
       </c>
       <c r="L11" s="1"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>11</v>
       </c>
@@ -827,7 +827,7 @@
       </c>
       <c r="L12" s="1"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>12</v>
       </c>
@@ -864,7 +864,7 @@
       </c>
       <c r="L13" s="1"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>30</v>
       </c>
@@ -901,7 +901,7 @@
       </c>
       <c r="L14" s="1"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>13</v>
       </c>
@@ -938,7 +938,7 @@
       </c>
       <c r="L15" s="1"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
         <v>14</v>
       </c>
@@ -975,7 +975,7 @@
       </c>
       <c r="L16" s="1"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>28</v>
       </c>
@@ -1012,7 +1012,7 @@
       </c>
       <c r="L17" s="1"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>29</v>
       </c>
@@ -1049,7 +1049,7 @@
       </c>
       <c r="L18" s="1"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
         <v>17</v>
       </c>
@@ -1086,7 +1086,7 @@
       </c>
       <c r="L19" s="1"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
         <v>18</v>
       </c>
@@ -1123,7 +1123,7 @@
       </c>
       <c r="L20" s="1"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
         <v>19</v>
       </c>
@@ -1160,7 +1160,7 @@
       </c>
       <c r="L21" s="1"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
         <v>20</v>
       </c>
@@ -1197,7 +1197,7 @@
       </c>
       <c r="L22" s="1"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
         <v>21</v>
       </c>
@@ -1234,7 +1234,7 @@
       </c>
       <c r="L23" s="1"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
         <v>22</v>
       </c>
@@ -1271,7 +1271,7 @@
       </c>
       <c r="L24" s="1"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
         <v>23</v>
       </c>
@@ -1308,17 +1308,21 @@
       </c>
       <c r="L25" s="1"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="9"/>
-      <c r="B26" s="9"/>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A14:B14"/>
     <mergeCell ref="A1:M2"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A17:B17"/>
@@ -1329,15 +1333,11 @@
     <mergeCell ref="B4:G4"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -1373,106 +1373,106 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CD2ACD6-C3B0-41CF-81DD-BAA6714325A1}">
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="16.42578125" customWidth="1"/>
-    <col min="3" max="7" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.28515625" customWidth="1"/>
-    <col min="10" max="10" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.453125" customWidth="1"/>
+    <col min="3" max="7" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.26953125" customWidth="1"/>
+    <col min="10" max="10" width="7.81640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8" customWidth="1"/>
-    <col min="12" max="12" width="8.5703125" customWidth="1"/>
+    <col min="12" max="12" width="8.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="9">
         <v>2</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-    </row>
-    <row r="8" spans="1:13" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+    </row>
+    <row r="8" spans="1:13" ht="50" x14ac:dyDescent="0.35">
       <c r="A8" s="10" t="s">
         <v>6</v>
       </c>
@@ -1486,7 +1486,9 @@
       <c r="E8" s="2">
         <v>44973</v>
       </c>
-      <c r="F8" s="2"/>
+      <c r="F8" s="2">
+        <v>44977</v>
+      </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="3" t="s">
@@ -1502,7 +1504,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>8</v>
       </c>
@@ -1518,18 +1520,20 @@
       <c r="E9" s="1">
         <v>1</v>
       </c>
-      <c r="F9" s="1"/>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="4">
         <f t="shared" ref="I9:I25" si="0">SUM(C9:H9)/8</f>
-        <v>0.25</v>
+        <v>0.375</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>9</v>
       </c>
@@ -1545,18 +1549,20 @@
       <c r="E10" s="1">
         <v>1</v>
       </c>
-      <c r="F10" s="1"/>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="4">
         <f t="shared" si="0"/>
-        <v>0.375</v>
+        <v>0.5</v>
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>10</v>
       </c>
@@ -1572,18 +1578,20 @@
       <c r="E11" s="1">
         <v>1</v>
       </c>
-      <c r="F11" s="1"/>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="4">
         <f t="shared" si="0"/>
-        <v>0.375</v>
+        <v>0.5</v>
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>11</v>
       </c>
@@ -1599,18 +1607,20 @@
       <c r="E12" s="1">
         <v>0</v>
       </c>
-      <c r="F12" s="1"/>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="4">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.375</v>
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>12</v>
       </c>
@@ -1626,18 +1636,20 @@
       <c r="E13" s="1">
         <v>1</v>
       </c>
-      <c r="F13" s="1"/>
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="4">
         <f t="shared" si="0"/>
-        <v>0.375</v>
+        <v>0.5</v>
       </c>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>30</v>
       </c>
@@ -1653,7 +1665,9 @@
       <c r="E14" s="1">
         <v>0</v>
       </c>
-      <c r="F14" s="1"/>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="4">
@@ -1664,7 +1678,7 @@
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>13</v>
       </c>
@@ -1680,7 +1694,9 @@
       <c r="E15" s="1">
         <v>0</v>
       </c>
-      <c r="F15" s="1"/>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="4">
@@ -1691,7 +1707,7 @@
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
         <v>14</v>
       </c>
@@ -1707,18 +1723,20 @@
       <c r="E16" s="1">
         <v>1</v>
       </c>
-      <c r="F16" s="1"/>
+      <c r="F16" s="1">
+        <v>1</v>
+      </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="4">
         <f t="shared" si="0"/>
-        <v>0.375</v>
+        <v>0.5</v>
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>28</v>
       </c>
@@ -1734,18 +1752,20 @@
       <c r="E17" s="1">
         <v>1</v>
       </c>
-      <c r="F17" s="1"/>
+      <c r="F17" s="1">
+        <v>1</v>
+      </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="4">
         <f t="shared" si="0"/>
-        <v>0.125</v>
+        <v>0.25</v>
       </c>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>29</v>
       </c>
@@ -1759,20 +1779,22 @@
         <v>1</v>
       </c>
       <c r="E18" s="1">
-        <v>0</v>
-      </c>
-      <c r="F18" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1</v>
+      </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="4">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
         <v>17</v>
       </c>
@@ -1788,18 +1810,20 @@
       <c r="E19" s="1">
         <v>1</v>
       </c>
-      <c r="F19" s="1"/>
+      <c r="F19" s="1">
+        <v>1</v>
+      </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="4">
         <f t="shared" si="0"/>
-        <v>0.375</v>
+        <v>0.5</v>
       </c>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
         <v>18</v>
       </c>
@@ -1815,18 +1839,20 @@
       <c r="E20" s="1">
         <v>1</v>
       </c>
-      <c r="F20" s="1"/>
+      <c r="F20" s="1">
+        <v>1</v>
+      </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="4">
         <f t="shared" si="0"/>
-        <v>0.375</v>
+        <v>0.5</v>
       </c>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
         <v>19</v>
       </c>
@@ -1842,7 +1868,9 @@
       <c r="E21" s="1">
         <v>1</v>
       </c>
-      <c r="F21" s="1"/>
+      <c r="F21" s="1">
+        <v>0</v>
+      </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="4">
@@ -1853,7 +1881,7 @@
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
         <v>20</v>
       </c>
@@ -1869,18 +1897,20 @@
       <c r="E22" s="1">
         <v>1</v>
       </c>
-      <c r="F22" s="1"/>
+      <c r="F22" s="1">
+        <v>1</v>
+      </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="4">
         <f t="shared" si="0"/>
-        <v>0.375</v>
+        <v>0.5</v>
       </c>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
         <v>21</v>
       </c>
@@ -1896,18 +1926,20 @@
       <c r="E23" s="1">
         <v>0</v>
       </c>
-      <c r="F23" s="1"/>
+      <c r="F23" s="1">
+        <v>1</v>
+      </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="4">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.375</v>
       </c>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
         <v>22</v>
       </c>
@@ -1923,18 +1955,20 @@
       <c r="E24" s="1">
         <v>1</v>
       </c>
-      <c r="F24" s="1"/>
+      <c r="F24" s="1">
+        <v>1</v>
+      </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="4">
         <f t="shared" si="0"/>
-        <v>0.375</v>
+        <v>0.5</v>
       </c>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
         <v>23</v>
       </c>
@@ -1950,7 +1984,9 @@
       <c r="E25" s="1">
         <v>0</v>
       </c>
-      <c r="F25" s="1"/>
+      <c r="F25" s="1">
+        <v>0</v>
+      </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="4">
@@ -1961,12 +1997,24 @@
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="9"/>
-      <c r="B26" s="9"/>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A1:M2"/>
     <mergeCell ref="B3:G3"/>
@@ -1979,18 +2027,6 @@
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>

--- a/Administración de Base de datos/LISTA DE ASISTENCIA.xlsx
+++ b/Administración de Base de datos/LISTA DE ASISTENCIA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Semestre 2023\Administración de Base de datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{445511D9-EA84-4612-B424-71744E5E4587}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79EC015A-858F-44D1-983D-0703C57D2A3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{483FA78A-27C1-422B-951E-FFDDEF779FE0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{483FA78A-27C1-422B-951E-FFDDEF779FE0}"/>
   </bookViews>
   <sheets>
     <sheet name="UNIDAD 1" sheetId="1" r:id="rId1"/>
@@ -216,7 +216,6 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -226,6 +225,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -548,102 +548,101 @@
       <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="16.453125" customWidth="1"/>
-    <col min="3" max="7" width="5.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.7265625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.26953125" customWidth="1"/>
-    <col min="10" max="10" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" customWidth="1"/>
+    <col min="3" max="8" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.21875" customWidth="1"/>
+    <col min="10" max="10" width="7.77734375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8" customWidth="1"/>
-    <col min="12" max="12" width="8.54296875" customWidth="1"/>
+    <col min="12" max="12" width="8.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="9">
-        <v>1</v>
-      </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B5" s="8">
+        <v>1</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-    </row>
-    <row r="8" spans="1:13" ht="50" x14ac:dyDescent="0.35">
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+    </row>
+    <row r="8" spans="1:13" ht="49.8" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>6</v>
       </c>
@@ -679,7 +678,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>8</v>
       </c>
@@ -716,7 +715,7 @@
       </c>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>9</v>
       </c>
@@ -753,7 +752,7 @@
       </c>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>10</v>
       </c>
@@ -790,7 +789,7 @@
       </c>
       <c r="L11" s="1"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>11</v>
       </c>
@@ -827,7 +826,7 @@
       </c>
       <c r="L12" s="1"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>12</v>
       </c>
@@ -864,7 +863,7 @@
       </c>
       <c r="L13" s="1"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>30</v>
       </c>
@@ -901,7 +900,7 @@
       </c>
       <c r="L14" s="1"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>13</v>
       </c>
@@ -938,7 +937,7 @@
       </c>
       <c r="L15" s="1"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>14</v>
       </c>
@@ -975,7 +974,7 @@
       </c>
       <c r="L16" s="1"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>28</v>
       </c>
@@ -1012,7 +1011,7 @@
       </c>
       <c r="L17" s="1"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>29</v>
       </c>
@@ -1049,7 +1048,7 @@
       </c>
       <c r="L18" s="1"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>17</v>
       </c>
@@ -1086,7 +1085,7 @@
       </c>
       <c r="L19" s="1"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>18</v>
       </c>
@@ -1123,7 +1122,7 @@
       </c>
       <c r="L20" s="1"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>19</v>
       </c>
@@ -1160,7 +1159,7 @@
       </c>
       <c r="L21" s="1"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>20</v>
       </c>
@@ -1197,7 +1196,7 @@
       </c>
       <c r="L22" s="1"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>21</v>
       </c>
@@ -1234,7 +1233,7 @@
       </c>
       <c r="L23" s="1"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>22</v>
       </c>
@@ -1271,7 +1270,7 @@
       </c>
       <c r="L24" s="1"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>23</v>
       </c>
@@ -1308,21 +1307,17 @@
       </c>
       <c r="L25" s="1"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26" s="9"/>
+      <c r="B26" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
     <mergeCell ref="A1:M2"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A17:B17"/>
@@ -1333,11 +1328,15 @@
     <mergeCell ref="B4:G4"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A14:B14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -1373,106 +1372,105 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CD2ACD6-C3B0-41CF-81DD-BAA6714325A1}">
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="121" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="16.453125" customWidth="1"/>
-    <col min="3" max="7" width="5.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.7265625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.26953125" customWidth="1"/>
-    <col min="10" max="10" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" customWidth="1"/>
+    <col min="3" max="8" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.21875" customWidth="1"/>
+    <col min="10" max="10" width="7.77734375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8" customWidth="1"/>
-    <col min="12" max="12" width="8.54296875" customWidth="1"/>
+    <col min="12" max="12" width="8.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="8">
         <v>2</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-    </row>
-    <row r="8" spans="1:13" ht="50" x14ac:dyDescent="0.35">
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+    </row>
+    <row r="8" spans="1:13" ht="49.8" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>6</v>
       </c>
@@ -1489,7 +1487,9 @@
       <c r="F8" s="2">
         <v>44977</v>
       </c>
-      <c r="G8" s="2"/>
+      <c r="G8" s="2">
+        <v>44984</v>
+      </c>
       <c r="H8" s="2"/>
       <c r="I8" s="3" t="s">
         <v>27</v>
@@ -1504,7 +1504,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>8</v>
       </c>
@@ -1523,17 +1523,19 @@
       <c r="F9" s="1">
         <v>1</v>
       </c>
-      <c r="G9" s="1"/>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
       <c r="H9" s="1"/>
       <c r="I9" s="4">
         <f t="shared" ref="I9:I25" si="0">SUM(C9:H9)/8</f>
-        <v>0.375</v>
+        <v>0.5</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>9</v>
       </c>
@@ -1552,17 +1554,19 @@
       <c r="F10" s="1">
         <v>1</v>
       </c>
-      <c r="G10" s="1"/>
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
       <c r="H10" s="1"/>
       <c r="I10" s="4">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.625</v>
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>10</v>
       </c>
@@ -1581,17 +1585,19 @@
       <c r="F11" s="1">
         <v>1</v>
       </c>
-      <c r="G11" s="1"/>
+      <c r="G11" s="1">
+        <v>1</v>
+      </c>
       <c r="H11" s="1"/>
       <c r="I11" s="4">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.625</v>
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>11</v>
       </c>
@@ -1610,17 +1616,19 @@
       <c r="F12" s="1">
         <v>1</v>
       </c>
-      <c r="G12" s="1"/>
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
       <c r="H12" s="1"/>
       <c r="I12" s="4">
         <f t="shared" si="0"/>
-        <v>0.375</v>
+        <v>0.5</v>
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>12</v>
       </c>
@@ -1639,17 +1647,19 @@
       <c r="F13" s="1">
         <v>1</v>
       </c>
-      <c r="G13" s="1"/>
+      <c r="G13" s="1">
+        <v>1</v>
+      </c>
       <c r="H13" s="1"/>
       <c r="I13" s="4">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.625</v>
       </c>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>30</v>
       </c>
@@ -1668,17 +1678,19 @@
       <c r="F14" s="1">
         <v>0</v>
       </c>
-      <c r="G14" s="1"/>
+      <c r="G14" s="1">
+        <v>1</v>
+      </c>
       <c r="H14" s="1"/>
       <c r="I14" s="4">
         <f t="shared" si="0"/>
-        <v>0.125</v>
+        <v>0.25</v>
       </c>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>13</v>
       </c>
@@ -1697,7 +1709,9 @@
       <c r="F15" s="1">
         <v>0</v>
       </c>
-      <c r="G15" s="1"/>
+      <c r="G15" s="1">
+        <v>0</v>
+      </c>
       <c r="H15" s="1"/>
       <c r="I15" s="4">
         <f t="shared" si="0"/>
@@ -1707,7 +1721,7 @@
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>14</v>
       </c>
@@ -1726,17 +1740,19 @@
       <c r="F16" s="1">
         <v>1</v>
       </c>
-      <c r="G16" s="1"/>
+      <c r="G16" s="1">
+        <v>1</v>
+      </c>
       <c r="H16" s="1"/>
       <c r="I16" s="4">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.625</v>
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>28</v>
       </c>
@@ -1755,17 +1771,19 @@
       <c r="F17" s="1">
         <v>1</v>
       </c>
-      <c r="G17" s="1"/>
+      <c r="G17" s="1">
+        <v>1</v>
+      </c>
       <c r="H17" s="1"/>
       <c r="I17" s="4">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.375</v>
       </c>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>29</v>
       </c>
@@ -1784,17 +1802,19 @@
       <c r="F18" s="1">
         <v>1</v>
       </c>
-      <c r="G18" s="1"/>
+      <c r="G18" s="1">
+        <v>1</v>
+      </c>
       <c r="H18" s="1"/>
       <c r="I18" s="4">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.625</v>
       </c>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>17</v>
       </c>
@@ -1813,17 +1833,19 @@
       <c r="F19" s="1">
         <v>1</v>
       </c>
-      <c r="G19" s="1"/>
+      <c r="G19" s="1">
+        <v>1</v>
+      </c>
       <c r="H19" s="1"/>
       <c r="I19" s="4">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.625</v>
       </c>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>18</v>
       </c>
@@ -1842,17 +1864,19 @@
       <c r="F20" s="1">
         <v>1</v>
       </c>
-      <c r="G20" s="1"/>
+      <c r="G20" s="1">
+        <v>1</v>
+      </c>
       <c r="H20" s="1"/>
       <c r="I20" s="4">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.625</v>
       </c>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>19</v>
       </c>
@@ -1871,17 +1895,19 @@
       <c r="F21" s="1">
         <v>0</v>
       </c>
-      <c r="G21" s="1"/>
+      <c r="G21" s="1">
+        <v>1</v>
+      </c>
       <c r="H21" s="1"/>
       <c r="I21" s="4">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.375</v>
       </c>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>20</v>
       </c>
@@ -1900,17 +1926,19 @@
       <c r="F22" s="1">
         <v>1</v>
       </c>
-      <c r="G22" s="1"/>
+      <c r="G22" s="1">
+        <v>1</v>
+      </c>
       <c r="H22" s="1"/>
       <c r="I22" s="4">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.625</v>
       </c>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>21</v>
       </c>
@@ -1929,17 +1957,19 @@
       <c r="F23" s="1">
         <v>1</v>
       </c>
-      <c r="G23" s="1"/>
+      <c r="G23" s="1">
+        <v>1</v>
+      </c>
       <c r="H23" s="1"/>
       <c r="I23" s="4">
         <f t="shared" si="0"/>
-        <v>0.375</v>
+        <v>0.5</v>
       </c>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>22</v>
       </c>
@@ -1958,17 +1988,19 @@
       <c r="F24" s="1">
         <v>1</v>
       </c>
-      <c r="G24" s="1"/>
+      <c r="G24" s="1">
+        <v>1</v>
+      </c>
       <c r="H24" s="1"/>
       <c r="I24" s="4">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.625</v>
       </c>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>23</v>
       </c>
@@ -1987,7 +2019,9 @@
       <c r="F25" s="1">
         <v>0</v>
       </c>
-      <c r="G25" s="1"/>
+      <c r="G25" s="1">
+        <v>0</v>
+      </c>
       <c r="H25" s="1"/>
       <c r="I25" s="4">
         <f t="shared" si="0"/>
@@ -1997,12 +2031,24 @@
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26" s="9"/>
+      <c r="B26" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A1:M2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
     <mergeCell ref="A26:B26"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="A16:B16"/>
@@ -2015,18 +2061,6 @@
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A1:M2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>

--- a/Administración de Base de datos/LISTA DE ASISTENCIA.xlsx
+++ b/Administración de Base de datos/LISTA DE ASISTENCIA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Semestre 2023\Administración de Base de datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79EC015A-858F-44D1-983D-0703C57D2A3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E096F83-C937-4843-B788-6CA587045594}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{483FA78A-27C1-422B-951E-FFDDEF779FE0}"/>
   </bookViews>
@@ -551,9 +551,9 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="16.44140625" customWidth="1"/>
-    <col min="3" max="8" width="5.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.21875" customWidth="1"/>
-    <col min="10" max="10" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="8" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.33203125" customWidth="1"/>
+    <col min="10" max="10" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8" customWidth="1"/>
     <col min="12" max="12" width="8.5546875" customWidth="1"/>
   </cols>
@@ -1370,23 +1370,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CD2ACD6-C3B0-41CF-81DD-BAA6714325A1}">
-  <dimension ref="A1:M26"/>
+  <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="121" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="16.44140625" customWidth="1"/>
-    <col min="3" max="8" width="5.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.21875" customWidth="1"/>
-    <col min="10" max="10" width="7.77734375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8" customWidth="1"/>
-    <col min="12" max="12" width="8.5546875" customWidth="1"/>
+    <col min="3" max="8" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.6640625" customWidth="1"/>
+    <col min="10" max="10" width="7.33203125" customWidth="1"/>
+    <col min="11" max="11" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8" customWidth="1"/>
+    <col min="13" max="13" width="8.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1402,8 +1403,9 @@
       <c r="K1" s="6"/>
       <c r="L1" s="6"/>
       <c r="M1" s="6"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N1" s="6"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -1417,8 +1419,9 @@
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N2" s="6"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1431,7 +1434,7 @@
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1444,7 +1447,7 @@
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1457,7 +1460,7 @@
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1470,7 +1473,7 @@
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
     </row>
-    <row r="8" spans="1:13" ht="49.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" ht="49.8" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>6</v>
       </c>
@@ -1490,21 +1493,26 @@
       <c r="G8" s="2">
         <v>44984</v>
       </c>
-      <c r="H8" s="2"/>
-      <c r="I8" s="3" t="s">
+      <c r="H8" s="2">
+        <v>44985</v>
+      </c>
+      <c r="I8" s="2">
+        <v>44987</v>
+      </c>
+      <c r="J8" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="K8" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="L8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="L8" s="3" t="s">
+      <c r="M8" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>8</v>
       </c>
@@ -1526,16 +1534,21 @@
       <c r="G9" s="1">
         <v>1</v>
       </c>
-      <c r="H9" s="1"/>
-      <c r="I9" s="4">
-        <f t="shared" ref="I9:I25" si="0">SUM(C9:H9)/8</f>
-        <v>0.5</v>
-      </c>
-      <c r="J9" s="1"/>
+      <c r="H9" s="1">
+        <v>1</v>
+      </c>
+      <c r="I9" s="1">
+        <v>1</v>
+      </c>
+      <c r="J9" s="4">
+        <f t="shared" ref="J9:J25" si="0">SUM(C9:H9)/8</f>
+        <v>0.625</v>
+      </c>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M9" s="1"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>9</v>
       </c>
@@ -1557,16 +1570,21 @@
       <c r="G10" s="1">
         <v>1</v>
       </c>
-      <c r="H10" s="1"/>
-      <c r="I10" s="4">
-        <f t="shared" si="0"/>
-        <v>0.625</v>
-      </c>
-      <c r="J10" s="1"/>
+      <c r="H10" s="1">
+        <v>1</v>
+      </c>
+      <c r="I10" s="1">
+        <v>1</v>
+      </c>
+      <c r="J10" s="4">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M10" s="1"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>10</v>
       </c>
@@ -1574,30 +1592,35 @@
         <v>10</v>
       </c>
       <c r="C11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" s="1">
-        <v>1</v>
-      </c>
-      <c r="H11" s="1"/>
-      <c r="I11" s="4">
-        <f t="shared" si="0"/>
-        <v>0.625</v>
-      </c>
-      <c r="J11" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0</v>
+      </c>
+      <c r="J11" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M11" s="1"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>11</v>
       </c>
@@ -1619,16 +1642,21 @@
       <c r="G12" s="1">
         <v>1</v>
       </c>
-      <c r="H12" s="1"/>
-      <c r="I12" s="4">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="J12" s="1"/>
+      <c r="H12" s="1">
+        <v>1</v>
+      </c>
+      <c r="I12" s="1">
+        <v>1</v>
+      </c>
+      <c r="J12" s="4">
+        <f t="shared" si="0"/>
+        <v>0.625</v>
+      </c>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M12" s="1"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>12</v>
       </c>
@@ -1650,16 +1678,21 @@
       <c r="G13" s="1">
         <v>1</v>
       </c>
-      <c r="H13" s="1"/>
-      <c r="I13" s="4">
-        <f t="shared" si="0"/>
-        <v>0.625</v>
-      </c>
-      <c r="J13" s="1"/>
+      <c r="H13" s="1">
+        <v>1</v>
+      </c>
+      <c r="I13" s="1">
+        <v>1</v>
+      </c>
+      <c r="J13" s="4">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M13" s="1"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>30</v>
       </c>
@@ -1681,16 +1714,21 @@
       <c r="G14" s="1">
         <v>1</v>
       </c>
-      <c r="H14" s="1"/>
-      <c r="I14" s="4">
-        <f t="shared" si="0"/>
-        <v>0.25</v>
-      </c>
-      <c r="J14" s="1"/>
+      <c r="H14" s="1">
+        <v>1</v>
+      </c>
+      <c r="I14" s="1">
+        <v>1</v>
+      </c>
+      <c r="J14" s="4">
+        <f t="shared" si="0"/>
+        <v>0.375</v>
+      </c>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M14" s="1"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>13</v>
       </c>
@@ -1712,16 +1750,21 @@
       <c r="G15" s="1">
         <v>0</v>
       </c>
-      <c r="H15" s="1"/>
-      <c r="I15" s="4">
-        <f t="shared" si="0"/>
-        <v>0.125</v>
-      </c>
-      <c r="J15" s="1"/>
+      <c r="H15" s="1">
+        <v>1</v>
+      </c>
+      <c r="I15" s="1">
+        <v>1</v>
+      </c>
+      <c r="J15" s="4">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M15" s="1"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>14</v>
       </c>
@@ -1743,16 +1786,21 @@
       <c r="G16" s="1">
         <v>1</v>
       </c>
-      <c r="H16" s="1"/>
-      <c r="I16" s="4">
-        <f t="shared" si="0"/>
-        <v>0.625</v>
-      </c>
-      <c r="J16" s="1"/>
+      <c r="H16" s="1">
+        <v>1</v>
+      </c>
+      <c r="I16" s="1">
+        <v>1</v>
+      </c>
+      <c r="J16" s="4">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M16" s="1"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>28</v>
       </c>
@@ -1774,16 +1822,21 @@
       <c r="G17" s="1">
         <v>1</v>
       </c>
-      <c r="H17" s="1"/>
-      <c r="I17" s="4">
-        <f t="shared" si="0"/>
-        <v>0.375</v>
-      </c>
-      <c r="J17" s="1"/>
+      <c r="H17" s="1">
+        <v>1</v>
+      </c>
+      <c r="I17" s="1">
+        <v>1</v>
+      </c>
+      <c r="J17" s="4">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M17" s="1"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>29</v>
       </c>
@@ -1805,16 +1858,21 @@
       <c r="G18" s="1">
         <v>1</v>
       </c>
-      <c r="H18" s="1"/>
-      <c r="I18" s="4">
-        <f t="shared" si="0"/>
-        <v>0.625</v>
-      </c>
-      <c r="J18" s="1"/>
+      <c r="H18" s="1">
+        <v>1</v>
+      </c>
+      <c r="I18" s="1">
+        <v>1</v>
+      </c>
+      <c r="J18" s="4">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M18" s="1"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>17</v>
       </c>
@@ -1836,16 +1894,21 @@
       <c r="G19" s="1">
         <v>1</v>
       </c>
-      <c r="H19" s="1"/>
-      <c r="I19" s="4">
-        <f t="shared" si="0"/>
-        <v>0.625</v>
-      </c>
-      <c r="J19" s="1"/>
+      <c r="H19" s="1">
+        <v>1</v>
+      </c>
+      <c r="I19" s="1">
+        <v>1</v>
+      </c>
+      <c r="J19" s="4">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M19" s="1"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>18</v>
       </c>
@@ -1867,16 +1930,21 @@
       <c r="G20" s="1">
         <v>1</v>
       </c>
-      <c r="H20" s="1"/>
-      <c r="I20" s="4">
-        <f t="shared" si="0"/>
-        <v>0.625</v>
-      </c>
-      <c r="J20" s="1"/>
+      <c r="H20" s="1">
+        <v>1</v>
+      </c>
+      <c r="I20" s="1">
+        <v>1</v>
+      </c>
+      <c r="J20" s="4">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M20" s="1"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>19</v>
       </c>
@@ -1898,16 +1966,21 @@
       <c r="G21" s="1">
         <v>1</v>
       </c>
-      <c r="H21" s="1"/>
-      <c r="I21" s="4">
-        <f t="shared" si="0"/>
-        <v>0.375</v>
-      </c>
-      <c r="J21" s="1"/>
+      <c r="H21" s="1">
+        <v>1</v>
+      </c>
+      <c r="I21" s="1">
+        <v>1</v>
+      </c>
+      <c r="J21" s="4">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M21" s="1"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>20</v>
       </c>
@@ -1929,16 +2002,21 @@
       <c r="G22" s="1">
         <v>1</v>
       </c>
-      <c r="H22" s="1"/>
-      <c r="I22" s="4">
-        <f t="shared" si="0"/>
-        <v>0.625</v>
-      </c>
-      <c r="J22" s="1"/>
+      <c r="H22" s="1">
+        <v>1</v>
+      </c>
+      <c r="I22" s="1">
+        <v>1</v>
+      </c>
+      <c r="J22" s="4">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M22" s="1"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>21</v>
       </c>
@@ -1960,16 +2038,21 @@
       <c r="G23" s="1">
         <v>1</v>
       </c>
-      <c r="H23" s="1"/>
-      <c r="I23" s="4">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="J23" s="1"/>
+      <c r="H23" s="1">
+        <v>1</v>
+      </c>
+      <c r="I23" s="1">
+        <v>1</v>
+      </c>
+      <c r="J23" s="4">
+        <f t="shared" si="0"/>
+        <v>0.625</v>
+      </c>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M23" s="1"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>22</v>
       </c>
@@ -1991,16 +2074,21 @@
       <c r="G24" s="1">
         <v>1</v>
       </c>
-      <c r="H24" s="1"/>
-      <c r="I24" s="4">
-        <f t="shared" si="0"/>
-        <v>0.625</v>
-      </c>
-      <c r="J24" s="1"/>
+      <c r="H24" s="1">
+        <v>1</v>
+      </c>
+      <c r="I24" s="1">
+        <v>1</v>
+      </c>
+      <c r="J24" s="4">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M24" s="1"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>23</v>
       </c>
@@ -2022,23 +2110,28 @@
       <c r="G25" s="1">
         <v>0</v>
       </c>
-      <c r="H25" s="1"/>
-      <c r="I25" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J25" s="1"/>
+      <c r="H25" s="1">
+        <v>0</v>
+      </c>
+      <c r="I25" s="1">
+        <v>0</v>
+      </c>
+      <c r="J25" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M25" s="1"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="9"/>
       <c r="B26" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="24">
     <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A1:M2"/>
+    <mergeCell ref="A1:N2"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="B4:G4"/>
     <mergeCell ref="B5:G5"/>
@@ -2083,7 +2176,7 @@
               <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>C9:H25</xm:sqref>
+          <xm:sqref>C9:I25</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/Administración de Base de datos/LISTA DE ASISTENCIA.xlsx
+++ b/Administración de Base de datos/LISTA DE ASISTENCIA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Semestre 2023\Administración de Base de datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E096F83-C937-4843-B788-6CA587045594}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B4213B3-C6B1-442B-A72D-1BD7115F98C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{483FA78A-27C1-422B-951E-FFDDEF779FE0}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="15585" activeTab="1" xr2:uid="{483FA78A-27C1-422B-951E-FFDDEF779FE0}"/>
   </bookViews>
   <sheets>
     <sheet name="UNIDAD 1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="33">
   <si>
     <t>LISTA DE ASISTECIA</t>
   </si>
@@ -133,6 +133,9 @@
   </si>
   <si>
     <t>Arquitectura e instalación del SGBD</t>
+  </si>
+  <si>
+    <t>CASTRO MARTINEZ CESAR UZZIEL</t>
   </si>
 </sst>
 </file>
@@ -216,6 +219,7 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -225,7 +229,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -548,101 +551,101 @@
       <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.44140625" customWidth="1"/>
-    <col min="3" max="8" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.33203125" customWidth="1"/>
-    <col min="10" max="10" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="3" max="8" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.28515625" customWidth="1"/>
+    <col min="10" max="10" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8" customWidth="1"/>
-    <col min="12" max="12" width="8.5546875" customWidth="1"/>
+    <col min="12" max="12" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="8">
-        <v>1</v>
-      </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B5" s="9">
+        <v>1</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-    </row>
-    <row r="8" spans="1:13" ht="49.8" x14ac:dyDescent="0.3">
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+    </row>
+    <row r="8" spans="1:13" ht="51" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>6</v>
       </c>
@@ -678,7 +681,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>8</v>
       </c>
@@ -715,7 +718,7 @@
       </c>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>9</v>
       </c>
@@ -752,7 +755,7 @@
       </c>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>10</v>
       </c>
@@ -789,7 +792,7 @@
       </c>
       <c r="L11" s="1"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>11</v>
       </c>
@@ -826,7 +829,7 @@
       </c>
       <c r="L12" s="1"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>12</v>
       </c>
@@ -863,7 +866,7 @@
       </c>
       <c r="L13" s="1"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>30</v>
       </c>
@@ -900,7 +903,7 @@
       </c>
       <c r="L14" s="1"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>13</v>
       </c>
@@ -937,7 +940,7 @@
       </c>
       <c r="L15" s="1"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>14</v>
       </c>
@@ -974,7 +977,7 @@
       </c>
       <c r="L16" s="1"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>28</v>
       </c>
@@ -1011,7 +1014,7 @@
       </c>
       <c r="L17" s="1"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>29</v>
       </c>
@@ -1048,7 +1051,7 @@
       </c>
       <c r="L18" s="1"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>17</v>
       </c>
@@ -1085,7 +1088,7 @@
       </c>
       <c r="L19" s="1"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>18</v>
       </c>
@@ -1122,7 +1125,7 @@
       </c>
       <c r="L20" s="1"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>19</v>
       </c>
@@ -1159,7 +1162,7 @@
       </c>
       <c r="L21" s="1"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>20</v>
       </c>
@@ -1196,7 +1199,7 @@
       </c>
       <c r="L22" s="1"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>21</v>
       </c>
@@ -1233,7 +1236,7 @@
       </c>
       <c r="L23" s="1"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>22</v>
       </c>
@@ -1270,7 +1273,7 @@
       </c>
       <c r="L24" s="1"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>23</v>
       </c>
@@ -1307,17 +1310,21 @@
       </c>
       <c r="L25" s="1"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A26" s="9"/>
-      <c r="B26" s="9"/>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A14:B14"/>
     <mergeCell ref="A1:M2"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A17:B17"/>
@@ -1328,15 +1335,11 @@
     <mergeCell ref="B4:G4"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -1370,110 +1373,110 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CD2ACD6-C3B0-41CF-81DD-BAA6714325A1}">
-  <dimension ref="A1:N26"/>
+  <dimension ref="A1:N27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="121" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.44140625" customWidth="1"/>
-    <col min="3" max="8" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.6640625" customWidth="1"/>
-    <col min="10" max="10" width="7.33203125" customWidth="1"/>
-    <col min="11" max="11" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="3" max="8" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.7109375" customWidth="1"/>
+    <col min="10" max="10" width="7.28515625" customWidth="1"/>
+    <col min="11" max="11" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8" customWidth="1"/>
-    <col min="13" max="13" width="8.5546875" customWidth="1"/>
+    <col min="13" max="13" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="9">
         <v>2</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-    </row>
-    <row r="8" spans="1:14" ht="49.8" x14ac:dyDescent="0.3">
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+    </row>
+    <row r="8" spans="1:14" ht="51" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>6</v>
       </c>
@@ -1512,7 +1515,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>8</v>
       </c>
@@ -1541,14 +1544,16 @@
         <v>1</v>
       </c>
       <c r="J9" s="4">
-        <f t="shared" ref="J9:J25" si="0">SUM(C9:H9)/8</f>
+        <f t="shared" ref="J9:J26" si="0">SUM(C9:H9)/8</f>
         <v>0.625</v>
       </c>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M9" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>9</v>
       </c>
@@ -1582,9 +1587,11 @@
       </c>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M10" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>10</v>
       </c>
@@ -1618,50 +1625,54 @@
       </c>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M11" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" s="1">
         <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" s="4">
-        <f t="shared" si="0"/>
-        <v>0.625</v>
+        <f t="shared" ref="J12" si="1">SUM(C12:H12)/8</f>
+        <v>0</v>
       </c>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M12" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C13" s="1">
         <v>1</v>
@@ -1670,7 +1681,7 @@
         <v>1</v>
       </c>
       <c r="E13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
         <v>1</v>
@@ -1686,15 +1697,17 @@
       </c>
       <c r="J13" s="4">
         <f t="shared" si="0"/>
-        <v>0.75</v>
+        <v>0.625</v>
       </c>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M13" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>12</v>
@@ -1703,13 +1716,13 @@
         <v>1</v>
       </c>
       <c r="D14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" s="1">
         <v>1</v>
@@ -1722,24 +1735,26 @@
       </c>
       <c r="J14" s="4">
         <f t="shared" si="0"/>
-        <v>0.375</v>
+        <v>0.75</v>
       </c>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M14" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" s="1">
         <v>0</v>
@@ -1748,7 +1763,7 @@
         <v>0</v>
       </c>
       <c r="G15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" s="1">
         <v>1</v>
@@ -1758,33 +1773,35 @@
       </c>
       <c r="J15" s="4">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.375</v>
       </c>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M15" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" s="1">
         <v>1</v>
       </c>
       <c r="E16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" s="1">
         <v>1</v>
@@ -1794,24 +1811,26 @@
       </c>
       <c r="J16" s="4">
         <f t="shared" si="0"/>
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M16" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" s="1">
         <v>1</v>
@@ -1830,24 +1849,26 @@
       </c>
       <c r="J17" s="4">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M17" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" s="1">
         <v>1</v>
@@ -1866,18 +1887,20 @@
       </c>
       <c r="J18" s="4">
         <f t="shared" si="0"/>
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M18" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C19" s="1">
         <v>1</v>
@@ -1906,14 +1929,16 @@
       </c>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M19" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C20" s="1">
         <v>1</v>
@@ -1942,26 +1967,28 @@
       </c>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M20" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C21" s="1">
         <v>1</v>
       </c>
       <c r="D21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" s="1">
         <v>1</v>
       </c>
       <c r="F21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" s="1">
         <v>1</v>
@@ -1974,30 +2001,32 @@
       </c>
       <c r="J21" s="4">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M21" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C22" s="1">
         <v>1</v>
       </c>
       <c r="D22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" s="1">
         <v>1</v>
       </c>
       <c r="F22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" s="1">
         <v>1</v>
@@ -2010,18 +2039,20 @@
       </c>
       <c r="J22" s="4">
         <f t="shared" si="0"/>
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M22" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C23" s="1">
         <v>1</v>
@@ -2030,7 +2061,7 @@
         <v>1</v>
       </c>
       <c r="E23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" s="1">
         <v>1</v>
@@ -2046,18 +2077,20 @@
       </c>
       <c r="J23" s="4">
         <f t="shared" si="0"/>
-        <v>0.625</v>
+        <v>0.75</v>
       </c>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M23" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C24" s="1">
         <v>1</v>
@@ -2066,7 +2099,7 @@
         <v>1</v>
       </c>
       <c r="E24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
         <v>1</v>
@@ -2082,68 +2115,97 @@
       </c>
       <c r="J24" s="4">
         <f t="shared" si="0"/>
-        <v>0.75</v>
+        <v>0.625</v>
       </c>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M24" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26" s="9"/>
-      <c r="B26" s="9"/>
+      <c r="M25" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0</v>
+      </c>
+      <c r="H26" s="1">
+        <v>0</v>
+      </c>
+      <c r="I26" s="1">
+        <v>0</v>
+      </c>
+      <c r="J26" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A1:N2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A15:B15"/>
+  <mergeCells count="25">
+    <mergeCell ref="A27:B27"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A18:B18"/>
@@ -2154,6 +2216,20 @@
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A1:N2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A12:B12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -2176,7 +2252,7 @@
               <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>C9:I25</xm:sqref>
+          <xm:sqref>C9:I26</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/Administración de Base de datos/LISTA DE ASISTENCIA.xlsx
+++ b/Administración de Base de datos/LISTA DE ASISTENCIA.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Semestre 2023\Administración de Base de datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B4213B3-C6B1-442B-A72D-1BD7115F98C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C07FF019-7317-4257-B862-DB881E092D8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="15585" activeTab="1" xr2:uid="{483FA78A-27C1-422B-951E-FFDDEF779FE0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{483FA78A-27C1-422B-951E-FFDDEF779FE0}"/>
   </bookViews>
   <sheets>
     <sheet name="UNIDAD 1" sheetId="1" r:id="rId1"/>
     <sheet name="UNIDAD 2" sheetId="2" r:id="rId2"/>
+    <sheet name="UNIDAD 3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="34">
   <si>
     <t>LISTA DE ASISTECIA</t>
   </si>
@@ -136,6 +137,9 @@
   </si>
   <si>
     <t>CASTRO MARTINEZ CESAR UZZIEL</t>
+  </si>
+  <si>
+    <t>Configuración y administración del espacio en disco</t>
   </si>
 </sst>
 </file>
@@ -219,7 +223,6 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -229,6 +232,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -562,90 +566,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="9">
-        <v>1</v>
-      </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
+      <c r="B5" s="8">
+        <v>1</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-    </row>
-    <row r="8" spans="1:13" ht="51" x14ac:dyDescent="0.25">
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+    </row>
+    <row r="8" spans="1:13" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>6</v>
       </c>
@@ -1311,20 +1315,16 @@
       <c r="L25" s="1"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
+      <c r="A26" s="9"/>
+      <c r="B26" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
     <mergeCell ref="A1:M2"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A17:B17"/>
@@ -1335,11 +1335,15 @@
     <mergeCell ref="B4:G4"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A14:B14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -1373,110 +1377,112 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CD2ACD6-C3B0-41CF-81DD-BAA6714325A1}">
-  <dimension ref="A1:N27"/>
+  <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="121" workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+    <sheetView topLeftCell="A7" zoomScale="121" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="16.42578125" customWidth="1"/>
     <col min="3" max="8" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.7109375" customWidth="1"/>
-    <col min="10" max="10" width="7.28515625" customWidth="1"/>
-    <col min="11" max="11" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8" customWidth="1"/>
-    <col min="13" max="13" width="8.5703125" customWidth="1"/>
+    <col min="9" max="10" width="5.7109375" customWidth="1"/>
+    <col min="11" max="11" width="7.28515625" customWidth="1"/>
+    <col min="12" max="12" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8" customWidth="1"/>
+    <col min="14" max="14" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="8">
         <v>2</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-    </row>
-    <row r="8" spans="1:14" ht="51" x14ac:dyDescent="0.25">
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+    </row>
+    <row r="8" spans="1:15" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>6</v>
       </c>
@@ -1502,20 +1508,23 @@
       <c r="I8" s="2">
         <v>44987</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="J8" s="2">
+        <v>44988</v>
+      </c>
+      <c r="K8" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="L8" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L8" s="3" t="s">
+      <c r="M8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="M8" s="3" t="s">
+      <c r="N8" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>8</v>
       </c>
@@ -1543,17 +1552,20 @@
       <c r="I9" s="1">
         <v>1</v>
       </c>
-      <c r="J9" s="4">
-        <f t="shared" ref="J9:J26" si="0">SUM(C9:H9)/8</f>
+      <c r="J9" s="1">
+        <v>1</v>
+      </c>
+      <c r="K9" s="4">
+        <f t="shared" ref="K9:K26" si="0">SUM(C9:H9)/8</f>
         <v>0.625</v>
       </c>
-      <c r="K9" s="1"/>
       <c r="L9" s="1"/>
-      <c r="M9" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M9" s="1"/>
+      <c r="N9" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>9</v>
       </c>
@@ -1581,17 +1593,20 @@
       <c r="I10" s="1">
         <v>1</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J10" s="1">
+        <v>1</v>
+      </c>
+      <c r="K10" s="4">
         <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
-      <c r="K10" s="1"/>
       <c r="L10" s="1"/>
-      <c r="M10" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M10" s="1"/>
+      <c r="N10" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>10</v>
       </c>
@@ -1619,17 +1634,20 @@
       <c r="I11" s="1">
         <v>0</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J11" s="1">
+        <v>0</v>
+      </c>
+      <c r="K11" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K11" s="1"/>
       <c r="L11" s="1"/>
-      <c r="M11" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M11" s="1"/>
+      <c r="N11" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>32</v>
       </c>
@@ -1657,17 +1675,20 @@
       <c r="I12" s="1">
         <v>0</v>
       </c>
-      <c r="J12" s="4">
-        <f t="shared" ref="J12" si="1">SUM(C12:H12)/8</f>
-        <v>0</v>
-      </c>
-      <c r="K12" s="1"/>
+      <c r="J12" s="1">
+        <v>1</v>
+      </c>
+      <c r="K12" s="4">
+        <f t="shared" ref="K12" si="1">SUM(C12:H12)/8</f>
+        <v>0</v>
+      </c>
       <c r="L12" s="1"/>
-      <c r="M12" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M12" s="1"/>
+      <c r="N12" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>11</v>
       </c>
@@ -1695,17 +1716,20 @@
       <c r="I13" s="1">
         <v>1</v>
       </c>
-      <c r="J13" s="4">
+      <c r="J13" s="1">
+        <v>1</v>
+      </c>
+      <c r="K13" s="4">
         <f t="shared" si="0"/>
         <v>0.625</v>
       </c>
-      <c r="K13" s="1"/>
       <c r="L13" s="1"/>
-      <c r="M13" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M13" s="1"/>
+      <c r="N13" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>12</v>
       </c>
@@ -1733,17 +1757,20 @@
       <c r="I14" s="1">
         <v>1</v>
       </c>
-      <c r="J14" s="4">
+      <c r="J14" s="1">
+        <v>1</v>
+      </c>
+      <c r="K14" s="4">
         <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
-      <c r="K14" s="1"/>
       <c r="L14" s="1"/>
-      <c r="M14" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M14" s="1"/>
+      <c r="N14" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>30</v>
       </c>
@@ -1771,17 +1798,20 @@
       <c r="I15" s="1">
         <v>1</v>
       </c>
-      <c r="J15" s="4">
+      <c r="J15" s="1">
+        <v>1</v>
+      </c>
+      <c r="K15" s="4">
         <f t="shared" si="0"/>
         <v>0.375</v>
       </c>
-      <c r="K15" s="1"/>
       <c r="L15" s="1"/>
-      <c r="M15" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M15" s="1"/>
+      <c r="N15" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>13</v>
       </c>
@@ -1809,17 +1839,20 @@
       <c r="I16" s="1">
         <v>1</v>
       </c>
-      <c r="J16" s="4">
+      <c r="J16" s="1">
+        <v>1</v>
+      </c>
+      <c r="K16" s="4">
         <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
-      <c r="K16" s="1"/>
       <c r="L16" s="1"/>
-      <c r="M16" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M16" s="1"/>
+      <c r="N16" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>14</v>
       </c>
@@ -1847,17 +1880,20 @@
       <c r="I17" s="1">
         <v>1</v>
       </c>
-      <c r="J17" s="4">
+      <c r="J17" s="1">
+        <v>1</v>
+      </c>
+      <c r="K17" s="4">
         <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
-      <c r="K17" s="1"/>
       <c r="L17" s="1"/>
-      <c r="M17" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M17" s="1"/>
+      <c r="N17" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>28</v>
       </c>
@@ -1885,17 +1921,20 @@
       <c r="I18" s="1">
         <v>1</v>
       </c>
-      <c r="J18" s="4">
+      <c r="J18" s="1">
+        <v>1</v>
+      </c>
+      <c r="K18" s="4">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="K18" s="1"/>
       <c r="L18" s="1"/>
-      <c r="M18" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M18" s="1"/>
+      <c r="N18" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>29</v>
       </c>
@@ -1923,17 +1962,20 @@
       <c r="I19" s="1">
         <v>1</v>
       </c>
-      <c r="J19" s="4">
+      <c r="J19" s="1">
+        <v>0</v>
+      </c>
+      <c r="K19" s="4">
         <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
-      <c r="K19" s="1"/>
       <c r="L19" s="1"/>
-      <c r="M19" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M19" s="1"/>
+      <c r="N19" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>17</v>
       </c>
@@ -1961,17 +2003,20 @@
       <c r="I20" s="1">
         <v>1</v>
       </c>
-      <c r="J20" s="4">
+      <c r="J20" s="1">
+        <v>1</v>
+      </c>
+      <c r="K20" s="4">
         <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
-      <c r="K20" s="1"/>
       <c r="L20" s="1"/>
-      <c r="M20" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M20" s="1"/>
+      <c r="N20" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>18</v>
       </c>
@@ -1999,17 +2044,20 @@
       <c r="I21" s="1">
         <v>1</v>
       </c>
-      <c r="J21" s="4">
+      <c r="J21" s="1">
+        <v>1</v>
+      </c>
+      <c r="K21" s="4">
         <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
-      <c r="K21" s="1"/>
       <c r="L21" s="1"/>
-      <c r="M21" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M21" s="1"/>
+      <c r="N21" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>19</v>
       </c>
@@ -2037,17 +2085,20 @@
       <c r="I22" s="1">
         <v>1</v>
       </c>
-      <c r="J22" s="4">
+      <c r="J22" s="1">
+        <v>1</v>
+      </c>
+      <c r="K22" s="4">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="K22" s="1"/>
       <c r="L22" s="1"/>
-      <c r="M22" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M22" s="1"/>
+      <c r="N22" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>20</v>
       </c>
@@ -2075,17 +2126,20 @@
       <c r="I23" s="1">
         <v>1</v>
       </c>
-      <c r="J23" s="4">
+      <c r="J23" s="1">
+        <v>1</v>
+      </c>
+      <c r="K23" s="4">
         <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
-      <c r="K23" s="1"/>
       <c r="L23" s="1"/>
-      <c r="M23" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M23" s="1"/>
+      <c r="N23" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>21</v>
       </c>
@@ -2113,17 +2167,20 @@
       <c r="I24" s="1">
         <v>1</v>
       </c>
-      <c r="J24" s="4">
+      <c r="J24" s="1">
+        <v>1</v>
+      </c>
+      <c r="K24" s="4">
         <f t="shared" si="0"/>
         <v>0.625</v>
       </c>
-      <c r="K24" s="1"/>
       <c r="L24" s="1"/>
-      <c r="M24" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M24" s="1"/>
+      <c r="N24" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>22</v>
       </c>
@@ -2151,17 +2208,20 @@
       <c r="I25" s="1">
         <v>1</v>
       </c>
-      <c r="J25" s="4">
+      <c r="J25" s="1">
+        <v>0</v>
+      </c>
+      <c r="K25" s="4">
         <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
-      <c r="K25" s="1"/>
       <c r="L25" s="1"/>
-      <c r="M25" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M25" s="1"/>
+      <c r="N25" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>23</v>
       </c>
@@ -2189,22 +2249,38 @@
       <c r="I26" s="1">
         <v>0</v>
       </c>
-      <c r="J26" s="4">
+      <c r="J26" s="1">
+        <v>0</v>
+      </c>
+      <c r="K26" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K26" s="1"/>
       <c r="L26" s="1"/>
-      <c r="M26" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="9"/>
+      <c r="B27" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A1:O2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A12:B12"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A17:B17"/>
@@ -2217,26 +2293,13 @@
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A1:N2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A12:B12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="1" id="{29F94F79-C0AC-4D14-8815-5D299C522A0F}">
+          <x14:cfRule type="iconSet" priority="3" id="{29F94F79-C0AC-4D14-8815-5D299C522A0F}">
             <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -2252,7 +2315,710 @@
               <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>C9:I26</xm:sqref>
+          <xm:sqref>C9:J26</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73B5EDEC-A03F-4F5C-B5D8-A2BF879C22A1}">
+  <dimension ref="A1:P27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="3" max="8" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="5.7109375" customWidth="1"/>
+    <col min="12" max="12" width="7.28515625" customWidth="1"/>
+    <col min="13" max="13" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8" customWidth="1"/>
+    <col min="15" max="15" width="8.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="8">
+        <v>3</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+    </row>
+    <row r="8" spans="1:16" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="2">
+        <v>44991</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="4">
+        <f>SUM(C9:H9)/8</f>
+        <v>0.125</v>
+      </c>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="4">
+        <f>SUM(C10:H10)/8</f>
+        <v>0.125</v>
+      </c>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="4">
+        <f>SUM(C11:H11)/8</f>
+        <v>0</v>
+      </c>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="4">
+        <f>SUM(C12:H12)/8</f>
+        <v>0</v>
+      </c>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="4">
+        <f>SUM(C13:H13)/8</f>
+        <v>0.125</v>
+      </c>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="4">
+        <f>SUM(C14:H14)/8</f>
+        <v>0.125</v>
+      </c>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="4">
+        <f>SUM(C15:H15)/8</f>
+        <v>0.125</v>
+      </c>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="4">
+        <f>SUM(C16:H16)/8</f>
+        <v>0</v>
+      </c>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="4">
+        <f>SUM(C17:H17)/8</f>
+        <v>0.125</v>
+      </c>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="4">
+        <f>SUM(C18:H18)/8</f>
+        <v>0.125</v>
+      </c>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="4">
+        <f>SUM(C19:H19)/8</f>
+        <v>0.125</v>
+      </c>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="4">
+        <f>SUM(C20:H20)/8</f>
+        <v>0.125</v>
+      </c>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="4">
+        <f>SUM(C21:H21)/8</f>
+        <v>0.125</v>
+      </c>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="4">
+        <f>SUM(C22:H22)/8</f>
+        <v>0.125</v>
+      </c>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="1">
+        <v>1</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="4">
+        <f>SUM(C23:H23)/8</f>
+        <v>0.125</v>
+      </c>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="4">
+        <f>SUM(C24:H24)/8</f>
+        <v>0.125</v>
+      </c>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1</v>
+      </c>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="4">
+        <f>SUM(C25:H25)/8</f>
+        <v>0.125</v>
+      </c>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0</v>
+      </c>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="4">
+        <f>SUM(C26:H26)/8</f>
+        <v>0</v>
+      </c>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" s="9"/>
+      <c r="B27" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="25">
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A1:P2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="A8:B8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="1" id="{5CC17DF1-DBC1-4867-BD86-1390D1E5CBF4}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols2" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>C9:K26</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/Administración de Base de datos/LISTA DE ASISTENCIA.xlsx
+++ b/Administración de Base de datos/LISTA DE ASISTENCIA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Semestre 2023\Administración de Base de datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C07FF019-7317-4257-B862-DB881E092D8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60282F4B-9710-4682-836C-3BB6F18AE6AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{483FA78A-27C1-422B-951E-FFDDEF779FE0}"/>
   </bookViews>
@@ -223,6 +223,7 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -232,7 +233,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -566,88 +566,88 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="8">
-        <v>1</v>
-      </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
+      <c r="B5" s="9">
+        <v>1</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
     </row>
     <row r="8" spans="1:13" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
@@ -1315,16 +1315,20 @@
       <c r="L25" s="1"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="9"/>
-      <c r="B26" s="9"/>
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A14:B14"/>
     <mergeCell ref="A1:M2"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A17:B17"/>
@@ -1335,15 +1339,11 @@
     <mergeCell ref="B4:G4"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -1395,92 +1395,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="9">
         <v>2</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
     </row>
     <row r="8" spans="1:15" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
@@ -2263,11 +2263,23 @@
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="9"/>
-      <c r="B27" s="9"/>
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="A1:O2"/>
     <mergeCell ref="B3:G3"/>
@@ -2281,18 +2293,6 @@
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -2328,7 +2328,7 @@
   <dimension ref="A1:P27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2343,94 +2343,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="9">
         <v>3</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
     </row>
     <row r="8" spans="1:16" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
@@ -2440,7 +2440,9 @@
       <c r="C8" s="2">
         <v>44991</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2">
+        <v>44992</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -2471,7 +2473,9 @@
       <c r="C9" s="1">
         <v>1</v>
       </c>
-      <c r="D9" s="1"/>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -2480,8 +2484,8 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="4">
-        <f>SUM(C9:H9)/8</f>
-        <v>0.125</v>
+        <f t="shared" ref="L9:L26" si="0">SUM(C9:H9)/8</f>
+        <v>0.25</v>
       </c>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
@@ -2499,7 +2503,9 @@
       <c r="C10" s="1">
         <v>1</v>
       </c>
-      <c r="D10" s="1"/>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -2508,8 +2514,8 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="4">
-        <f>SUM(C10:H10)/8</f>
-        <v>0.125</v>
+        <f t="shared" si="0"/>
+        <v>0.25</v>
       </c>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
@@ -2527,7 +2533,9 @@
       <c r="C11" s="1">
         <v>0</v>
       </c>
-      <c r="D11" s="1"/>
+      <c r="D11" s="1">
+        <v>0</v>
+      </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -2536,7 +2544,7 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="4">
-        <f>SUM(C11:H11)/8</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M11" s="1"/>
@@ -2555,7 +2563,9 @@
       <c r="C12" s="1">
         <v>0</v>
       </c>
-      <c r="D12" s="1"/>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -2564,8 +2574,8 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="4">
-        <f>SUM(C12:H12)/8</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.125</v>
       </c>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
@@ -2583,7 +2593,9 @@
       <c r="C13" s="1">
         <v>1</v>
       </c>
-      <c r="D13" s="1"/>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -2592,8 +2604,8 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="4">
-        <f>SUM(C13:H13)/8</f>
-        <v>0.125</v>
+        <f t="shared" si="0"/>
+        <v>0.25</v>
       </c>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
@@ -2611,7 +2623,9 @@
       <c r="C14" s="1">
         <v>1</v>
       </c>
-      <c r="D14" s="1"/>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -2620,8 +2634,8 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="4">
-        <f>SUM(C14:H14)/8</f>
-        <v>0.125</v>
+        <f t="shared" si="0"/>
+        <v>0.25</v>
       </c>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
@@ -2639,7 +2653,9 @@
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="1"/>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
@@ -2648,8 +2664,8 @@
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="4">
-        <f>SUM(C15:H15)/8</f>
-        <v>0.125</v>
+        <f t="shared" si="0"/>
+        <v>0.25</v>
       </c>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
@@ -2667,7 +2683,9 @@
       <c r="C16" s="1">
         <v>0</v>
       </c>
-      <c r="D16" s="1"/>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -2676,8 +2694,8 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="4">
-        <f>SUM(C16:H16)/8</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.125</v>
       </c>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
@@ -2695,7 +2713,9 @@
       <c r="C17" s="1">
         <v>1</v>
       </c>
-      <c r="D17" s="1"/>
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -2704,8 +2724,8 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="4">
-        <f>SUM(C17:H17)/8</f>
-        <v>0.125</v>
+        <f t="shared" si="0"/>
+        <v>0.25</v>
       </c>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
@@ -2723,7 +2743,9 @@
       <c r="C18" s="1">
         <v>1</v>
       </c>
-      <c r="D18" s="1"/>
+      <c r="D18" s="1">
+        <v>1</v>
+      </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -2732,8 +2754,8 @@
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="4">
-        <f>SUM(C18:H18)/8</f>
-        <v>0.125</v>
+        <f t="shared" si="0"/>
+        <v>0.25</v>
       </c>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
@@ -2751,7 +2773,9 @@
       <c r="C19" s="1">
         <v>1</v>
       </c>
-      <c r="D19" s="1"/>
+      <c r="D19" s="1">
+        <v>1</v>
+      </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
@@ -2760,8 +2784,8 @@
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="4">
-        <f>SUM(C19:H19)/8</f>
-        <v>0.125</v>
+        <f t="shared" si="0"/>
+        <v>0.25</v>
       </c>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
@@ -2779,7 +2803,9 @@
       <c r="C20" s="1">
         <v>1</v>
       </c>
-      <c r="D20" s="1"/>
+      <c r="D20" s="1">
+        <v>1</v>
+      </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -2788,8 +2814,8 @@
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="4">
-        <f>SUM(C20:H20)/8</f>
-        <v>0.125</v>
+        <f t="shared" si="0"/>
+        <v>0.25</v>
       </c>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
@@ -2807,7 +2833,9 @@
       <c r="C21" s="1">
         <v>1</v>
       </c>
-      <c r="D21" s="1"/>
+      <c r="D21" s="1">
+        <v>1</v>
+      </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
@@ -2816,8 +2844,8 @@
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="4">
-        <f>SUM(C21:H21)/8</f>
-        <v>0.125</v>
+        <f t="shared" si="0"/>
+        <v>0.25</v>
       </c>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
@@ -2835,7 +2863,9 @@
       <c r="C22" s="1">
         <v>1</v>
       </c>
-      <c r="D22" s="1"/>
+      <c r="D22" s="1">
+        <v>1</v>
+      </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
@@ -2844,8 +2874,8 @@
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="4">
-        <f>SUM(C22:H22)/8</f>
-        <v>0.125</v>
+        <f t="shared" si="0"/>
+        <v>0.25</v>
       </c>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
@@ -2863,7 +2893,9 @@
       <c r="C23" s="1">
         <v>1</v>
       </c>
-      <c r="D23" s="1"/>
+      <c r="D23" s="1">
+        <v>1</v>
+      </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
@@ -2872,8 +2904,8 @@
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="4">
-        <f>SUM(C23:H23)/8</f>
-        <v>0.125</v>
+        <f t="shared" si="0"/>
+        <v>0.25</v>
       </c>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
@@ -2891,7 +2923,9 @@
       <c r="C24" s="1">
         <v>1</v>
       </c>
-      <c r="D24" s="1"/>
+      <c r="D24" s="1">
+        <v>1</v>
+      </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
@@ -2900,8 +2934,8 @@
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="4">
-        <f>SUM(C24:H24)/8</f>
-        <v>0.125</v>
+        <f t="shared" si="0"/>
+        <v>0.25</v>
       </c>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
@@ -2919,7 +2953,9 @@
       <c r="C25" s="1">
         <v>1</v>
       </c>
-      <c r="D25" s="1"/>
+      <c r="D25" s="1">
+        <v>1</v>
+      </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
@@ -2928,8 +2964,8 @@
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="4">
-        <f>SUM(C25:H25)/8</f>
-        <v>0.125</v>
+        <f t="shared" si="0"/>
+        <v>0.25</v>
       </c>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
@@ -2947,7 +2983,9 @@
       <c r="C26" s="1">
         <v>0</v>
       </c>
-      <c r="D26" s="1"/>
+      <c r="D26" s="1">
+        <v>0</v>
+      </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
@@ -2956,7 +2994,7 @@
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
       <c r="L26" s="4">
-        <f>SUM(C26:H26)/8</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M26" s="1"/>
@@ -2966,11 +3004,29 @@
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="9"/>
-      <c r="B27" s="9"/>
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A1:P2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="A22:B22"/>
@@ -2978,24 +3034,6 @@
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A1:P2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="A8:B8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>

--- a/Administración de Base de datos/LISTA DE ASISTENCIA.xlsx
+++ b/Administración de Base de datos/LISTA DE ASISTENCIA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Semestre 2023\Administración de Base de datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60282F4B-9710-4682-836C-3BB6F18AE6AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{108E473A-AB5F-459A-95B9-CE3D260A2ACB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{483FA78A-27C1-422B-951E-FFDDEF779FE0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{483FA78A-27C1-422B-951E-FFDDEF779FE0}"/>
   </bookViews>
   <sheets>
     <sheet name="UNIDAD 1" sheetId="1" r:id="rId1"/>
@@ -223,7 +223,6 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -233,6 +232,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -551,8 +551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CBE9989-2FBB-4721-BEF0-9EED0B8B83CE}">
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+    <sheetView topLeftCell="A8" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -566,88 +566,88 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="9">
-        <v>1</v>
-      </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
+      <c r="B5" s="8">
+        <v>1</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
     </row>
     <row r="8" spans="1:13" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
@@ -1315,20 +1315,16 @@
       <c r="L25" s="1"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
+      <c r="A26" s="9"/>
+      <c r="B26" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
     <mergeCell ref="A1:M2"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A17:B17"/>
@@ -1339,11 +1335,15 @@
     <mergeCell ref="B4:G4"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A14:B14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -1379,8 +1379,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CD2ACD6-C3B0-41CF-81DD-BAA6714325A1}">
   <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="121" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="121" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11:N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1395,92 +1395,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="8">
         <v>2</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
     </row>
     <row r="8" spans="1:15" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
@@ -1644,7 +1644,7 @@
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
@@ -2263,23 +2263,11 @@
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6"/>
+      <c r="A27" s="9"/>
+      <c r="B27" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="A1:O2"/>
     <mergeCell ref="B3:G3"/>
@@ -2293,6 +2281,18 @@
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -2327,7 +2327,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73B5EDEC-A03F-4F5C-B5D8-A2BF879C22A1}">
   <dimension ref="A1:P27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
@@ -2343,94 +2343,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="8">
         <v>3</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
     </row>
     <row r="8" spans="1:16" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
@@ -3004,17 +3004,18 @@
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6"/>
+      <c r="A27" s="9"/>
+      <c r="B27" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A1:P2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A10:B10"/>
@@ -3027,13 +3028,12 @@
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A1:P2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B6:G6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>

--- a/Administración de Base de datos/LISTA DE ASISTENCIA.xlsx
+++ b/Administración de Base de datos/LISTA DE ASISTENCIA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Semestre 2023\Administración de Base de datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{108E473A-AB5F-459A-95B9-CE3D260A2ACB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BBDEF71-3027-48BA-8EA9-A0FB055A3784}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{483FA78A-27C1-422B-951E-FFDDEF779FE0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{483FA78A-27C1-422B-951E-FFDDEF779FE0}"/>
   </bookViews>
   <sheets>
     <sheet name="UNIDAD 1" sheetId="1" r:id="rId1"/>
@@ -223,6 +223,7 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -232,7 +233,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -555,101 +555,101 @@
       <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="16.42578125" customWidth="1"/>
-    <col min="3" max="8" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.28515625" customWidth="1"/>
-    <col min="10" max="10" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" customWidth="1"/>
+    <col min="3" max="8" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.33203125" customWidth="1"/>
+    <col min="10" max="10" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8" customWidth="1"/>
-    <col min="12" max="12" width="8.5703125" customWidth="1"/>
+    <col min="12" max="12" width="8.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="8">
-        <v>1</v>
-      </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B5" s="9">
+        <v>1</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-    </row>
-    <row r="8" spans="1:13" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+    </row>
+    <row r="8" spans="1:13" ht="49.8" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>6</v>
       </c>
@@ -685,7 +685,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>8</v>
       </c>
@@ -722,7 +722,7 @@
       </c>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>9</v>
       </c>
@@ -759,7 +759,7 @@
       </c>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>10</v>
       </c>
@@ -796,7 +796,7 @@
       </c>
       <c r="L11" s="1"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>11</v>
       </c>
@@ -833,7 +833,7 @@
       </c>
       <c r="L12" s="1"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>12</v>
       </c>
@@ -870,7 +870,7 @@
       </c>
       <c r="L13" s="1"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>30</v>
       </c>
@@ -907,7 +907,7 @@
       </c>
       <c r="L14" s="1"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>13</v>
       </c>
@@ -944,7 +944,7 @@
       </c>
       <c r="L15" s="1"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>14</v>
       </c>
@@ -981,7 +981,7 @@
       </c>
       <c r="L16" s="1"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>28</v>
       </c>
@@ -1018,7 +1018,7 @@
       </c>
       <c r="L17" s="1"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>29</v>
       </c>
@@ -1055,7 +1055,7 @@
       </c>
       <c r="L18" s="1"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>17</v>
       </c>
@@ -1092,7 +1092,7 @@
       </c>
       <c r="L19" s="1"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>18</v>
       </c>
@@ -1129,7 +1129,7 @@
       </c>
       <c r="L20" s="1"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>19</v>
       </c>
@@ -1166,7 +1166,7 @@
       </c>
       <c r="L21" s="1"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>20</v>
       </c>
@@ -1203,7 +1203,7 @@
       </c>
       <c r="L22" s="1"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>21</v>
       </c>
@@ -1240,7 +1240,7 @@
       </c>
       <c r="L23" s="1"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>22</v>
       </c>
@@ -1277,7 +1277,7 @@
       </c>
       <c r="L24" s="1"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>23</v>
       </c>
@@ -1314,17 +1314,21 @@
       </c>
       <c r="L25" s="1"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="9"/>
-      <c r="B26" s="9"/>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A14:B14"/>
     <mergeCell ref="A1:M2"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A17:B17"/>
@@ -1335,15 +1339,11 @@
     <mergeCell ref="B4:G4"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -1379,110 +1379,110 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CD2ACD6-C3B0-41CF-81DD-BAA6714325A1}">
   <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="121" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScale="121" workbookViewId="0">
       <selection activeCell="D11" sqref="D11:N11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="16.42578125" customWidth="1"/>
-    <col min="3" max="8" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="5.7109375" customWidth="1"/>
-    <col min="11" max="11" width="7.28515625" customWidth="1"/>
-    <col min="12" max="12" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" customWidth="1"/>
+    <col min="3" max="8" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="5.6640625" customWidth="1"/>
+    <col min="11" max="11" width="7.33203125" customWidth="1"/>
+    <col min="12" max="12" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8" customWidth="1"/>
-    <col min="14" max="14" width="8.5703125" customWidth="1"/>
+    <col min="14" max="14" width="8.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="9">
         <v>2</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-    </row>
-    <row r="8" spans="1:15" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+    </row>
+    <row r="8" spans="1:15" ht="49.8" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>6</v>
       </c>
@@ -1524,7 +1524,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>8</v>
       </c>
@@ -1565,7 +1565,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>9</v>
       </c>
@@ -1606,7 +1606,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>10</v>
       </c>
@@ -1647,7 +1647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>32</v>
       </c>
@@ -1688,7 +1688,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>11</v>
       </c>
@@ -1729,7 +1729,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>12</v>
       </c>
@@ -1770,7 +1770,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>30</v>
       </c>
@@ -1811,7 +1811,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>13</v>
       </c>
@@ -1852,7 +1852,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>14</v>
       </c>
@@ -1893,7 +1893,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>28</v>
       </c>
@@ -1934,7 +1934,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>29</v>
       </c>
@@ -1975,7 +1975,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>17</v>
       </c>
@@ -2016,7 +2016,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>18</v>
       </c>
@@ -2057,7 +2057,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>19</v>
       </c>
@@ -2098,7 +2098,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>20</v>
       </c>
@@ -2139,7 +2139,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>21</v>
       </c>
@@ -2180,7 +2180,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>22</v>
       </c>
@@ -2221,7 +2221,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>23</v>
       </c>
@@ -2262,12 +2262,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="9"/>
-      <c r="B27" s="9"/>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="A1:O2"/>
     <mergeCell ref="B3:G3"/>
@@ -2281,18 +2293,6 @@
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -2327,112 +2327,112 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73B5EDEC-A03F-4F5C-B5D8-A2BF879C22A1}">
   <dimension ref="A1:P27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="16.42578125" customWidth="1"/>
-    <col min="3" max="8" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="5.7109375" customWidth="1"/>
-    <col min="12" max="12" width="7.28515625" customWidth="1"/>
-    <col min="13" max="13" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" customWidth="1"/>
+    <col min="3" max="8" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="5.6640625" customWidth="1"/>
+    <col min="12" max="12" width="7.33203125" customWidth="1"/>
+    <col min="13" max="13" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8" customWidth="1"/>
-    <col min="15" max="15" width="8.5703125" customWidth="1"/>
+    <col min="15" max="15" width="8.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="9">
         <v>3</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-    </row>
-    <row r="8" spans="1:16" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+    </row>
+    <row r="8" spans="1:16" ht="49.8" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>6</v>
       </c>
@@ -2443,7 +2443,9 @@
       <c r="D8" s="2">
         <v>44992</v>
       </c>
-      <c r="E8" s="2"/>
+      <c r="E8" s="2">
+        <v>44998</v>
+      </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
@@ -2463,7 +2465,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>8</v>
       </c>
@@ -2476,7 +2478,9 @@
       <c r="D9" s="1">
         <v>1</v>
       </c>
-      <c r="E9" s="1"/>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -2485,7 +2489,7 @@
       <c r="K9" s="1"/>
       <c r="L9" s="4">
         <f t="shared" ref="L9:L26" si="0">SUM(C9:H9)/8</f>
-        <v>0.25</v>
+        <v>0.375</v>
       </c>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
@@ -2493,7 +2497,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>9</v>
       </c>
@@ -2506,7 +2510,9 @@
       <c r="D10" s="1">
         <v>1</v>
       </c>
-      <c r="E10" s="1"/>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -2515,7 +2521,7 @@
       <c r="K10" s="1"/>
       <c r="L10" s="4">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.375</v>
       </c>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
@@ -2523,7 +2529,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>10</v>
       </c>
@@ -2536,7 +2542,9 @@
       <c r="D11" s="1">
         <v>0</v>
       </c>
-      <c r="E11" s="1"/>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -2553,7 +2561,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>32</v>
       </c>
@@ -2566,7 +2574,9 @@
       <c r="D12" s="1">
         <v>1</v>
       </c>
-      <c r="E12" s="1"/>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -2583,7 +2593,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>11</v>
       </c>
@@ -2596,7 +2606,9 @@
       <c r="D13" s="1">
         <v>1</v>
       </c>
-      <c r="E13" s="1"/>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -2605,7 +2617,7 @@
       <c r="K13" s="1"/>
       <c r="L13" s="4">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.375</v>
       </c>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
@@ -2613,7 +2625,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>12</v>
       </c>
@@ -2626,7 +2638,9 @@
       <c r="D14" s="1">
         <v>1</v>
       </c>
-      <c r="E14" s="1"/>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
@@ -2635,7 +2649,7 @@
       <c r="K14" s="1"/>
       <c r="L14" s="4">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.375</v>
       </c>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
@@ -2643,7 +2657,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>30</v>
       </c>
@@ -2656,7 +2670,9 @@
       <c r="D15" s="1">
         <v>1</v>
       </c>
-      <c r="E15" s="1"/>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
@@ -2665,7 +2681,7 @@
       <c r="K15" s="1"/>
       <c r="L15" s="4">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.375</v>
       </c>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
@@ -2673,7 +2689,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>13</v>
       </c>
@@ -2686,7 +2702,9 @@
       <c r="D16" s="1">
         <v>1</v>
       </c>
-      <c r="E16" s="1"/>
+      <c r="E16" s="1">
+        <v>0</v>
+      </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -2703,7 +2721,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>14</v>
       </c>
@@ -2716,7 +2734,9 @@
       <c r="D17" s="1">
         <v>1</v>
       </c>
-      <c r="E17" s="1"/>
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -2725,7 +2745,7 @@
       <c r="K17" s="1"/>
       <c r="L17" s="4">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.375</v>
       </c>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
@@ -2733,7 +2753,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>28</v>
       </c>
@@ -2746,7 +2766,9 @@
       <c r="D18" s="1">
         <v>1</v>
       </c>
-      <c r="E18" s="1"/>
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
@@ -2755,7 +2777,7 @@
       <c r="K18" s="1"/>
       <c r="L18" s="4">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.375</v>
       </c>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
@@ -2763,7 +2785,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>29</v>
       </c>
@@ -2776,7 +2798,9 @@
       <c r="D19" s="1">
         <v>1</v>
       </c>
-      <c r="E19" s="1"/>
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -2785,7 +2809,7 @@
       <c r="K19" s="1"/>
       <c r="L19" s="4">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.375</v>
       </c>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
@@ -2793,7 +2817,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>17</v>
       </c>
@@ -2806,7 +2830,9 @@
       <c r="D20" s="1">
         <v>1</v>
       </c>
-      <c r="E20" s="1"/>
+      <c r="E20" s="1">
+        <v>1</v>
+      </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
@@ -2815,7 +2841,7 @@
       <c r="K20" s="1"/>
       <c r="L20" s="4">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.375</v>
       </c>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
@@ -2823,7 +2849,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>18</v>
       </c>
@@ -2836,7 +2862,9 @@
       <c r="D21" s="1">
         <v>1</v>
       </c>
-      <c r="E21" s="1"/>
+      <c r="E21" s="1">
+        <v>1</v>
+      </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
@@ -2845,7 +2873,7 @@
       <c r="K21" s="1"/>
       <c r="L21" s="4">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.375</v>
       </c>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
@@ -2853,7 +2881,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>19</v>
       </c>
@@ -2866,7 +2894,9 @@
       <c r="D22" s="1">
         <v>1</v>
       </c>
-      <c r="E22" s="1"/>
+      <c r="E22" s="1">
+        <v>1</v>
+      </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
@@ -2875,7 +2905,7 @@
       <c r="K22" s="1"/>
       <c r="L22" s="4">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.375</v>
       </c>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
@@ -2883,7 +2913,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>20</v>
       </c>
@@ -2896,7 +2926,9 @@
       <c r="D23" s="1">
         <v>1</v>
       </c>
-      <c r="E23" s="1"/>
+      <c r="E23" s="1">
+        <v>1</v>
+      </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
@@ -2905,7 +2937,7 @@
       <c r="K23" s="1"/>
       <c r="L23" s="4">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.375</v>
       </c>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
@@ -2913,7 +2945,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>21</v>
       </c>
@@ -2926,7 +2958,9 @@
       <c r="D24" s="1">
         <v>1</v>
       </c>
-      <c r="E24" s="1"/>
+      <c r="E24" s="1">
+        <v>1</v>
+      </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
@@ -2935,7 +2969,7 @@
       <c r="K24" s="1"/>
       <c r="L24" s="4">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.375</v>
       </c>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
@@ -2943,7 +2977,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>22</v>
       </c>
@@ -2956,7 +2990,9 @@
       <c r="D25" s="1">
         <v>1</v>
       </c>
-      <c r="E25" s="1"/>
+      <c r="E25" s="1">
+        <v>1</v>
+      </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
@@ -2965,7 +3001,7 @@
       <c r="K25" s="1"/>
       <c r="L25" s="4">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.375</v>
       </c>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
@@ -2973,7 +3009,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>23</v>
       </c>
@@ -2986,7 +3022,9 @@
       <c r="D26" s="1">
         <v>0</v>
       </c>
-      <c r="E26" s="1"/>
+      <c r="E26" s="1">
+        <v>0</v>
+      </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
@@ -3003,19 +3041,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="9"/>
-      <c r="B27" s="9"/>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A1:P2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B6:G6"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A10:B10"/>
@@ -3028,12 +3065,13 @@
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A1:P2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>

--- a/Administración de Base de datos/LISTA DE ASISTENCIA.xlsx
+++ b/Administración de Base de datos/LISTA DE ASISTENCIA.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Semestre 2023\Administración de Base de datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BBDEF71-3027-48BA-8EA9-A0FB055A3784}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{607BBC18-557B-4108-8831-E68C30774E98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{483FA78A-27C1-422B-951E-FFDDEF779FE0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{483FA78A-27C1-422B-951E-FFDDEF779FE0}"/>
   </bookViews>
   <sheets>
     <sheet name="UNIDAD 1" sheetId="1" r:id="rId1"/>
     <sheet name="UNIDAD 2" sheetId="2" r:id="rId2"/>
     <sheet name="UNIDAD 3" sheetId="3" r:id="rId3"/>
+    <sheet name="UNIDAD 4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="35">
   <si>
     <t>LISTA DE ASISTECIA</t>
   </si>
@@ -140,6 +141,9 @@
   </si>
   <si>
     <t>Configuración y administración del espacio en disco</t>
+  </si>
+  <si>
+    <t>Operación y Mantenimiento</t>
   </si>
 </sst>
 </file>
@@ -2327,8 +2331,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73B5EDEC-A03F-4F5C-B5D8-A2BF879C22A1}">
   <dimension ref="A1:P27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A3" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3100,4 +3104,821 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DA60B28-B6D7-42FC-A2BA-260D6FE455E1}">
+  <dimension ref="A1:P27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="16.44140625" customWidth="1"/>
+    <col min="3" max="8" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="5.6640625" customWidth="1"/>
+    <col min="12" max="12" width="7.33203125" customWidth="1"/>
+    <col min="13" max="13" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8" customWidth="1"/>
+    <col min="15" max="15" width="8.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="9">
+        <v>4</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+    </row>
+    <row r="8" spans="1:16" ht="49.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="2">
+        <v>45006</v>
+      </c>
+      <c r="D8" s="2">
+        <v>45039</v>
+      </c>
+      <c r="E8" s="2">
+        <v>45009</v>
+      </c>
+      <c r="F8" s="2">
+        <v>45012</v>
+      </c>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="4">
+        <f t="shared" ref="L9:L26" si="0">SUM(C9:H9)/8</f>
+        <v>0.5</v>
+      </c>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="4">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="4">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="4">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="4">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="4">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="4">
+        <f t="shared" si="0"/>
+        <v>0.125</v>
+      </c>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1</v>
+      </c>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="4">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1</v>
+      </c>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="4">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1</v>
+      </c>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="4">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1</v>
+      </c>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="4">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1</v>
+      </c>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="4">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1</v>
+      </c>
+      <c r="F22" s="1">
+        <v>1</v>
+      </c>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="4">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="1">
+        <v>1</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1</v>
+      </c>
+      <c r="F23" s="1">
+        <v>1</v>
+      </c>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="4">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1</v>
+      </c>
+      <c r="D24" s="1">
+        <v>1</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1</v>
+      </c>
+      <c r="F24" s="1">
+        <v>1</v>
+      </c>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="4">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1</v>
+      </c>
+      <c r="E25" s="1">
+        <v>1</v>
+      </c>
+      <c r="F25" s="1">
+        <v>1</v>
+      </c>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="4">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0</v>
+      </c>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="25">
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A1:P2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="1" id="{567E01E5-2827-4140-934A-7D1967D91575}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols2" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>C9:K26</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/Administración de Base de datos/LISTA DE ASISTENCIA.xlsx
+++ b/Administración de Base de datos/LISTA DE ASISTENCIA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Semestre 2023\Administración de Base de datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{607BBC18-557B-4108-8831-E68C30774E98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1271E514-54CD-454F-9E83-1A5E13DFA90A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{483FA78A-27C1-422B-951E-FFDDEF779FE0}"/>
+    <workbookView xWindow="-135" yWindow="-135" windowWidth="20760" windowHeight="11070" activeTab="3" xr2:uid="{483FA78A-27C1-422B-951E-FFDDEF779FE0}"/>
   </bookViews>
   <sheets>
     <sheet name="UNIDAD 1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="36">
   <si>
     <t>LISTA DE ASISTECIA</t>
   </si>
@@ -145,6 +145,9 @@
   <si>
     <t>Operación y Mantenimiento</t>
   </si>
+  <si>
+    <t>28/0#/2023</t>
+  </si>
 </sst>
 </file>
 
@@ -227,7 +230,6 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -237,6 +239,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -559,101 +562,101 @@
       <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.44140625" customWidth="1"/>
-    <col min="3" max="8" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.33203125" customWidth="1"/>
-    <col min="10" max="10" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="3" max="8" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.28515625" customWidth="1"/>
+    <col min="10" max="10" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8" customWidth="1"/>
-    <col min="12" max="12" width="8.5546875" customWidth="1"/>
+    <col min="12" max="12" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="9">
-        <v>1</v>
-      </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B5" s="8">
+        <v>1</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-    </row>
-    <row r="8" spans="1:13" ht="49.8" x14ac:dyDescent="0.3">
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+    </row>
+    <row r="8" spans="1:13" ht="51" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>6</v>
       </c>
@@ -689,7 +692,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>8</v>
       </c>
@@ -726,7 +729,7 @@
       </c>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>9</v>
       </c>
@@ -763,7 +766,7 @@
       </c>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>10</v>
       </c>
@@ -800,7 +803,7 @@
       </c>
       <c r="L11" s="1"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>11</v>
       </c>
@@ -837,7 +840,7 @@
       </c>
       <c r="L12" s="1"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>12</v>
       </c>
@@ -874,7 +877,7 @@
       </c>
       <c r="L13" s="1"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>30</v>
       </c>
@@ -911,7 +914,7 @@
       </c>
       <c r="L14" s="1"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>13</v>
       </c>
@@ -948,7 +951,7 @@
       </c>
       <c r="L15" s="1"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>14</v>
       </c>
@@ -985,7 +988,7 @@
       </c>
       <c r="L16" s="1"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>28</v>
       </c>
@@ -1022,7 +1025,7 @@
       </c>
       <c r="L17" s="1"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>29</v>
       </c>
@@ -1059,7 +1062,7 @@
       </c>
       <c r="L18" s="1"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>17</v>
       </c>
@@ -1096,7 +1099,7 @@
       </c>
       <c r="L19" s="1"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>18</v>
       </c>
@@ -1133,7 +1136,7 @@
       </c>
       <c r="L20" s="1"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>19</v>
       </c>
@@ -1170,7 +1173,7 @@
       </c>
       <c r="L21" s="1"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>20</v>
       </c>
@@ -1207,7 +1210,7 @@
       </c>
       <c r="L22" s="1"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>21</v>
       </c>
@@ -1244,7 +1247,7 @@
       </c>
       <c r="L23" s="1"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>22</v>
       </c>
@@ -1281,7 +1284,7 @@
       </c>
       <c r="L24" s="1"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>23</v>
       </c>
@@ -1318,21 +1321,17 @@
       </c>
       <c r="L25" s="1"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="9"/>
+      <c r="B26" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
     <mergeCell ref="A1:M2"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A17:B17"/>
@@ -1343,11 +1342,15 @@
     <mergeCell ref="B4:G4"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A14:B14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -1387,106 +1390,106 @@
       <selection activeCell="D11" sqref="D11:N11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.44140625" customWidth="1"/>
-    <col min="3" max="8" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="5.6640625" customWidth="1"/>
-    <col min="11" max="11" width="7.33203125" customWidth="1"/>
-    <col min="12" max="12" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="3" max="8" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="5.7109375" customWidth="1"/>
+    <col min="11" max="11" width="7.28515625" customWidth="1"/>
+    <col min="12" max="12" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8" customWidth="1"/>
-    <col min="14" max="14" width="8.5546875" customWidth="1"/>
+    <col min="14" max="14" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="8">
         <v>2</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-    </row>
-    <row r="8" spans="1:15" ht="49.8" x14ac:dyDescent="0.3">
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+    </row>
+    <row r="8" spans="1:15" ht="51" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>6</v>
       </c>
@@ -1528,7 +1531,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>8</v>
       </c>
@@ -1569,7 +1572,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>9</v>
       </c>
@@ -1610,7 +1613,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>10</v>
       </c>
@@ -1651,7 +1654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>32</v>
       </c>
@@ -1692,7 +1695,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>11</v>
       </c>
@@ -1733,7 +1736,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>12</v>
       </c>
@@ -1774,7 +1777,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>30</v>
       </c>
@@ -1815,7 +1818,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>13</v>
       </c>
@@ -1856,7 +1859,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>14</v>
       </c>
@@ -1897,7 +1900,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>28</v>
       </c>
@@ -1938,7 +1941,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>29</v>
       </c>
@@ -1979,7 +1982,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>17</v>
       </c>
@@ -2020,7 +2023,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>18</v>
       </c>
@@ -2061,7 +2064,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>19</v>
       </c>
@@ -2102,7 +2105,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>20</v>
       </c>
@@ -2143,7 +2146,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>21</v>
       </c>
@@ -2184,7 +2187,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>22</v>
       </c>
@@ -2225,7 +2228,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>23</v>
       </c>
@@ -2266,24 +2269,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6"/>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="9"/>
+      <c r="B27" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="A1:O2"/>
     <mergeCell ref="B3:G3"/>
@@ -2297,6 +2288,18 @@
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -2335,108 +2338,108 @@
       <selection activeCell="A3" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.44140625" customWidth="1"/>
-    <col min="3" max="8" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="5.6640625" customWidth="1"/>
-    <col min="12" max="12" width="7.33203125" customWidth="1"/>
-    <col min="13" max="13" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="3" max="8" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="5.7109375" customWidth="1"/>
+    <col min="12" max="12" width="7.28515625" customWidth="1"/>
+    <col min="13" max="13" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8" customWidth="1"/>
-    <col min="15" max="15" width="8.5546875" customWidth="1"/>
+    <col min="15" max="15" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="8">
         <v>3</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-    </row>
-    <row r="8" spans="1:16" ht="49.8" x14ac:dyDescent="0.3">
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+    </row>
+    <row r="8" spans="1:16" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>6</v>
       </c>
@@ -2469,7 +2472,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>8</v>
       </c>
@@ -2501,7 +2504,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>9</v>
       </c>
@@ -2533,7 +2536,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>10</v>
       </c>
@@ -2565,7 +2568,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>32</v>
       </c>
@@ -2597,7 +2600,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>11</v>
       </c>
@@ -2629,7 +2632,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>12</v>
       </c>
@@ -2661,7 +2664,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>30</v>
       </c>
@@ -2693,7 +2696,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>13</v>
       </c>
@@ -2725,7 +2728,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>14</v>
       </c>
@@ -2757,7 +2760,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>28</v>
       </c>
@@ -2789,7 +2792,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>29</v>
       </c>
@@ -2821,7 +2824,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>17</v>
       </c>
@@ -2853,7 +2856,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>18</v>
       </c>
@@ -2885,7 +2888,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>19</v>
       </c>
@@ -2917,7 +2920,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>20</v>
       </c>
@@ -2949,7 +2952,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>21</v>
       </c>
@@ -2981,7 +2984,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>22</v>
       </c>
@@ -3013,7 +3016,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>23</v>
       </c>
@@ -3045,18 +3048,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6"/>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" s="9"/>
+      <c r="B27" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A1:P2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A10:B10"/>
@@ -3069,13 +3073,12 @@
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A1:P2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B6:G6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -3110,112 +3113,112 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DA60B28-B6D7-42FC-A2BA-260D6FE455E1}">
   <dimension ref="A1:P27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.44140625" customWidth="1"/>
-    <col min="3" max="8" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="5.6640625" customWidth="1"/>
-    <col min="12" max="12" width="7.33203125" customWidth="1"/>
-    <col min="13" max="13" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="3" max="8" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="5.7109375" customWidth="1"/>
+    <col min="12" max="12" width="7.28515625" customWidth="1"/>
+    <col min="13" max="13" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8" customWidth="1"/>
-    <col min="15" max="15" width="8.5546875" customWidth="1"/>
+    <col min="15" max="15" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="8">
         <v>4</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-    </row>
-    <row r="8" spans="1:16" ht="49.8" x14ac:dyDescent="0.3">
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+    </row>
+    <row r="8" spans="1:16" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>6</v>
       </c>
@@ -3232,9 +3235,15 @@
       <c r="F8" s="2">
         <v>45012</v>
       </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
+      <c r="G8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" s="2">
+        <v>45015</v>
+      </c>
+      <c r="I8" s="2">
+        <v>45033</v>
+      </c>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="3" t="s">
@@ -3250,7 +3259,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>8</v>
       </c>
@@ -3269,14 +3278,18 @@
       <c r="F9" s="1">
         <v>1</v>
       </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1</v>
+      </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="4">
         <f t="shared" ref="L9:L26" si="0">SUM(C9:H9)/8</f>
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
@@ -3284,7 +3297,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>9</v>
       </c>
@@ -3303,14 +3316,18 @@
       <c r="F10" s="1">
         <v>1</v>
       </c>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1</v>
+      </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="4">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
@@ -3318,7 +3335,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>10</v>
       </c>
@@ -3337,8 +3354,12 @@
       <c r="F11" s="1">
         <v>0</v>
       </c>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -3352,7 +3373,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>32</v>
       </c>
@@ -3371,14 +3392,18 @@
       <c r="F12" s="1">
         <v>0</v>
       </c>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0</v>
+      </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="4">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.375</v>
       </c>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
@@ -3386,7 +3411,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>11</v>
       </c>
@@ -3405,14 +3430,18 @@
       <c r="F13" s="1">
         <v>1</v>
       </c>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
+      <c r="G13" s="1">
+        <v>1</v>
+      </c>
+      <c r="H13" s="1">
+        <v>1</v>
+      </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="4">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
@@ -3420,7 +3449,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>12</v>
       </c>
@@ -3439,14 +3468,18 @@
       <c r="F14" s="1">
         <v>1</v>
       </c>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
+      <c r="G14" s="1">
+        <v>1</v>
+      </c>
+      <c r="H14" s="1">
+        <v>1</v>
+      </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="4">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
@@ -3454,7 +3487,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>30</v>
       </c>
@@ -3473,14 +3506,18 @@
       <c r="F15" s="1">
         <v>1</v>
       </c>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
+      <c r="G15" s="1">
+        <v>1</v>
+      </c>
+      <c r="H15" s="1">
+        <v>1</v>
+      </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="4">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
@@ -3488,7 +3525,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>13</v>
       </c>
@@ -3507,14 +3544,18 @@
       <c r="F16" s="1">
         <v>0</v>
       </c>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
+      <c r="G16" s="1">
+        <v>1</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0</v>
+      </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="4">
         <f t="shared" si="0"/>
-        <v>0.125</v>
+        <v>0.25</v>
       </c>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
@@ -3522,7 +3563,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>14</v>
       </c>
@@ -3541,14 +3582,18 @@
       <c r="F17" s="1">
         <v>1</v>
       </c>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
+      <c r="G17" s="1">
+        <v>1</v>
+      </c>
+      <c r="H17" s="1">
+        <v>1</v>
+      </c>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="4">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
@@ -3556,7 +3601,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>28</v>
       </c>
@@ -3575,14 +3620,18 @@
       <c r="F18" s="1">
         <v>1</v>
       </c>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
+      <c r="G18" s="1">
+        <v>1</v>
+      </c>
+      <c r="H18" s="1">
+        <v>1</v>
+      </c>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="4">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
@@ -3590,7 +3639,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>29</v>
       </c>
@@ -3609,14 +3658,18 @@
       <c r="F19" s="1">
         <v>1</v>
       </c>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
+      <c r="G19" s="1">
+        <v>1</v>
+      </c>
+      <c r="H19" s="1">
+        <v>1</v>
+      </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="4">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
@@ -3624,7 +3677,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>17</v>
       </c>
@@ -3643,14 +3696,18 @@
       <c r="F20" s="1">
         <v>1</v>
       </c>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
+      <c r="G20" s="1">
+        <v>1</v>
+      </c>
+      <c r="H20" s="1">
+        <v>1</v>
+      </c>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="4">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
@@ -3658,7 +3715,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>18</v>
       </c>
@@ -3677,14 +3734,18 @@
       <c r="F21" s="1">
         <v>1</v>
       </c>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
+      <c r="G21" s="1">
+        <v>1</v>
+      </c>
+      <c r="H21" s="1">
+        <v>1</v>
+      </c>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="4">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
@@ -3692,7 +3753,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>19</v>
       </c>
@@ -3711,14 +3772,18 @@
       <c r="F22" s="1">
         <v>1</v>
       </c>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
+      <c r="G22" s="1">
+        <v>1</v>
+      </c>
+      <c r="H22" s="1">
+        <v>1</v>
+      </c>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="4">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
@@ -3726,7 +3791,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>20</v>
       </c>
@@ -3745,14 +3810,18 @@
       <c r="F23" s="1">
         <v>1</v>
       </c>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
+      <c r="G23" s="1">
+        <v>1</v>
+      </c>
+      <c r="H23" s="1">
+        <v>1</v>
+      </c>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="4">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
@@ -3760,7 +3829,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>21</v>
       </c>
@@ -3779,14 +3848,18 @@
       <c r="F24" s="1">
         <v>1</v>
       </c>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
+      <c r="G24" s="1">
+        <v>1</v>
+      </c>
+      <c r="H24" s="1">
+        <v>1</v>
+      </c>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="4">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
@@ -3794,7 +3867,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>22</v>
       </c>
@@ -3813,14 +3886,18 @@
       <c r="F25" s="1">
         <v>1</v>
       </c>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
+      <c r="G25" s="1">
+        <v>1</v>
+      </c>
+      <c r="H25" s="1">
+        <v>1</v>
+      </c>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="4">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
@@ -3828,7 +3905,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>23</v>
       </c>
@@ -3847,8 +3924,12 @@
       <c r="F26" s="1">
         <v>0</v>
       </c>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
+      <c r="G26" s="1">
+        <v>0</v>
+      </c>
+      <c r="H26" s="1">
+        <v>0</v>
+      </c>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
@@ -3862,18 +3943,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6"/>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" s="9"/>
+      <c r="B27" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A1:P2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A10:B10"/>
@@ -3886,13 +3968,12 @@
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A1:P2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B6:G6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>

--- a/Administración de Base de datos/LISTA DE ASISTENCIA.xlsx
+++ b/Administración de Base de datos/LISTA DE ASISTENCIA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Semestre 2023\Administración de Base de datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1271E514-54CD-454F-9E83-1A5E13DFA90A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9736955A-F2CC-4D2C-98EE-A3E28D398DCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-135" yWindow="-135" windowWidth="20760" windowHeight="11070" activeTab="3" xr2:uid="{483FA78A-27C1-422B-951E-FFDDEF779FE0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{483FA78A-27C1-422B-951E-FFDDEF779FE0}"/>
   </bookViews>
   <sheets>
     <sheet name="UNIDAD 1" sheetId="1" r:id="rId1"/>
@@ -230,6 +230,7 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -239,7 +240,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -573,88 +573,88 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="8">
-        <v>1</v>
-      </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
+      <c r="B5" s="9">
+        <v>1</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
     </row>
     <row r="8" spans="1:13" ht="51" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
@@ -1322,16 +1322,20 @@
       <c r="L25" s="1"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="9"/>
-      <c r="B26" s="9"/>
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A14:B14"/>
     <mergeCell ref="A1:M2"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A17:B17"/>
@@ -1342,15 +1346,11 @@
     <mergeCell ref="B4:G4"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -1402,92 +1402,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="9">
         <v>2</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
     </row>
     <row r="8" spans="1:15" ht="51" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
@@ -2270,11 +2270,23 @@
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="9"/>
-      <c r="B27" s="9"/>
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="A1:O2"/>
     <mergeCell ref="B3:G3"/>
@@ -2288,18 +2300,6 @@
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -2350,94 +2350,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="9">
         <v>3</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
     </row>
     <row r="8" spans="1:16" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
@@ -3049,18 +3049,17 @@
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="9"/>
-      <c r="B27" s="9"/>
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A1:P2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B6:G6"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A10:B10"/>
@@ -3073,12 +3072,13 @@
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A1:P2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -3113,8 +3113,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DA60B28-B6D7-42FC-A2BA-260D6FE455E1}">
   <dimension ref="A1:P27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="S19" sqref="S19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3129,94 +3129,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="9">
         <v>4</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
     </row>
     <row r="8" spans="1:16" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
@@ -3244,8 +3244,12 @@
       <c r="I8" s="2">
         <v>45033</v>
       </c>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
+      <c r="J8" s="2">
+        <v>45036</v>
+      </c>
+      <c r="K8" s="2">
+        <v>45037</v>
+      </c>
       <c r="L8" s="3" t="s">
         <v>27</v>
       </c>
@@ -3284,12 +3288,18 @@
       <c r="H9" s="1">
         <v>1</v>
       </c>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
+      <c r="I9" s="1">
+        <v>1</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1</v>
+      </c>
+      <c r="K9" s="1">
+        <v>1</v>
+      </c>
       <c r="L9" s="4">
-        <f t="shared" ref="L9:L26" si="0">SUM(C9:H9)/8</f>
-        <v>0.75</v>
+        <f>SUM(C9:K9)/9</f>
+        <v>1</v>
       </c>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
@@ -3322,12 +3332,18 @@
       <c r="H10" s="1">
         <v>1</v>
       </c>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
+      <c r="I10" s="1">
+        <v>1</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1</v>
+      </c>
+      <c r="K10" s="1">
+        <v>1</v>
+      </c>
       <c r="L10" s="4">
-        <f t="shared" si="0"/>
-        <v>0.75</v>
+        <f t="shared" ref="L10:L26" si="0">SUM(C10:K10)/9</f>
+        <v>1</v>
       </c>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
@@ -3360,9 +3376,15 @@
       <c r="H11" s="1">
         <v>0</v>
       </c>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
+      <c r="I11" s="1">
+        <v>0</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0</v>
+      </c>
       <c r="L11" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3398,12 +3420,18 @@
       <c r="H12" s="1">
         <v>0</v>
       </c>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
+      <c r="I12" s="1">
+        <v>1</v>
+      </c>
+      <c r="J12" s="1">
+        <v>1</v>
+      </c>
+      <c r="K12" s="1">
+        <v>1</v>
+      </c>
       <c r="L12" s="4">
         <f t="shared" si="0"/>
-        <v>0.375</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
@@ -3436,12 +3464,18 @@
       <c r="H13" s="1">
         <v>1</v>
       </c>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
+      <c r="I13" s="1">
+        <v>1</v>
+      </c>
+      <c r="J13" s="1">
+        <v>1</v>
+      </c>
+      <c r="K13" s="1">
+        <v>1</v>
+      </c>
       <c r="L13" s="4">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.77777777777777779</v>
       </c>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
@@ -3474,12 +3508,18 @@
       <c r="H14" s="1">
         <v>1</v>
       </c>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
+      <c r="I14" s="1">
+        <v>1</v>
+      </c>
+      <c r="J14" s="1">
+        <v>1</v>
+      </c>
+      <c r="K14" s="1">
+        <v>1</v>
+      </c>
       <c r="L14" s="4">
         <f t="shared" si="0"/>
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
@@ -3512,12 +3552,18 @@
       <c r="H15" s="1">
         <v>1</v>
       </c>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
+      <c r="I15" s="1">
+        <v>1</v>
+      </c>
+      <c r="J15" s="1">
+        <v>1</v>
+      </c>
+      <c r="K15" s="1">
+        <v>0</v>
+      </c>
       <c r="L15" s="4">
         <f t="shared" si="0"/>
-        <v>0.75</v>
+        <v>0.88888888888888884</v>
       </c>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
@@ -3550,12 +3596,18 @@
       <c r="H16" s="1">
         <v>0</v>
       </c>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
+      <c r="I16" s="1">
+        <v>1</v>
+      </c>
+      <c r="J16" s="1">
+        <v>1</v>
+      </c>
+      <c r="K16" s="1">
+        <v>0</v>
+      </c>
       <c r="L16" s="4">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
@@ -3588,12 +3640,18 @@
       <c r="H17" s="1">
         <v>1</v>
       </c>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
+      <c r="I17" s="1">
+        <v>1</v>
+      </c>
+      <c r="J17" s="1">
+        <v>1</v>
+      </c>
+      <c r="K17" s="1">
+        <v>1</v>
+      </c>
       <c r="L17" s="4">
         <f t="shared" si="0"/>
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
@@ -3626,12 +3684,18 @@
       <c r="H18" s="1">
         <v>1</v>
       </c>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
+      <c r="I18" s="1">
+        <v>1</v>
+      </c>
+      <c r="J18" s="1">
+        <v>1</v>
+      </c>
+      <c r="K18" s="1">
+        <v>1</v>
+      </c>
       <c r="L18" s="4">
         <f t="shared" si="0"/>
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
@@ -3664,12 +3728,18 @@
       <c r="H19" s="1">
         <v>1</v>
       </c>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
+      <c r="I19" s="1">
+        <v>1</v>
+      </c>
+      <c r="J19" s="1">
+        <v>1</v>
+      </c>
+      <c r="K19" s="1">
+        <v>1</v>
+      </c>
       <c r="L19" s="4">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.77777777777777779</v>
       </c>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
@@ -3702,12 +3772,18 @@
       <c r="H20" s="1">
         <v>1</v>
       </c>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
+      <c r="I20" s="1">
+        <v>1</v>
+      </c>
+      <c r="J20" s="1">
+        <v>1</v>
+      </c>
+      <c r="K20" s="1">
+        <v>1</v>
+      </c>
       <c r="L20" s="4">
         <f t="shared" si="0"/>
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
@@ -3740,12 +3816,18 @@
       <c r="H21" s="1">
         <v>1</v>
       </c>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
+      <c r="I21" s="1">
+        <v>1</v>
+      </c>
+      <c r="J21" s="1">
+        <v>1</v>
+      </c>
+      <c r="K21" s="1">
+        <v>1</v>
+      </c>
       <c r="L21" s="4">
         <f t="shared" si="0"/>
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
@@ -3778,12 +3860,18 @@
       <c r="H22" s="1">
         <v>1</v>
       </c>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
+      <c r="I22" s="1">
+        <v>1</v>
+      </c>
+      <c r="J22" s="1">
+        <v>1</v>
+      </c>
+      <c r="K22" s="1">
+        <v>1</v>
+      </c>
       <c r="L22" s="4">
         <f t="shared" si="0"/>
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
@@ -3816,12 +3904,18 @@
       <c r="H23" s="1">
         <v>1</v>
       </c>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
+      <c r="I23" s="1">
+        <v>1</v>
+      </c>
+      <c r="J23" s="1">
+        <v>1</v>
+      </c>
+      <c r="K23" s="1">
+        <v>1</v>
+      </c>
       <c r="L23" s="4">
         <f t="shared" si="0"/>
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
@@ -3854,12 +3948,18 @@
       <c r="H24" s="1">
         <v>1</v>
       </c>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
+      <c r="I24" s="1">
+        <v>1</v>
+      </c>
+      <c r="J24" s="1">
+        <v>1</v>
+      </c>
+      <c r="K24" s="1">
+        <v>1</v>
+      </c>
       <c r="L24" s="4">
         <f t="shared" si="0"/>
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
@@ -3892,12 +3992,18 @@
       <c r="H25" s="1">
         <v>1</v>
       </c>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
+      <c r="I25" s="1">
+        <v>1</v>
+      </c>
+      <c r="J25" s="1">
+        <v>1</v>
+      </c>
+      <c r="K25" s="1">
+        <v>1</v>
+      </c>
       <c r="L25" s="4">
         <f t="shared" si="0"/>
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
@@ -3930,9 +4036,15 @@
       <c r="H26" s="1">
         <v>0</v>
       </c>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
+      <c r="I26" s="1">
+        <v>0</v>
+      </c>
+      <c r="J26" s="1">
+        <v>0</v>
+      </c>
+      <c r="K26" s="1">
+        <v>0</v>
+      </c>
       <c r="L26" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3944,18 +4056,17 @@
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="9"/>
-      <c r="B27" s="9"/>
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A1:P2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B6:G6"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A10:B10"/>
@@ -3968,12 +4079,13 @@
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A1:P2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>

--- a/Administración de Base de datos/LISTA DE ASISTENCIA.xlsx
+++ b/Administración de Base de datos/LISTA DE ASISTENCIA.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Semestre 2023\Administración de Base de datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9736955A-F2CC-4D2C-98EE-A3E28D398DCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A98EFE3B-19DA-41DD-8A44-CBD4D7152447}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{483FA78A-27C1-422B-951E-FFDDEF779FE0}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="15585" activeTab="5" xr2:uid="{483FA78A-27C1-422B-951E-FFDDEF779FE0}"/>
   </bookViews>
   <sheets>
     <sheet name="UNIDAD 1" sheetId="1" r:id="rId1"/>
     <sheet name="UNIDAD 2" sheetId="2" r:id="rId2"/>
     <sheet name="UNIDAD 3" sheetId="3" r:id="rId3"/>
     <sheet name="UNIDAD 4" sheetId="4" r:id="rId4"/>
+    <sheet name="UNIDAD 5" sheetId="5" r:id="rId5"/>
+    <sheet name="UNIDAD 6" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="37">
   <si>
     <t>LISTA DE ASISTECIA</t>
   </si>
@@ -146,7 +148,10 @@
     <t>Operación y Mantenimiento</t>
   </si>
   <si>
-    <t>28/0#/2023</t>
+    <t>Seguridad</t>
+  </si>
+  <si>
+    <t>Monitoreo y Auditoria</t>
   </si>
 </sst>
 </file>
@@ -230,7 +235,6 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -240,6 +244,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -556,107 +561,118 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CBE9989-2FBB-4721-BEF0-9EED0B8B83CE}">
-  <dimension ref="A1:M26"/>
+  <dimension ref="A1:R26"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="16.42578125" customWidth="1"/>
     <col min="3" max="8" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.28515625" customWidth="1"/>
-    <col min="10" max="10" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8" customWidth="1"/>
-    <col min="12" max="12" width="8.5703125" customWidth="1"/>
+    <col min="9" max="13" width="5.7109375" customWidth="1"/>
+    <col min="14" max="14" width="7.28515625" customWidth="1"/>
+    <col min="15" max="15" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8" customWidth="1"/>
+    <col min="17" max="17" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="9">
-        <v>1</v>
-      </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B5" s="8">
+        <v>1</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-    </row>
-    <row r="8" spans="1:13" ht="51" x14ac:dyDescent="0.25">
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+    </row>
+    <row r="8" spans="1:18" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>6</v>
       </c>
@@ -679,20 +695,35 @@
       <c r="H8" s="2">
         <v>44966</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="I8" s="2">
+        <v>44967</v>
+      </c>
+      <c r="J8" s="2">
+        <v>44970</v>
+      </c>
+      <c r="K8" s="2">
+        <v>44971</v>
+      </c>
+      <c r="L8" s="2">
+        <v>44973</v>
+      </c>
+      <c r="M8" s="2">
+        <v>44974</v>
+      </c>
+      <c r="N8" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="O8" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="P8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="L8" s="3" t="s">
+      <c r="Q8" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>8</v>
       </c>
@@ -717,19 +748,36 @@
       <c r="H9" s="1">
         <v>1</v>
       </c>
-      <c r="I9" s="4">
-        <f>SUM(C9:H9)/6</f>
+      <c r="I9" s="1">
         <v>1</v>
       </c>
       <c r="J9" s="1">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="K9" s="1">
-        <v>6</v>
-      </c>
-      <c r="L9" s="1"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="L9" s="1">
+        <v>1</v>
+      </c>
+      <c r="M9" s="1">
+        <v>1</v>
+      </c>
+      <c r="N9" s="4">
+        <f>SUM(C9:M9)/11</f>
+        <v>1</v>
+      </c>
+      <c r="O9" s="1">
+        <v>100</v>
+      </c>
+      <c r="P9" s="1">
+        <v>100</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>9</v>
       </c>
@@ -754,19 +802,36 @@
       <c r="H10" s="1">
         <v>1</v>
       </c>
-      <c r="I10" s="4">
-        <f t="shared" ref="I10:I25" si="0">SUM(C10:H10)/6</f>
+      <c r="I10" s="1">
         <v>1</v>
       </c>
       <c r="J10" s="1">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="K10" s="1">
-        <v>5</v>
-      </c>
-      <c r="L10" s="1"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="L10" s="1">
+        <v>1</v>
+      </c>
+      <c r="M10" s="1">
+        <v>1</v>
+      </c>
+      <c r="N10" s="4">
+        <f t="shared" ref="N10:N25" si="0">SUM(C10:M10)/11</f>
+        <v>1</v>
+      </c>
+      <c r="O10" s="1">
+        <v>100</v>
+      </c>
+      <c r="P10" s="1">
+        <v>90</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>10</v>
       </c>
@@ -791,19 +856,36 @@
       <c r="H11" s="1">
         <v>0</v>
       </c>
-      <c r="I11" s="4">
-        <f t="shared" si="0"/>
-        <v>0.83333333333333337</v>
+      <c r="I11" s="1">
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
         <v>0</v>
       </c>
-      <c r="L11" s="1"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L11" s="1">
+        <v>0</v>
+      </c>
+      <c r="M11" s="1">
+        <v>0</v>
+      </c>
+      <c r="N11" s="4">
+        <f t="shared" si="0"/>
+        <v>0.45454545454545453</v>
+      </c>
+      <c r="O11" s="1">
+        <v>0</v>
+      </c>
+      <c r="P11" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>11</v>
       </c>
@@ -828,19 +910,36 @@
       <c r="H12" s="1">
         <v>0</v>
       </c>
-      <c r="I12" s="4">
-        <f t="shared" si="0"/>
-        <v>0.83333333333333337</v>
+      <c r="I12" s="1">
+        <v>1</v>
       </c>
       <c r="J12" s="1">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="K12" s="1">
-        <v>5</v>
-      </c>
-      <c r="L12" s="1"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="L12" s="1">
+        <v>1</v>
+      </c>
+      <c r="M12" s="1">
+        <v>1</v>
+      </c>
+      <c r="N12" s="4">
+        <f t="shared" si="0"/>
+        <v>0.90909090909090906</v>
+      </c>
+      <c r="O12" s="1">
+        <v>100</v>
+      </c>
+      <c r="P12" s="1">
+        <v>90</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>12</v>
       </c>
@@ -865,19 +964,36 @@
       <c r="H13" s="1">
         <v>1</v>
       </c>
-      <c r="I13" s="4">
-        <f t="shared" si="0"/>
-        <v>0.66666666666666663</v>
+      <c r="I13" s="1">
+        <v>1</v>
       </c>
       <c r="J13" s="1">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="K13" s="1">
-        <v>6</v>
-      </c>
-      <c r="L13" s="1"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="L13" s="1">
+        <v>1</v>
+      </c>
+      <c r="M13" s="1">
+        <v>1</v>
+      </c>
+      <c r="N13" s="4">
+        <f t="shared" si="0"/>
+        <v>0.81818181818181823</v>
+      </c>
+      <c r="O13" s="1">
+        <v>100</v>
+      </c>
+      <c r="P13" s="1">
+        <v>100</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>30</v>
       </c>
@@ -902,19 +1018,36 @@
       <c r="H14" s="1">
         <v>0</v>
       </c>
-      <c r="I14" s="4">
-        <f t="shared" si="0"/>
-        <v>0.83333333333333337</v>
+      <c r="I14" s="1">
+        <v>1</v>
       </c>
       <c r="J14" s="1">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="K14" s="1">
-        <v>5</v>
-      </c>
-      <c r="L14" s="1"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="L14" s="1">
+        <v>1</v>
+      </c>
+      <c r="M14" s="1">
+        <v>1</v>
+      </c>
+      <c r="N14" s="4">
+        <f t="shared" si="0"/>
+        <v>0.90909090909090906</v>
+      </c>
+      <c r="O14" s="1">
+        <v>100</v>
+      </c>
+      <c r="P14" s="1">
+        <v>90</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>13</v>
       </c>
@@ -939,19 +1072,36 @@
       <c r="H15" s="1">
         <v>0</v>
       </c>
-      <c r="I15" s="4">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
+      <c r="I15" s="1">
+        <v>1</v>
       </c>
       <c r="J15" s="1">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="K15" s="1">
-        <v>0</v>
-      </c>
-      <c r="L15" s="1"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="L15" s="1">
+        <v>1</v>
+      </c>
+      <c r="M15" s="1">
+        <v>1</v>
+      </c>
+      <c r="N15" s="4">
+        <f t="shared" si="0"/>
+        <v>0.72727272727272729</v>
+      </c>
+      <c r="O15" s="1">
+        <v>100</v>
+      </c>
+      <c r="P15" s="1">
+        <v>90</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>14</v>
       </c>
@@ -976,19 +1126,36 @@
       <c r="H16" s="1">
         <v>1</v>
       </c>
-      <c r="I16" s="4">
-        <f t="shared" si="0"/>
+      <c r="I16" s="1">
         <v>1</v>
       </c>
       <c r="J16" s="1">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="K16" s="1">
-        <v>5</v>
-      </c>
-      <c r="L16" s="1"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="L16" s="1">
+        <v>1</v>
+      </c>
+      <c r="M16" s="1">
+        <v>1</v>
+      </c>
+      <c r="N16" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O16" s="1">
+        <v>100</v>
+      </c>
+      <c r="P16" s="1">
+        <v>90</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>28</v>
       </c>
@@ -1013,19 +1180,36 @@
       <c r="H17" s="1">
         <v>1</v>
       </c>
-      <c r="I17" s="4">
-        <f t="shared" si="0"/>
+      <c r="I17" s="1">
         <v>1</v>
       </c>
       <c r="J17" s="1">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="K17" s="1">
-        <v>0</v>
-      </c>
-      <c r="L17" s="1"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="L17" s="1">
+        <v>1</v>
+      </c>
+      <c r="M17" s="1">
+        <v>1</v>
+      </c>
+      <c r="N17" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O17" s="1">
+        <v>100</v>
+      </c>
+      <c r="P17" s="1">
+        <v>90</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>29</v>
       </c>
@@ -1050,19 +1234,36 @@
       <c r="H18" s="1">
         <v>1</v>
       </c>
-      <c r="I18" s="4">
-        <f t="shared" si="0"/>
-        <v>0.83333333333333337</v>
+      <c r="I18" s="1">
+        <v>1</v>
       </c>
       <c r="J18" s="1">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="K18" s="1">
-        <v>6</v>
-      </c>
-      <c r="L18" s="1"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="L18" s="1">
+        <v>1</v>
+      </c>
+      <c r="M18" s="1">
+        <v>1</v>
+      </c>
+      <c r="N18" s="4">
+        <f t="shared" si="0"/>
+        <v>0.90909090909090906</v>
+      </c>
+      <c r="O18" s="1">
+        <v>100</v>
+      </c>
+      <c r="P18" s="1">
+        <v>100</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>17</v>
       </c>
@@ -1087,19 +1288,36 @@
       <c r="H19" s="1">
         <v>1</v>
       </c>
-      <c r="I19" s="4">
-        <f t="shared" si="0"/>
+      <c r="I19" s="1">
         <v>1</v>
       </c>
       <c r="J19" s="1">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="K19" s="1">
-        <v>6</v>
-      </c>
-      <c r="L19" s="1"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="L19" s="1">
+        <v>1</v>
+      </c>
+      <c r="M19" s="1">
+        <v>1</v>
+      </c>
+      <c r="N19" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O19" s="1">
+        <v>100</v>
+      </c>
+      <c r="P19" s="1">
+        <v>100</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>18</v>
       </c>
@@ -1124,19 +1342,36 @@
       <c r="H20" s="1">
         <v>1</v>
       </c>
-      <c r="I20" s="4">
-        <f t="shared" si="0"/>
+      <c r="I20" s="1">
         <v>1</v>
       </c>
       <c r="J20" s="1">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="K20" s="1">
-        <v>6</v>
-      </c>
-      <c r="L20" s="1"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="L20" s="1">
+        <v>1</v>
+      </c>
+      <c r="M20" s="1">
+        <v>1</v>
+      </c>
+      <c r="N20" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O20" s="1">
+        <v>100</v>
+      </c>
+      <c r="P20" s="1">
+        <v>100</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>19</v>
       </c>
@@ -1161,19 +1396,36 @@
       <c r="H21" s="1">
         <v>1</v>
       </c>
-      <c r="I21" s="4">
-        <f t="shared" si="0"/>
+      <c r="I21" s="1">
         <v>1</v>
       </c>
       <c r="J21" s="1">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="K21" s="1">
-        <v>5</v>
-      </c>
-      <c r="L21" s="1"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="L21" s="1">
+        <v>1</v>
+      </c>
+      <c r="M21" s="1">
+        <v>1</v>
+      </c>
+      <c r="N21" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O21" s="1">
+        <v>100</v>
+      </c>
+      <c r="P21" s="1">
+        <v>90</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>20</v>
       </c>
@@ -1198,19 +1450,36 @@
       <c r="H22" s="1">
         <v>1</v>
       </c>
-      <c r="I22" s="4">
-        <f t="shared" si="0"/>
+      <c r="I22" s="1">
         <v>1</v>
       </c>
       <c r="J22" s="1">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="K22" s="1">
-        <v>6</v>
-      </c>
-      <c r="L22" s="1"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="L22" s="1">
+        <v>1</v>
+      </c>
+      <c r="M22" s="1">
+        <v>1</v>
+      </c>
+      <c r="N22" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O22" s="1">
+        <v>100</v>
+      </c>
+      <c r="P22" s="1">
+        <v>100</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>21</v>
       </c>
@@ -1235,19 +1504,36 @@
       <c r="H23" s="1">
         <v>1</v>
       </c>
-      <c r="I23" s="4">
-        <f t="shared" si="0"/>
+      <c r="I23" s="1">
         <v>1</v>
       </c>
       <c r="J23" s="1">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="K23" s="1">
-        <v>6</v>
-      </c>
-      <c r="L23" s="1"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="L23" s="1">
+        <v>1</v>
+      </c>
+      <c r="M23" s="1">
+        <v>1</v>
+      </c>
+      <c r="N23" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O23" s="1">
+        <v>100</v>
+      </c>
+      <c r="P23" s="1">
+        <v>100</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>22</v>
       </c>
@@ -1272,19 +1558,36 @@
       <c r="H24" s="1">
         <v>1</v>
       </c>
-      <c r="I24" s="4">
-        <f t="shared" si="0"/>
+      <c r="I24" s="1">
         <v>1</v>
       </c>
       <c r="J24" s="1">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="K24" s="1">
-        <v>6</v>
-      </c>
-      <c r="L24" s="1"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="L24" s="1">
+        <v>1</v>
+      </c>
+      <c r="M24" s="1">
+        <v>1</v>
+      </c>
+      <c r="N24" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O24" s="1">
+        <v>100</v>
+      </c>
+      <c r="P24" s="1">
+        <v>100</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>23</v>
       </c>
@@ -1309,8 +1612,7 @@
       <c r="H25" s="1">
         <v>0</v>
       </c>
-      <c r="I25" s="4">
-        <f t="shared" si="0"/>
+      <c r="I25" s="1">
         <v>0</v>
       </c>
       <c r="J25" s="1">
@@ -1319,14 +1621,47 @@
       <c r="K25" s="1">
         <v>0</v>
       </c>
-      <c r="L25" s="1"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
+      <c r="L25" s="1">
+        <v>0</v>
+      </c>
+      <c r="M25" s="1">
+        <v>0</v>
+      </c>
+      <c r="N25" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O25" s="1">
+        <v>0</v>
+      </c>
+      <c r="P25" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" s="9"/>
+      <c r="B26" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A1:R2"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="A8:B8"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="A9:B9"/>
@@ -1336,21 +1671,6 @@
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A1:M2"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -1374,7 +1694,7 @@
               <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>C9:H25</xm:sqref>
+          <xm:sqref>C9:M25</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -1386,8 +1706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CD2ACD6-C3B0-41CF-81DD-BAA6714325A1}">
   <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="121" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11:N11"/>
+    <sheetView topLeftCell="A6" zoomScale="121" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1402,109 +1722,109 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="8">
         <v>2</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-    </row>
-    <row r="8" spans="1:15" ht="51" x14ac:dyDescent="0.25">
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+    </row>
+    <row r="8" spans="1:15" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="2">
-        <v>44970</v>
+        <v>44977</v>
       </c>
       <c r="D8" s="2">
-        <v>44971</v>
+        <v>44978</v>
       </c>
       <c r="E8" s="2">
-        <v>44973</v>
+        <v>44980</v>
       </c>
       <c r="F8" s="2">
-        <v>44977</v>
+        <v>44981</v>
       </c>
       <c r="G8" s="2">
         <v>44984</v>
@@ -1563,11 +1883,15 @@
         <v>1</v>
       </c>
       <c r="K9" s="4">
-        <f t="shared" ref="K9:K26" si="0">SUM(C9:H9)/8</f>
-        <v>0.625</v>
-      </c>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
+        <f>SUM(C9:J9)/8</f>
+        <v>0.875</v>
+      </c>
+      <c r="L9" s="1">
+        <v>100</v>
+      </c>
+      <c r="M9" s="1">
+        <v>100</v>
+      </c>
       <c r="N9" s="1">
         <v>100</v>
       </c>
@@ -1604,13 +1928,17 @@
         <v>1</v>
       </c>
       <c r="K10" s="4">
-        <f t="shared" si="0"/>
-        <v>0.75</v>
-      </c>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
+        <f t="shared" ref="K10:K26" si="0">SUM(C10:J10)/8</f>
+        <v>1</v>
+      </c>
+      <c r="L10" s="1">
+        <v>100</v>
+      </c>
+      <c r="M10" s="1">
+        <v>90</v>
+      </c>
       <c r="N10" s="1">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
@@ -1648,8 +1976,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
+      <c r="L11" s="1">
+        <v>0</v>
+      </c>
+      <c r="M11" s="1">
+        <v>0</v>
+      </c>
       <c r="N11" s="1">
         <v>0</v>
       </c>
@@ -1665,19 +1997,19 @@
         <v>0</v>
       </c>
       <c r="D12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" s="1">
         <v>0</v>
@@ -1686,13 +2018,17 @@
         <v>1</v>
       </c>
       <c r="K12" s="4">
-        <f t="shared" ref="K12" si="1">SUM(C12:H12)/8</f>
-        <v>0</v>
-      </c>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+      <c r="L12" s="1">
+        <v>0</v>
+      </c>
+      <c r="M12" s="1">
+        <v>80</v>
+      </c>
       <c r="N12" s="1">
-        <v>100</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
@@ -1728,10 +2064,14 @@
       </c>
       <c r="K13" s="4">
         <f t="shared" si="0"/>
-        <v>0.625</v>
-      </c>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
+        <v>0.875</v>
+      </c>
+      <c r="L13" s="1">
+        <v>100</v>
+      </c>
+      <c r="M13" s="1">
+        <v>100</v>
+      </c>
       <c r="N13" s="1">
         <v>100</v>
       </c>
@@ -1769,10 +2109,14 @@
       </c>
       <c r="K14" s="4">
         <f t="shared" si="0"/>
-        <v>0.75</v>
-      </c>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="L14" s="1">
+        <v>100</v>
+      </c>
+      <c r="M14" s="1">
+        <v>100</v>
+      </c>
       <c r="N14" s="1">
         <v>100</v>
       </c>
@@ -1810,12 +2154,16 @@
       </c>
       <c r="K15" s="4">
         <f t="shared" si="0"/>
-        <v>0.375</v>
-      </c>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
+        <v>0.625</v>
+      </c>
+      <c r="L15" s="1">
+        <v>100</v>
+      </c>
+      <c r="M15" s="1">
+        <v>90</v>
+      </c>
       <c r="N15" s="1">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
@@ -1835,7 +2183,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" s="1">
         <v>0</v>
@@ -1851,12 +2199,16 @@
       </c>
       <c r="K16" s="4">
         <f t="shared" si="0"/>
-        <v>0.25</v>
-      </c>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
+        <v>0.625</v>
+      </c>
+      <c r="L16" s="1">
+        <v>80</v>
+      </c>
+      <c r="M16" s="1">
+        <v>80</v>
+      </c>
       <c r="N16" s="1">
-        <v>100</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
@@ -1892,10 +2244,14 @@
       </c>
       <c r="K17" s="4">
         <f t="shared" si="0"/>
-        <v>0.75</v>
-      </c>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="L17" s="1">
+        <v>100</v>
+      </c>
+      <c r="M17" s="1">
+        <v>100</v>
+      </c>
       <c r="N17" s="1">
         <v>100</v>
       </c>
@@ -1933,12 +2289,16 @@
       </c>
       <c r="K18" s="4">
         <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
+        <v>0.75</v>
+      </c>
+      <c r="L18" s="1">
+        <v>90</v>
+      </c>
+      <c r="M18" s="1">
+        <v>90</v>
+      </c>
       <c r="N18" s="1">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
@@ -1974,10 +2334,14 @@
       </c>
       <c r="K19" s="4">
         <f t="shared" si="0"/>
-        <v>0.75</v>
-      </c>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
+        <v>0.875</v>
+      </c>
+      <c r="L19" s="1">
+        <v>100</v>
+      </c>
+      <c r="M19" s="1">
+        <v>100</v>
+      </c>
       <c r="N19" s="1">
         <v>100</v>
       </c>
@@ -2015,10 +2379,14 @@
       </c>
       <c r="K20" s="4">
         <f t="shared" si="0"/>
-        <v>0.75</v>
-      </c>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="L20" s="1">
+        <v>100</v>
+      </c>
+      <c r="M20" s="1">
+        <v>100</v>
+      </c>
       <c r="N20" s="1">
         <v>100</v>
       </c>
@@ -2056,10 +2424,14 @@
       </c>
       <c r="K21" s="4">
         <f t="shared" si="0"/>
-        <v>0.75</v>
-      </c>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="L21" s="1">
+        <v>100</v>
+      </c>
+      <c r="M21" s="1">
+        <v>100</v>
+      </c>
       <c r="N21" s="1">
         <v>100</v>
       </c>
@@ -2097,12 +2469,16 @@
       </c>
       <c r="K22" s="4">
         <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
+        <v>0.75</v>
+      </c>
+      <c r="L22" s="1">
+        <v>90</v>
+      </c>
+      <c r="M22" s="1">
+        <v>90</v>
+      </c>
       <c r="N22" s="1">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
@@ -2138,10 +2514,14 @@
       </c>
       <c r="K23" s="4">
         <f t="shared" si="0"/>
-        <v>0.75</v>
-      </c>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="L23" s="1">
+        <v>100</v>
+      </c>
+      <c r="M23" s="1">
+        <v>100</v>
+      </c>
       <c r="N23" s="1">
         <v>100</v>
       </c>
@@ -2179,12 +2559,16 @@
       </c>
       <c r="K24" s="4">
         <f t="shared" si="0"/>
-        <v>0.625</v>
-      </c>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
+        <v>0.875</v>
+      </c>
+      <c r="L24" s="1">
+        <v>90</v>
+      </c>
+      <c r="M24" s="1">
+        <v>90</v>
+      </c>
       <c r="N24" s="1">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
@@ -2220,10 +2604,14 @@
       </c>
       <c r="K25" s="4">
         <f t="shared" si="0"/>
-        <v>0.75</v>
-      </c>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
+        <v>0.875</v>
+      </c>
+      <c r="L25" s="1">
+        <v>100</v>
+      </c>
+      <c r="M25" s="1">
+        <v>100</v>
+      </c>
       <c r="N25" s="1">
         <v>100</v>
       </c>
@@ -2263,30 +2651,22 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
+      <c r="L26" s="1">
+        <v>0</v>
+      </c>
+      <c r="M26" s="1">
+        <v>0</v>
+      </c>
       <c r="N26" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6"/>
+      <c r="A27" s="9"/>
+      <c r="B27" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="A1:O2"/>
     <mergeCell ref="B3:G3"/>
@@ -2300,13 +2680,25 @@
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="3" id="{29F94F79-C0AC-4D14-8815-5D299C522A0F}">
+          <x14:cfRule type="iconSet" priority="5" id="{29F94F79-C0AC-4D14-8815-5D299C522A0F}">
             <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -2332,114 +2724,112 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73B5EDEC-A03F-4F5C-B5D8-A2BF879C22A1}">
-  <dimension ref="A1:P27"/>
+  <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A3" sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="16.42578125" customWidth="1"/>
     <col min="3" max="8" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="5.7109375" customWidth="1"/>
-    <col min="12" max="12" width="7.28515625" customWidth="1"/>
-    <col min="13" max="13" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8" customWidth="1"/>
-    <col min="15" max="15" width="8.5703125" customWidth="1"/>
+    <col min="9" max="10" width="5.7109375" customWidth="1"/>
+    <col min="11" max="11" width="7.28515625" customWidth="1"/>
+    <col min="12" max="12" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8" customWidth="1"/>
+    <col min="14" max="14" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="8">
         <v>3</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-    </row>
-    <row r="8" spans="1:16" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+    </row>
+    <row r="8" spans="1:15" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>6</v>
       </c>
@@ -2451,28 +2841,37 @@
         <v>44992</v>
       </c>
       <c r="E8" s="2">
+        <v>44994</v>
+      </c>
+      <c r="F8" s="2">
+        <v>44995</v>
+      </c>
+      <c r="G8" s="2">
         <v>44998</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
+      <c r="H8" s="2">
+        <v>44999</v>
+      </c>
+      <c r="I8" s="2">
+        <v>45001</v>
+      </c>
+      <c r="J8" s="2">
+        <v>45002</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="L8" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="O8" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>8</v>
       </c>
@@ -2488,23 +2887,36 @@
       <c r="E9" s="1">
         <v>1</v>
       </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="4">
-        <f t="shared" ref="L9:L26" si="0">SUM(C9:H9)/8</f>
-        <v>0.375</v>
-      </c>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1</v>
+      </c>
+      <c r="I9" s="1">
+        <v>1</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1</v>
+      </c>
+      <c r="K9" s="4">
+        <f>SUM(C9:J9)/12</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="L9" s="1">
+        <v>100</v>
+      </c>
+      <c r="M9" s="1">
+        <v>100</v>
+      </c>
+      <c r="N9" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>9</v>
       </c>
@@ -2520,23 +2932,36 @@
       <c r="E10" s="1">
         <v>1</v>
       </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="4">
-        <f t="shared" si="0"/>
-        <v>0.375</v>
-      </c>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1</v>
+      </c>
+      <c r="I10" s="1">
+        <v>1</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1</v>
+      </c>
+      <c r="K10" s="4">
+        <f>SUM(C10:J10)/12</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="L10" s="1">
+        <v>90</v>
+      </c>
+      <c r="M10" s="1">
+        <v>90</v>
+      </c>
+      <c r="N10" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>10</v>
       </c>
@@ -2552,23 +2977,36 @@
       <c r="E11" s="1">
         <v>0</v>
       </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0</v>
+      </c>
+      <c r="K11" s="4">
+        <f>SUM(C11:J11)/12</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="1">
+        <v>0</v>
+      </c>
+      <c r="M11" s="1">
+        <v>0</v>
+      </c>
+      <c r="N11" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>32</v>
       </c>
@@ -2584,23 +3022,36 @@
       <c r="E12" s="1">
         <v>0</v>
       </c>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="4">
-        <f t="shared" si="0"/>
-        <v>0.125</v>
-      </c>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
+        <v>1</v>
+      </c>
+      <c r="J12" s="1">
+        <v>1</v>
+      </c>
+      <c r="K12" s="4">
+        <f>SUM(C12:J12)/12</f>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="L12" s="1">
+        <v>80</v>
+      </c>
+      <c r="M12" s="1">
+        <v>80</v>
+      </c>
+      <c r="N12" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>11</v>
       </c>
@@ -2616,23 +3067,36 @@
       <c r="E13" s="1">
         <v>1</v>
       </c>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="4">
-        <f t="shared" si="0"/>
-        <v>0.375</v>
-      </c>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
+      <c r="G13" s="1">
+        <v>1</v>
+      </c>
+      <c r="H13" s="1">
+        <v>1</v>
+      </c>
+      <c r="I13" s="1">
+        <v>1</v>
+      </c>
+      <c r="J13" s="1">
+        <v>1</v>
+      </c>
+      <c r="K13" s="4">
+        <f>SUM(C13:J13)/12</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="L13" s="1">
+        <v>90</v>
+      </c>
+      <c r="M13" s="1">
+        <v>90</v>
+      </c>
+      <c r="N13" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>12</v>
       </c>
@@ -2648,23 +3112,36 @@
       <c r="E14" s="1">
         <v>1</v>
       </c>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="4">
-        <f t="shared" si="0"/>
-        <v>0.375</v>
-      </c>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1</v>
+      </c>
+      <c r="H14" s="1">
+        <v>1</v>
+      </c>
+      <c r="I14" s="1">
+        <v>1</v>
+      </c>
+      <c r="J14" s="1">
+        <v>1</v>
+      </c>
+      <c r="K14" s="4">
+        <f>SUM(C14:J14)/12</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="L14" s="1">
+        <v>100</v>
+      </c>
+      <c r="M14" s="1">
+        <v>100</v>
+      </c>
+      <c r="N14" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>30</v>
       </c>
@@ -2680,23 +3157,36 @@
       <c r="E15" s="1">
         <v>1</v>
       </c>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="4">
-        <f t="shared" si="0"/>
-        <v>0.375</v>
-      </c>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1</v>
+      </c>
+      <c r="H15" s="1">
+        <v>1</v>
+      </c>
+      <c r="I15" s="1">
+        <v>1</v>
+      </c>
+      <c r="J15" s="1">
+        <v>1</v>
+      </c>
+      <c r="K15" s="4">
+        <f>SUM(C15:J15)/12</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="L15" s="1">
+        <v>80</v>
+      </c>
+      <c r="M15" s="1">
+        <v>80</v>
+      </c>
+      <c r="N15" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>13</v>
       </c>
@@ -2712,23 +3202,36 @@
       <c r="E16" s="1">
         <v>0</v>
       </c>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="4">
-        <f t="shared" si="0"/>
-        <v>0.125</v>
-      </c>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F16" s="1">
+        <v>1</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0</v>
+      </c>
+      <c r="I16" s="1">
+        <v>1</v>
+      </c>
+      <c r="J16" s="1">
+        <v>1</v>
+      </c>
+      <c r="K16" s="4">
+        <f>SUM(C16:J16)/12</f>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="L16" s="1">
+        <v>80</v>
+      </c>
+      <c r="M16" s="1">
+        <v>80</v>
+      </c>
+      <c r="N16" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>14</v>
       </c>
@@ -2744,23 +3247,36 @@
       <c r="E17" s="1">
         <v>1</v>
       </c>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="4">
-        <f t="shared" si="0"/>
-        <v>0.375</v>
-      </c>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F17" s="1">
+        <v>1</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1</v>
+      </c>
+      <c r="H17" s="1">
+        <v>1</v>
+      </c>
+      <c r="I17" s="1">
+        <v>1</v>
+      </c>
+      <c r="J17" s="1">
+        <v>1</v>
+      </c>
+      <c r="K17" s="4">
+        <f>SUM(C17:J17)/12</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="L17" s="1">
+        <v>100</v>
+      </c>
+      <c r="M17" s="1">
+        <v>100</v>
+      </c>
+      <c r="N17" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>28</v>
       </c>
@@ -2776,23 +3292,36 @@
       <c r="E18" s="1">
         <v>1</v>
       </c>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="4">
-        <f t="shared" si="0"/>
-        <v>0.375</v>
-      </c>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F18" s="1">
+        <v>1</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1</v>
+      </c>
+      <c r="H18" s="1">
+        <v>1</v>
+      </c>
+      <c r="I18" s="1">
+        <v>1</v>
+      </c>
+      <c r="J18" s="1">
+        <v>1</v>
+      </c>
+      <c r="K18" s="4">
+        <f>SUM(C18:J18)/12</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="L18" s="1">
+        <v>100</v>
+      </c>
+      <c r="M18" s="1">
+        <v>100</v>
+      </c>
+      <c r="N18" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>29</v>
       </c>
@@ -2808,23 +3337,36 @@
       <c r="E19" s="1">
         <v>1</v>
       </c>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="4">
-        <f t="shared" si="0"/>
-        <v>0.375</v>
-      </c>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F19" s="1">
+        <v>1</v>
+      </c>
+      <c r="G19" s="1">
+        <v>1</v>
+      </c>
+      <c r="H19" s="1">
+        <v>1</v>
+      </c>
+      <c r="I19" s="1">
+        <v>1</v>
+      </c>
+      <c r="J19" s="1">
+        <v>1</v>
+      </c>
+      <c r="K19" s="4">
+        <f>SUM(C19:J19)/12</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="L19" s="1">
+        <v>90</v>
+      </c>
+      <c r="M19" s="1">
+        <v>90</v>
+      </c>
+      <c r="N19" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>17</v>
       </c>
@@ -2840,23 +3382,36 @@
       <c r="E20" s="1">
         <v>1</v>
       </c>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="4">
-        <f t="shared" si="0"/>
-        <v>0.375</v>
-      </c>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F20" s="1">
+        <v>1</v>
+      </c>
+      <c r="G20" s="1">
+        <v>1</v>
+      </c>
+      <c r="H20" s="1">
+        <v>1</v>
+      </c>
+      <c r="I20" s="1">
+        <v>1</v>
+      </c>
+      <c r="J20" s="1">
+        <v>1</v>
+      </c>
+      <c r="K20" s="4">
+        <f>SUM(C20:J20)/12</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="L20" s="1">
+        <v>90</v>
+      </c>
+      <c r="M20" s="1">
+        <v>90</v>
+      </c>
+      <c r="N20" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>18</v>
       </c>
@@ -2872,23 +3427,36 @@
       <c r="E21" s="1">
         <v>1</v>
       </c>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="4">
-        <f t="shared" si="0"/>
-        <v>0.375</v>
-      </c>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F21" s="1">
+        <v>1</v>
+      </c>
+      <c r="G21" s="1">
+        <v>1</v>
+      </c>
+      <c r="H21" s="1">
+        <v>1</v>
+      </c>
+      <c r="I21" s="1">
+        <v>1</v>
+      </c>
+      <c r="J21" s="1">
+        <v>1</v>
+      </c>
+      <c r="K21" s="4">
+        <f>SUM(C21:J21)/12</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="L21" s="1">
+        <v>100</v>
+      </c>
+      <c r="M21" s="1">
+        <v>100</v>
+      </c>
+      <c r="N21" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>19</v>
       </c>
@@ -2904,23 +3472,36 @@
       <c r="E22" s="1">
         <v>1</v>
       </c>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="4">
-        <f t="shared" si="0"/>
-        <v>0.375</v>
-      </c>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F22" s="1">
+        <v>1</v>
+      </c>
+      <c r="G22" s="1">
+        <v>1</v>
+      </c>
+      <c r="H22" s="1">
+        <v>1</v>
+      </c>
+      <c r="I22" s="1">
+        <v>1</v>
+      </c>
+      <c r="J22" s="1">
+        <v>1</v>
+      </c>
+      <c r="K22" s="4">
+        <f>SUM(C22:J22)/12</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="L22" s="1">
+        <v>100</v>
+      </c>
+      <c r="M22" s="1">
+        <v>100</v>
+      </c>
+      <c r="N22" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>20</v>
       </c>
@@ -2936,23 +3517,36 @@
       <c r="E23" s="1">
         <v>1</v>
       </c>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="4">
-        <f t="shared" si="0"/>
-        <v>0.375</v>
-      </c>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F23" s="1">
+        <v>1</v>
+      </c>
+      <c r="G23" s="1">
+        <v>1</v>
+      </c>
+      <c r="H23" s="1">
+        <v>1</v>
+      </c>
+      <c r="I23" s="1">
+        <v>1</v>
+      </c>
+      <c r="J23" s="1">
+        <v>1</v>
+      </c>
+      <c r="K23" s="4">
+        <f>SUM(C23:J23)/12</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="L23" s="1">
+        <v>90</v>
+      </c>
+      <c r="M23" s="1">
+        <v>90</v>
+      </c>
+      <c r="N23" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>21</v>
       </c>
@@ -2968,23 +3562,36 @@
       <c r="E24" s="1">
         <v>1</v>
       </c>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="4">
-        <f t="shared" si="0"/>
-        <v>0.375</v>
-      </c>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F24" s="1">
+        <v>1</v>
+      </c>
+      <c r="G24" s="1">
+        <v>1</v>
+      </c>
+      <c r="H24" s="1">
+        <v>1</v>
+      </c>
+      <c r="I24" s="1">
+        <v>1</v>
+      </c>
+      <c r="J24" s="1">
+        <v>1</v>
+      </c>
+      <c r="K24" s="4">
+        <f>SUM(C24:J24)/12</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="L24" s="1">
+        <v>90</v>
+      </c>
+      <c r="M24" s="1">
+        <v>90</v>
+      </c>
+      <c r="N24" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>22</v>
       </c>
@@ -3000,23 +3607,36 @@
       <c r="E25" s="1">
         <v>1</v>
       </c>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="4">
-        <f t="shared" si="0"/>
-        <v>0.375</v>
-      </c>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F25" s="1">
+        <v>1</v>
+      </c>
+      <c r="G25" s="1">
+        <v>1</v>
+      </c>
+      <c r="H25" s="1">
+        <v>1</v>
+      </c>
+      <c r="I25" s="1">
+        <v>1</v>
+      </c>
+      <c r="J25" s="1">
+        <v>1</v>
+      </c>
+      <c r="K25" s="4">
+        <f>SUM(C25:J25)/12</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="L25" s="1">
+        <v>90</v>
+      </c>
+      <c r="M25" s="1">
+        <v>90</v>
+      </c>
+      <c r="N25" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>23</v>
       </c>
@@ -3032,30 +3652,2437 @@
       <c r="E26" s="1">
         <v>0</v>
       </c>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
+      <c r="F26" s="1">
+        <v>0</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0</v>
+      </c>
+      <c r="H26" s="1">
+        <v>0</v>
+      </c>
+      <c r="I26" s="1">
+        <v>0</v>
+      </c>
+      <c r="J26" s="1">
+        <v>0</v>
+      </c>
+      <c r="K26" s="4">
+        <f>SUM(C26:J26)/12</f>
+        <v>0</v>
+      </c>
+      <c r="L26" s="1">
+        <v>0</v>
+      </c>
+      <c r="M26" s="1">
+        <v>0</v>
+      </c>
+      <c r="N26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="9"/>
+      <c r="B27" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="25">
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A1:O2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B6:G6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="6" id="{5CC17DF1-DBC1-4867-BD86-1390D1E5CBF4}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols2" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>C9:J26</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DA60B28-B6D7-42FC-A2BA-260D6FE455E1}">
+  <dimension ref="A1:S27"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="U23" sqref="U23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="3" max="8" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="14" width="5.7109375" customWidth="1"/>
+    <col min="15" max="15" width="7.28515625" customWidth="1"/>
+    <col min="16" max="16" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8" customWidth="1"/>
+    <col min="18" max="18" width="8.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="8">
+        <v>4</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+    </row>
+    <row r="8" spans="1:19" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="2">
+        <v>45005</v>
+      </c>
+      <c r="D8" s="2">
+        <v>45006</v>
+      </c>
+      <c r="E8" s="2">
+        <v>45008</v>
+      </c>
+      <c r="F8" s="2">
+        <v>45009</v>
+      </c>
+      <c r="G8" s="2">
+        <v>45012</v>
+      </c>
+      <c r="H8" s="2">
+        <v>45013</v>
+      </c>
+      <c r="I8" s="2">
+        <v>45015</v>
+      </c>
+      <c r="J8" s="2">
+        <v>45016</v>
+      </c>
+      <c r="K8" s="2">
+        <v>45033</v>
+      </c>
+      <c r="L8" s="2">
+        <v>45034</v>
+      </c>
+      <c r="M8" s="2">
+        <v>45036</v>
+      </c>
+      <c r="N8" s="2">
+        <v>45037</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1</v>
+      </c>
+      <c r="I9" s="1">
+        <v>1</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1</v>
+      </c>
+      <c r="K9" s="1">
+        <v>1</v>
+      </c>
+      <c r="L9" s="1">
+        <v>1</v>
+      </c>
+      <c r="M9" s="1">
+        <v>1</v>
+      </c>
+      <c r="N9" s="1">
+        <v>1</v>
+      </c>
+      <c r="O9" s="4">
+        <f>SUM(C9:N9)/12</f>
+        <v>1</v>
+      </c>
+      <c r="P9" s="1">
+        <v>90</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>90</v>
+      </c>
+      <c r="R9" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1</v>
+      </c>
+      <c r="I10" s="1">
+        <v>1</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1</v>
+      </c>
+      <c r="K10" s="1">
+        <v>1</v>
+      </c>
+      <c r="L10" s="1">
+        <v>1</v>
+      </c>
+      <c r="M10" s="1">
+        <v>1</v>
+      </c>
+      <c r="N10" s="1">
+        <v>1</v>
+      </c>
+      <c r="O10" s="4">
+        <f t="shared" ref="O10:O26" si="0">SUM(C10:N10)/12</f>
+        <v>1</v>
+      </c>
+      <c r="P10" s="1">
+        <v>90</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>90</v>
+      </c>
+      <c r="R10" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0</v>
+      </c>
+      <c r="L11" s="1">
+        <v>0</v>
+      </c>
+      <c r="M11" s="1">
+        <v>0</v>
+      </c>
+      <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P11" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>0</v>
+      </c>
+      <c r="R11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
+        <v>1</v>
+      </c>
+      <c r="J12" s="1">
+        <v>1</v>
+      </c>
+      <c r="K12" s="1">
+        <v>1</v>
+      </c>
+      <c r="L12" s="1">
+        <v>0</v>
+      </c>
+      <c r="M12" s="1">
+        <v>0</v>
+      </c>
+      <c r="N12" s="1">
+        <v>1</v>
+      </c>
+      <c r="O12" s="4">
+        <f t="shared" si="0"/>
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="P12" s="1">
+        <v>80</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>70</v>
+      </c>
+      <c r="R12" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
+      <c r="G13" s="1">
+        <v>1</v>
+      </c>
+      <c r="H13" s="1">
+        <v>1</v>
+      </c>
+      <c r="I13" s="1">
+        <v>1</v>
+      </c>
+      <c r="J13" s="1">
+        <v>1</v>
+      </c>
+      <c r="K13" s="1">
+        <v>1</v>
+      </c>
+      <c r="L13" s="1">
+        <v>1</v>
+      </c>
+      <c r="M13" s="1">
+        <v>1</v>
+      </c>
+      <c r="N13" s="1">
+        <v>1</v>
+      </c>
+      <c r="O13" s="4">
+        <f t="shared" si="0"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="P13" s="1">
+        <v>80</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>80</v>
+      </c>
+      <c r="R13" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1</v>
+      </c>
+      <c r="H14" s="1">
+        <v>1</v>
+      </c>
+      <c r="I14" s="1">
+        <v>1</v>
+      </c>
+      <c r="J14" s="1">
+        <v>1</v>
+      </c>
+      <c r="K14" s="1">
+        <v>1</v>
+      </c>
+      <c r="L14" s="1">
+        <v>1</v>
+      </c>
+      <c r="M14" s="1">
+        <v>1</v>
+      </c>
+      <c r="N14" s="1">
+        <v>1</v>
+      </c>
+      <c r="O14" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="P14" s="1">
+        <v>90</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>90</v>
+      </c>
+      <c r="R14" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1</v>
+      </c>
+      <c r="H15" s="1">
+        <v>1</v>
+      </c>
+      <c r="I15" s="1">
+        <v>1</v>
+      </c>
+      <c r="J15" s="1">
+        <v>1</v>
+      </c>
+      <c r="K15" s="1">
+        <v>0</v>
+      </c>
+      <c r="L15" s="1">
+        <v>1</v>
+      </c>
+      <c r="M15" s="1">
+        <v>1</v>
+      </c>
+      <c r="N15" s="1">
+        <v>1</v>
+      </c>
+      <c r="O15" s="4">
+        <f t="shared" si="0"/>
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="P15" s="1">
+        <v>80</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>80</v>
+      </c>
+      <c r="R15" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0</v>
+      </c>
+      <c r="I16" s="1">
+        <v>1</v>
+      </c>
+      <c r="J16" s="1">
+        <v>1</v>
+      </c>
+      <c r="K16" s="1">
+        <v>0</v>
+      </c>
+      <c r="L16" s="1">
+        <v>1</v>
+      </c>
+      <c r="M16" s="1">
+        <v>1</v>
+      </c>
+      <c r="N16" s="1">
+        <v>1</v>
+      </c>
+      <c r="O16" s="4">
+        <f t="shared" si="0"/>
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="P16" s="1">
+        <v>70</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>70</v>
+      </c>
+      <c r="R16" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1</v>
+      </c>
+      <c r="H17" s="1">
+        <v>1</v>
+      </c>
+      <c r="I17" s="1">
+        <v>1</v>
+      </c>
+      <c r="J17" s="1">
+        <v>1</v>
+      </c>
+      <c r="K17" s="1">
+        <v>1</v>
+      </c>
+      <c r="L17" s="1">
+        <v>1</v>
+      </c>
+      <c r="M17" s="1">
+        <v>1</v>
+      </c>
+      <c r="N17" s="1">
+        <v>1</v>
+      </c>
+      <c r="O17" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="P17" s="1">
+        <v>90</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>90</v>
+      </c>
+      <c r="R17" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1</v>
+      </c>
+      <c r="H18" s="1">
+        <v>1</v>
+      </c>
+      <c r="I18" s="1">
+        <v>1</v>
+      </c>
+      <c r="J18" s="1">
+        <v>1</v>
+      </c>
+      <c r="K18" s="1">
+        <v>1</v>
+      </c>
+      <c r="L18" s="1">
+        <v>1</v>
+      </c>
+      <c r="M18" s="1">
+        <v>1</v>
+      </c>
+      <c r="N18" s="1">
+        <v>0</v>
+      </c>
+      <c r="O18" s="4">
+        <f t="shared" si="0"/>
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="P18" s="1">
+        <v>90</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>90</v>
+      </c>
+      <c r="R18" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1</v>
+      </c>
+      <c r="G19" s="1">
+        <v>1</v>
+      </c>
+      <c r="H19" s="1">
+        <v>1</v>
+      </c>
+      <c r="I19" s="1">
+        <v>1</v>
+      </c>
+      <c r="J19" s="1">
+        <v>1</v>
+      </c>
+      <c r="K19" s="1">
+        <v>1</v>
+      </c>
+      <c r="L19" s="1">
+        <v>1</v>
+      </c>
+      <c r="M19" s="1">
+        <v>1</v>
+      </c>
+      <c r="N19" s="1">
+        <v>1</v>
+      </c>
+      <c r="O19" s="4">
+        <f t="shared" si="0"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="P19" s="1">
+        <v>90</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>90</v>
+      </c>
+      <c r="R19" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1</v>
+      </c>
+      <c r="G20" s="1">
+        <v>1</v>
+      </c>
+      <c r="H20" s="1">
+        <v>1</v>
+      </c>
+      <c r="I20" s="1">
+        <v>1</v>
+      </c>
+      <c r="J20" s="1">
+        <v>1</v>
+      </c>
+      <c r="K20" s="1">
+        <v>1</v>
+      </c>
+      <c r="L20" s="1">
+        <v>1</v>
+      </c>
+      <c r="M20" s="1">
+        <v>1</v>
+      </c>
+      <c r="N20" s="1">
+        <v>1</v>
+      </c>
+      <c r="O20" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="P20" s="1">
+        <v>90</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>90</v>
+      </c>
+      <c r="R20" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1</v>
+      </c>
+      <c r="G21" s="1">
+        <v>1</v>
+      </c>
+      <c r="H21" s="1">
+        <v>1</v>
+      </c>
+      <c r="I21" s="1">
+        <v>1</v>
+      </c>
+      <c r="J21" s="1">
+        <v>1</v>
+      </c>
+      <c r="K21" s="1">
+        <v>1</v>
+      </c>
+      <c r="L21" s="1">
+        <v>1</v>
+      </c>
+      <c r="M21" s="1">
+        <v>1</v>
+      </c>
+      <c r="N21" s="1">
+        <v>1</v>
+      </c>
+      <c r="O21" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="P21" s="1">
+        <v>90</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>90</v>
+      </c>
+      <c r="R21" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1</v>
+      </c>
+      <c r="F22" s="1">
+        <v>1</v>
+      </c>
+      <c r="G22" s="1">
+        <v>1</v>
+      </c>
+      <c r="H22" s="1">
+        <v>1</v>
+      </c>
+      <c r="I22" s="1">
+        <v>1</v>
+      </c>
+      <c r="J22" s="1">
+        <v>1</v>
+      </c>
+      <c r="K22" s="1">
+        <v>1</v>
+      </c>
+      <c r="L22" s="1">
+        <v>1</v>
+      </c>
+      <c r="M22" s="1">
+        <v>1</v>
+      </c>
+      <c r="N22" s="1">
+        <v>1</v>
+      </c>
+      <c r="O22" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="P22" s="1">
+        <v>90</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>90</v>
+      </c>
+      <c r="R22" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="1">
+        <v>1</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1</v>
+      </c>
+      <c r="F23" s="1">
+        <v>1</v>
+      </c>
+      <c r="G23" s="1">
+        <v>1</v>
+      </c>
+      <c r="H23" s="1">
+        <v>1</v>
+      </c>
+      <c r="I23" s="1">
+        <v>1</v>
+      </c>
+      <c r="J23" s="1">
+        <v>1</v>
+      </c>
+      <c r="K23" s="1">
+        <v>1</v>
+      </c>
+      <c r="L23" s="1">
+        <v>1</v>
+      </c>
+      <c r="M23" s="1">
+        <v>1</v>
+      </c>
+      <c r="N23" s="1">
+        <v>1</v>
+      </c>
+      <c r="O23" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="P23" s="1">
+        <v>90</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>90</v>
+      </c>
+      <c r="R23" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1</v>
+      </c>
+      <c r="D24" s="1">
+        <v>1</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1</v>
+      </c>
+      <c r="F24" s="1">
+        <v>1</v>
+      </c>
+      <c r="G24" s="1">
+        <v>1</v>
+      </c>
+      <c r="H24" s="1">
+        <v>1</v>
+      </c>
+      <c r="I24" s="1">
+        <v>1</v>
+      </c>
+      <c r="J24" s="1">
+        <v>1</v>
+      </c>
+      <c r="K24" s="1">
+        <v>1</v>
+      </c>
+      <c r="L24" s="1">
+        <v>1</v>
+      </c>
+      <c r="M24" s="1">
+        <v>1</v>
+      </c>
+      <c r="N24" s="1">
+        <v>1</v>
+      </c>
+      <c r="O24" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="P24" s="1">
+        <v>90</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>90</v>
+      </c>
+      <c r="R24" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1</v>
+      </c>
+      <c r="E25" s="1">
+        <v>1</v>
+      </c>
+      <c r="F25" s="1">
+        <v>1</v>
+      </c>
+      <c r="G25" s="1">
+        <v>1</v>
+      </c>
+      <c r="H25" s="1">
+        <v>1</v>
+      </c>
+      <c r="I25" s="1">
+        <v>1</v>
+      </c>
+      <c r="J25" s="1">
+        <v>1</v>
+      </c>
+      <c r="K25" s="1">
+        <v>1</v>
+      </c>
+      <c r="L25" s="1">
+        <v>1</v>
+      </c>
+      <c r="M25" s="1">
+        <v>1</v>
+      </c>
+      <c r="N25" s="1">
+        <v>1</v>
+      </c>
+      <c r="O25" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="P25" s="1">
+        <v>90</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>90</v>
+      </c>
+      <c r="R25" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0</v>
+      </c>
+      <c r="H26" s="1">
+        <v>0</v>
+      </c>
+      <c r="I26" s="1">
+        <v>0</v>
+      </c>
+      <c r="J26" s="1">
+        <v>0</v>
+      </c>
+      <c r="K26" s="1">
+        <v>0</v>
+      </c>
+      <c r="L26" s="1">
+        <v>0</v>
+      </c>
+      <c r="M26" s="1">
+        <v>0</v>
+      </c>
+      <c r="N26" s="1">
+        <v>0</v>
+      </c>
+      <c r="O26" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P26" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="1">
+        <v>0</v>
+      </c>
+      <c r="R26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A27" s="9"/>
+      <c r="B27" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="25">
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A1:S2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B6:G6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="1" id="{567E01E5-2827-4140-934A-7D1967D91575}">
+            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols2" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>C9:N26</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68DCB367-571C-4D61-91BA-D5D691A289C7}">
+  <dimension ref="A1:Q27"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="3" max="8" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="5.7109375" customWidth="1"/>
+    <col min="13" max="13" width="7.28515625" customWidth="1"/>
+    <col min="14" max="14" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8" customWidth="1"/>
+    <col min="16" max="16" width="8.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="8">
+        <v>5</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+    </row>
+    <row r="8" spans="1:17" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="2">
+        <v>45040</v>
+      </c>
+      <c r="D8" s="2">
+        <v>45041</v>
+      </c>
+      <c r="E8" s="2">
+        <v>45043</v>
+      </c>
+      <c r="F8" s="2">
+        <v>45044</v>
+      </c>
+      <c r="G8" s="2">
+        <v>45048</v>
+      </c>
+      <c r="H8" s="2">
+        <v>45050</v>
+      </c>
+      <c r="I8" s="2">
+        <v>45054</v>
+      </c>
+      <c r="J8" s="2">
+        <v>45055</v>
+      </c>
+      <c r="K8" s="2">
+        <v>45057</v>
+      </c>
+      <c r="L8" s="2">
+        <v>45058</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1</v>
+      </c>
+      <c r="I9" s="1">
+        <v>1</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1</v>
+      </c>
+      <c r="K9" s="1">
+        <v>1</v>
+      </c>
+      <c r="L9" s="1">
+        <v>1</v>
+      </c>
+      <c r="M9" s="4">
+        <f>SUM(C9:L9)/10</f>
+        <v>1</v>
+      </c>
+      <c r="N9" s="1">
+        <v>80</v>
+      </c>
+      <c r="O9" s="1">
+        <v>80</v>
+      </c>
+      <c r="P9" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1</v>
+      </c>
+      <c r="I10" s="1">
+        <v>1</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1</v>
+      </c>
+      <c r="K10" s="1">
+        <v>1</v>
+      </c>
+      <c r="L10" s="1">
+        <v>1</v>
+      </c>
+      <c r="M10" s="4">
+        <f t="shared" ref="M10:M26" si="0">SUM(C10:L10)/10</f>
+        <v>1</v>
+      </c>
+      <c r="N10" s="1">
+        <v>90</v>
+      </c>
+      <c r="O10" s="1">
+        <v>90</v>
+      </c>
+      <c r="P10" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0</v>
+      </c>
+      <c r="L11" s="1">
+        <v>0</v>
+      </c>
+      <c r="M11" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>0</v>
+      </c>
+      <c r="P11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
+      <c r="H12" s="1">
+        <v>1</v>
+      </c>
+      <c r="I12" s="1">
+        <v>1</v>
+      </c>
+      <c r="J12" s="1">
+        <v>1</v>
+      </c>
+      <c r="K12" s="1">
+        <v>1</v>
+      </c>
+      <c r="L12" s="1">
+        <v>1</v>
+      </c>
+      <c r="M12" s="4">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+      <c r="N12" s="1">
+        <v>80</v>
+      </c>
+      <c r="O12" s="1">
+        <v>80</v>
+      </c>
+      <c r="P12" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
+      <c r="G13" s="1">
+        <v>1</v>
+      </c>
+      <c r="H13" s="1">
+        <v>1</v>
+      </c>
+      <c r="I13" s="1">
+        <v>1</v>
+      </c>
+      <c r="J13" s="1">
+        <v>1</v>
+      </c>
+      <c r="K13" s="1">
+        <v>1</v>
+      </c>
+      <c r="L13" s="1">
+        <v>1</v>
+      </c>
+      <c r="M13" s="4">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+      <c r="N13" s="1">
+        <v>80</v>
+      </c>
+      <c r="O13" s="1">
+        <v>80</v>
+      </c>
+      <c r="P13" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1</v>
+      </c>
+      <c r="H14" s="1">
+        <v>1</v>
+      </c>
+      <c r="I14" s="1">
+        <v>1</v>
+      </c>
+      <c r="J14" s="1">
+        <v>1</v>
+      </c>
+      <c r="K14" s="1">
+        <v>1</v>
+      </c>
+      <c r="L14" s="1">
+        <v>1</v>
+      </c>
+      <c r="M14" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N14" s="1">
+        <v>80</v>
+      </c>
+      <c r="O14" s="1">
+        <v>80</v>
+      </c>
+      <c r="P14" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1</v>
+      </c>
+      <c r="H15" s="1">
+        <v>1</v>
+      </c>
+      <c r="I15" s="1">
+        <v>1</v>
+      </c>
+      <c r="J15" s="1">
+        <v>1</v>
+      </c>
+      <c r="K15" s="1">
+        <v>1</v>
+      </c>
+      <c r="L15" s="1">
+        <v>1</v>
+      </c>
+      <c r="M15" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N15" s="1">
+        <v>90</v>
+      </c>
+      <c r="O15" s="1">
+        <v>90</v>
+      </c>
+      <c r="P15" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0</v>
+      </c>
+      <c r="I16" s="1">
+        <v>1</v>
+      </c>
+      <c r="J16" s="1">
+        <v>1</v>
+      </c>
+      <c r="K16" s="1">
+        <v>1</v>
+      </c>
+      <c r="L16" s="1">
+        <v>1</v>
+      </c>
+      <c r="M16" s="4">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+      <c r="N16" s="1">
+        <v>90</v>
+      </c>
+      <c r="O16" s="1">
+        <v>90</v>
+      </c>
+      <c r="P16" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1</v>
+      </c>
+      <c r="H17" s="1">
+        <v>1</v>
+      </c>
+      <c r="I17" s="1">
+        <v>1</v>
+      </c>
+      <c r="J17" s="1">
+        <v>1</v>
+      </c>
+      <c r="K17" s="1">
+        <v>1</v>
+      </c>
+      <c r="L17" s="1">
+        <v>1</v>
+      </c>
+      <c r="M17" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N17" s="1">
+        <v>90</v>
+      </c>
+      <c r="O17" s="1">
+        <v>90</v>
+      </c>
+      <c r="P17" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1</v>
+      </c>
+      <c r="H18" s="1">
+        <v>1</v>
+      </c>
+      <c r="I18" s="1">
+        <v>1</v>
+      </c>
+      <c r="J18" s="1">
+        <v>1</v>
+      </c>
+      <c r="K18" s="1">
+        <v>1</v>
+      </c>
+      <c r="L18" s="1">
+        <v>1</v>
+      </c>
+      <c r="M18" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N18" s="1">
+        <v>80</v>
+      </c>
+      <c r="O18" s="1">
+        <v>80</v>
+      </c>
+      <c r="P18" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1</v>
+      </c>
+      <c r="G19" s="1">
+        <v>1</v>
+      </c>
+      <c r="H19" s="1">
+        <v>1</v>
+      </c>
+      <c r="I19" s="1">
+        <v>1</v>
+      </c>
+      <c r="J19" s="1">
+        <v>1</v>
+      </c>
+      <c r="K19" s="1">
+        <v>1</v>
+      </c>
+      <c r="L19" s="1">
+        <v>1</v>
+      </c>
+      <c r="M19" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N19" s="1">
+        <v>90</v>
+      </c>
+      <c r="O19" s="1">
+        <v>90</v>
+      </c>
+      <c r="P19" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1</v>
+      </c>
+      <c r="G20" s="1">
+        <v>1</v>
+      </c>
+      <c r="H20" s="1">
+        <v>1</v>
+      </c>
+      <c r="I20" s="1">
+        <v>1</v>
+      </c>
+      <c r="J20" s="1">
+        <v>1</v>
+      </c>
+      <c r="K20" s="1">
+        <v>1</v>
+      </c>
+      <c r="L20" s="1">
+        <v>1</v>
+      </c>
+      <c r="M20" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N20" s="1">
+        <v>80</v>
+      </c>
+      <c r="O20" s="1">
+        <v>80</v>
+      </c>
+      <c r="P20" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1</v>
+      </c>
+      <c r="G21" s="1">
+        <v>1</v>
+      </c>
+      <c r="H21" s="1">
+        <v>1</v>
+      </c>
+      <c r="I21" s="1">
+        <v>1</v>
+      </c>
+      <c r="J21" s="1">
+        <v>1</v>
+      </c>
+      <c r="K21" s="1">
+        <v>1</v>
+      </c>
+      <c r="L21" s="1">
+        <v>1</v>
+      </c>
+      <c r="M21" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N21" s="1">
+        <v>80</v>
+      </c>
+      <c r="O21" s="1">
+        <v>80</v>
+      </c>
+      <c r="P21" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1</v>
+      </c>
+      <c r="F22" s="1">
+        <v>1</v>
+      </c>
+      <c r="G22" s="1">
+        <v>1</v>
+      </c>
+      <c r="H22" s="1">
+        <v>1</v>
+      </c>
+      <c r="I22" s="1">
+        <v>1</v>
+      </c>
+      <c r="J22" s="1">
+        <v>1</v>
+      </c>
+      <c r="K22" s="1">
+        <v>1</v>
+      </c>
+      <c r="L22" s="1">
+        <v>1</v>
+      </c>
+      <c r="M22" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N22" s="1">
+        <v>90</v>
+      </c>
+      <c r="O22" s="1">
+        <v>90</v>
+      </c>
+      <c r="P22" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="1">
+        <v>1</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1</v>
+      </c>
+      <c r="F23" s="1">
+        <v>1</v>
+      </c>
+      <c r="G23" s="1">
+        <v>1</v>
+      </c>
+      <c r="H23" s="1">
+        <v>1</v>
+      </c>
+      <c r="I23" s="1">
+        <v>1</v>
+      </c>
+      <c r="J23" s="1">
+        <v>1</v>
+      </c>
+      <c r="K23" s="1">
+        <v>1</v>
+      </c>
+      <c r="L23" s="1">
+        <v>1</v>
+      </c>
+      <c r="M23" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N23" s="1">
+        <v>80</v>
+      </c>
+      <c r="O23" s="1">
+        <v>80</v>
+      </c>
+      <c r="P23" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1</v>
+      </c>
+      <c r="D24" s="1">
+        <v>1</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1</v>
+      </c>
+      <c r="F24" s="1">
+        <v>1</v>
+      </c>
+      <c r="G24" s="1">
+        <v>1</v>
+      </c>
+      <c r="H24" s="1">
+        <v>1</v>
+      </c>
+      <c r="I24" s="1">
+        <v>1</v>
+      </c>
+      <c r="J24" s="1">
+        <v>1</v>
+      </c>
+      <c r="K24" s="1">
+        <v>1</v>
+      </c>
+      <c r="L24" s="1">
+        <v>1</v>
+      </c>
+      <c r="M24" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N24" s="1">
+        <v>80</v>
+      </c>
+      <c r="O24" s="1">
+        <v>80</v>
+      </c>
+      <c r="P24" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1</v>
+      </c>
+      <c r="E25" s="1">
+        <v>1</v>
+      </c>
+      <c r="F25" s="1">
+        <v>1</v>
+      </c>
+      <c r="G25" s="1">
+        <v>1</v>
+      </c>
+      <c r="H25" s="1">
+        <v>1</v>
+      </c>
+      <c r="I25" s="1">
+        <v>1</v>
+      </c>
+      <c r="J25" s="1">
+        <v>1</v>
+      </c>
+      <c r="K25" s="1">
+        <v>1</v>
+      </c>
+      <c r="L25" s="1">
+        <v>1</v>
+      </c>
+      <c r="M25" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N25" s="1">
+        <v>80</v>
+      </c>
+      <c r="O25" s="1">
+        <v>80</v>
+      </c>
+      <c r="P25" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0</v>
+      </c>
+      <c r="H26" s="1">
+        <v>0</v>
+      </c>
+      <c r="I26" s="1">
+        <v>0</v>
+      </c>
+      <c r="J26" s="1">
+        <v>0</v>
+      </c>
+      <c r="K26" s="1">
+        <v>0</v>
+      </c>
+      <c r="L26" s="1">
+        <v>0</v>
+      </c>
+      <c r="M26" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N26" s="1">
+        <v>0</v>
+      </c>
       <c r="O26" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6"/>
+      <c r="P26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="9"/>
+      <c r="B27" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="25">
     <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A1:P2"/>
+    <mergeCell ref="A1:Q2"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="B4:G4"/>
     <mergeCell ref="B5:G5"/>
@@ -3085,7 +6112,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="1" id="{5CC17DF1-DBC1-4867-BD86-1390D1E5CBF4}">
+          <x14:cfRule type="iconSet" priority="7" id="{8FDE0521-F8C2-44B4-8C21-5DA99748D8D2}">
             <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -3101,7 +6128,7 @@
               <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>C9:K26</xm:sqref>
+          <xm:sqref>C9:L26</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -3109,161 +6136,171 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DA60B28-B6D7-42FC-A2BA-260D6FE455E1}">
-  <dimension ref="A1:P27"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A44388A-F4B2-48EE-846A-7A64B56DEC2E}">
+  <dimension ref="A1:R27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="S19" sqref="S19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S22" sqref="S22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="16.42578125" customWidth="1"/>
     <col min="3" max="8" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="5.7109375" customWidth="1"/>
-    <col min="12" max="12" width="7.28515625" customWidth="1"/>
-    <col min="13" max="13" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8" customWidth="1"/>
-    <col min="15" max="15" width="8.5703125" customWidth="1"/>
+    <col min="9" max="13" width="5.7109375" customWidth="1"/>
+    <col min="14" max="14" width="7.28515625" customWidth="1"/>
+    <col min="15" max="15" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8" customWidth="1"/>
+    <col min="17" max="17" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="9">
-        <v>4</v>
-      </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B5" s="8">
+        <v>6</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-    </row>
-    <row r="8" spans="1:16" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+    </row>
+    <row r="8" spans="1:18" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="2">
-        <v>45006</v>
+        <v>45062</v>
       </c>
       <c r="D8" s="2">
-        <v>45039</v>
+        <v>45064</v>
       </c>
       <c r="E8" s="2">
-        <v>45009</v>
+        <v>45065</v>
       </c>
       <c r="F8" s="2">
-        <v>45012</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>35</v>
+        <v>45068</v>
+      </c>
+      <c r="G8" s="2">
+        <v>45069</v>
       </c>
       <c r="H8" s="2">
-        <v>45015</v>
+        <v>45078</v>
       </c>
       <c r="I8" s="2">
-        <v>45033</v>
+        <v>45079</v>
       </c>
       <c r="J8" s="2">
-        <v>45036</v>
+        <v>45075</v>
       </c>
       <c r="K8" s="2">
-        <v>45037</v>
-      </c>
-      <c r="L8" s="3" t="s">
+        <v>45076</v>
+      </c>
+      <c r="L8" s="2">
+        <v>45078</v>
+      </c>
+      <c r="M8" s="2">
+        <v>45079</v>
+      </c>
+      <c r="N8" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="M8" s="3" t="s">
+      <c r="O8" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="N8" s="3" t="s">
+      <c r="P8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="O8" s="3" t="s">
+      <c r="Q8" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>8</v>
       </c>
@@ -3297,17 +6334,27 @@
       <c r="K9" s="1">
         <v>1</v>
       </c>
-      <c r="L9" s="4">
-        <f>SUM(C9:K9)/9</f>
-        <v>1</v>
-      </c>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
+      <c r="L9" s="1">
+        <v>1</v>
+      </c>
+      <c r="M9" s="1">
+        <v>1</v>
+      </c>
+      <c r="N9" s="4">
+        <f>SUM(C9:M9)/11</f>
+        <v>1</v>
+      </c>
       <c r="O9" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="P9" s="1">
+        <v>90</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>9</v>
       </c>
@@ -3341,17 +6388,27 @@
       <c r="K10" s="1">
         <v>1</v>
       </c>
-      <c r="L10" s="4">
-        <f t="shared" ref="L10:L26" si="0">SUM(C10:K10)/9</f>
-        <v>1</v>
-      </c>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
+      <c r="L10" s="1">
+        <v>1</v>
+      </c>
+      <c r="M10" s="1">
+        <v>1</v>
+      </c>
+      <c r="N10" s="4">
+        <f t="shared" ref="N10:N26" si="0">SUM(C10:M10)/11</f>
+        <v>1</v>
+      </c>
       <c r="O10" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="P10" s="1">
+        <v>90</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>10</v>
       </c>
@@ -3371,31 +6428,41 @@
         <v>0</v>
       </c>
       <c r="G11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
-      </c>
-      <c r="L11" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="L11" s="1">
+        <v>1</v>
+      </c>
+      <c r="M11" s="1">
+        <v>1</v>
+      </c>
+      <c r="N11" s="4">
+        <f t="shared" si="0"/>
+        <v>0.63636363636363635</v>
+      </c>
       <c r="O11" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="P11" s="1">
+        <v>90</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>32</v>
       </c>
@@ -3406,19 +6473,19 @@
         <v>1</v>
       </c>
       <c r="D12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" s="1">
         <v>1</v>
       </c>
       <c r="F12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" s="1">
         <v>1</v>
       </c>
       <c r="H12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" s="1">
         <v>1</v>
@@ -3429,17 +6496,27 @@
       <c r="K12" s="1">
         <v>1</v>
       </c>
-      <c r="L12" s="4">
-        <f t="shared" si="0"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
+      <c r="L12" s="1">
+        <v>1</v>
+      </c>
+      <c r="M12" s="1">
+        <v>1</v>
+      </c>
+      <c r="N12" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="O12" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="P12" s="1">
+        <v>90</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>11</v>
       </c>
@@ -3447,7 +6524,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" s="1">
         <v>0</v>
@@ -3473,17 +6550,27 @@
       <c r="K13" s="1">
         <v>1</v>
       </c>
-      <c r="L13" s="4">
-        <f t="shared" si="0"/>
-        <v>0.77777777777777779</v>
-      </c>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
+      <c r="L13" s="1">
+        <v>1</v>
+      </c>
+      <c r="M13" s="1">
+        <v>1</v>
+      </c>
+      <c r="N13" s="4">
+        <f t="shared" si="0"/>
+        <v>0.90909090909090906</v>
+      </c>
       <c r="O13" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="P13" s="1">
+        <v>90</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>12</v>
       </c>
@@ -3517,17 +6604,27 @@
       <c r="K14" s="1">
         <v>1</v>
       </c>
-      <c r="L14" s="4">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
+      <c r="L14" s="1">
+        <v>1</v>
+      </c>
+      <c r="M14" s="1">
+        <v>1</v>
+      </c>
+      <c r="N14" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="O14" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="P14" s="1">
+        <v>90</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>30</v>
       </c>
@@ -3559,19 +6656,29 @@
         <v>1</v>
       </c>
       <c r="K15" s="1">
-        <v>0</v>
-      </c>
-      <c r="L15" s="4">
-        <f t="shared" si="0"/>
-        <v>0.88888888888888884</v>
-      </c>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="L15" s="1">
+        <v>1</v>
+      </c>
+      <c r="M15" s="1">
+        <v>1</v>
+      </c>
+      <c r="N15" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="O15" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="P15" s="1">
+        <v>90</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>13</v>
       </c>
@@ -3582,10 +6689,10 @@
         <v>1</v>
       </c>
       <c r="D16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
@@ -3594,7 +6701,7 @@
         <v>1</v>
       </c>
       <c r="H16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" s="1">
         <v>1</v>
@@ -3603,19 +6710,29 @@
         <v>1</v>
       </c>
       <c r="K16" s="1">
-        <v>0</v>
-      </c>
-      <c r="L16" s="4">
-        <f t="shared" si="0"/>
-        <v>0.44444444444444442</v>
-      </c>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="L16" s="1">
+        <v>1</v>
+      </c>
+      <c r="M16" s="1">
+        <v>1</v>
+      </c>
+      <c r="N16" s="4">
+        <f t="shared" si="0"/>
+        <v>0.90909090909090906</v>
+      </c>
       <c r="O16" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="P16" s="1">
+        <v>90</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>14</v>
       </c>
@@ -3649,17 +6766,27 @@
       <c r="K17" s="1">
         <v>1</v>
       </c>
-      <c r="L17" s="4">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
+      <c r="L17" s="1">
+        <v>1</v>
+      </c>
+      <c r="M17" s="1">
+        <v>1</v>
+      </c>
+      <c r="N17" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="O17" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="P17" s="1">
+        <v>90</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>28</v>
       </c>
@@ -3693,17 +6820,27 @@
       <c r="K18" s="1">
         <v>1</v>
       </c>
-      <c r="L18" s="4">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
+      <c r="L18" s="1">
+        <v>1</v>
+      </c>
+      <c r="M18" s="1">
+        <v>1</v>
+      </c>
+      <c r="N18" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="O18" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="P18" s="1">
+        <v>90</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>29</v>
       </c>
@@ -3714,10 +6851,10 @@
         <v>1</v>
       </c>
       <c r="D19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" s="1">
         <v>1</v>
@@ -3737,17 +6874,27 @@
       <c r="K19" s="1">
         <v>1</v>
       </c>
-      <c r="L19" s="4">
-        <f t="shared" si="0"/>
-        <v>0.77777777777777779</v>
-      </c>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
+      <c r="L19" s="1">
+        <v>1</v>
+      </c>
+      <c r="M19" s="1">
+        <v>1</v>
+      </c>
+      <c r="N19" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="O19" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="P19" s="1">
+        <v>90</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>17</v>
       </c>
@@ -3781,17 +6928,27 @@
       <c r="K20" s="1">
         <v>1</v>
       </c>
-      <c r="L20" s="4">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
+      <c r="L20" s="1">
+        <v>1</v>
+      </c>
+      <c r="M20" s="1">
+        <v>1</v>
+      </c>
+      <c r="N20" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="O20" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="P20" s="1">
+        <v>90</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>18</v>
       </c>
@@ -3825,17 +6982,27 @@
       <c r="K21" s="1">
         <v>1</v>
       </c>
-      <c r="L21" s="4">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
+      <c r="L21" s="1">
+        <v>1</v>
+      </c>
+      <c r="M21" s="1">
+        <v>1</v>
+      </c>
+      <c r="N21" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="O21" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="P21" s="1">
+        <v>90</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>19</v>
       </c>
@@ -3869,17 +7036,27 @@
       <c r="K22" s="1">
         <v>1</v>
       </c>
-      <c r="L22" s="4">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
+      <c r="L22" s="1">
+        <v>1</v>
+      </c>
+      <c r="M22" s="1">
+        <v>1</v>
+      </c>
+      <c r="N22" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="O22" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="P22" s="1">
+        <v>90</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>20</v>
       </c>
@@ -3913,17 +7090,27 @@
       <c r="K23" s="1">
         <v>1</v>
       </c>
-      <c r="L23" s="4">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
+      <c r="L23" s="1">
+        <v>1</v>
+      </c>
+      <c r="M23" s="1">
+        <v>1</v>
+      </c>
+      <c r="N23" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="O23" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="P23" s="1">
+        <v>90</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>21</v>
       </c>
@@ -3957,17 +7144,27 @@
       <c r="K24" s="1">
         <v>1</v>
       </c>
-      <c r="L24" s="4">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
+      <c r="L24" s="1">
+        <v>1</v>
+      </c>
+      <c r="M24" s="1">
+        <v>1</v>
+      </c>
+      <c r="N24" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="O24" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="P24" s="1">
+        <v>90</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>22</v>
       </c>
@@ -4001,17 +7198,27 @@
       <c r="K25" s="1">
         <v>1</v>
       </c>
-      <c r="L25" s="4">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
+      <c r="L25" s="1">
+        <v>1</v>
+      </c>
+      <c r="M25" s="1">
+        <v>1</v>
+      </c>
+      <c r="N25" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="O25" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="P25" s="1">
+        <v>90</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>23</v>
       </c>
@@ -4045,24 +7252,34 @@
       <c r="K26" s="1">
         <v>0</v>
       </c>
-      <c r="L26" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
+      <c r="L26" s="1">
+        <v>0</v>
+      </c>
+      <c r="M26" s="1">
+        <v>0</v>
+      </c>
+      <c r="N26" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="O26" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6"/>
+      <c r="P26" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" s="9"/>
+      <c r="B27" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="25">
     <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A1:P2"/>
+    <mergeCell ref="A1:R2"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="B4:G4"/>
     <mergeCell ref="B5:G5"/>
@@ -4092,7 +7309,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="1" id="{567E01E5-2827-4140-934A-7D1967D91575}">
+          <x14:cfRule type="iconSet" priority="1" id="{689FF6EC-2E35-4F64-9BF8-906037D5399B}">
             <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4108,7 +7325,7 @@
               <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>C9:K26</xm:sqref>
+          <xm:sqref>C9:M26</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
